--- a/Data/USconditions.xlsx
+++ b/Data/USconditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igarron\Documents\GitHub\Vulnerable-Funding-RR2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaciogarronvedia/Documents/GitHub/Vulnerable-Funding-RR2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C72EE51-FF15-41CF-979F-E06180B2D2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CFE8BF-E3B1-6540-853B-AD0BD20376AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2216C49B-0CF4-44C0-B597-0C0EC2EAB19F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{2216C49B-0CF4-44C0-B597-0C0EC2EAB19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NFCI</t>
   </si>
@@ -56,6 +56,12 @@
   <si>
     <t>SV</t>
   </si>
+  <si>
+    <t>VAR_GROWTH</t>
+  </si>
+  <si>
+    <t>VOL_GROWTH</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +70,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -100,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -108,10 +114,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +135,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,15 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6443C3C9-EB2F-4C4A-A6E2-8C0297F08FC4}">
-  <dimension ref="A1:I280"/>
+  <dimension ref="A1:AGW245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="10.83203125" style="5"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -457,530 +464,1565 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>21916</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="5">
         <v>0.477487310897318</v>
       </c>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="6">
+        <v>1.5637848956881099E-4</v>
+      </c>
+      <c r="I2" s="5">
+        <f>+H2^0.5*100</f>
+        <v>1.2505138526574227</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6"/>
+      <c r="CW2" s="6"/>
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="6"/>
+      <c r="CZ2" s="6"/>
+      <c r="DA2" s="6"/>
+      <c r="DB2" s="6"/>
+      <c r="DC2" s="6"/>
+      <c r="DD2" s="6"/>
+      <c r="DE2" s="6"/>
+      <c r="DF2" s="6"/>
+      <c r="DG2" s="6"/>
+      <c r="DH2" s="6"/>
+      <c r="DI2" s="6"/>
+      <c r="DJ2" s="6"/>
+      <c r="DK2" s="6"/>
+      <c r="DL2" s="6"/>
+      <c r="DM2" s="6"/>
+      <c r="DN2" s="6"/>
+      <c r="DS2" s="6"/>
+      <c r="DU2" s="6"/>
+      <c r="DW2" s="6"/>
+      <c r="DX2" s="6"/>
+      <c r="EB2" s="6"/>
+      <c r="EC2" s="6"/>
+      <c r="EN2" s="6"/>
+      <c r="EO2" s="6"/>
+      <c r="EP2" s="6"/>
+      <c r="EQ2" s="6"/>
+      <c r="ER2" s="6"/>
+      <c r="ES2" s="6"/>
+      <c r="ET2" s="6"/>
+      <c r="EU2" s="6"/>
+      <c r="EV2" s="6"/>
+      <c r="EW2" s="6"/>
+      <c r="EX2" s="6"/>
+      <c r="EY2" s="6"/>
+      <c r="FF2" s="6"/>
+      <c r="FV2" s="6"/>
+      <c r="FW2" s="6"/>
+      <c r="FX2" s="6"/>
+      <c r="FY2" s="6"/>
+      <c r="FZ2" s="6"/>
+      <c r="GA2" s="6"/>
+      <c r="GB2" s="6"/>
+      <c r="GC2" s="6"/>
+      <c r="GD2" s="6"/>
+      <c r="GE2" s="6"/>
+      <c r="GF2" s="6"/>
+      <c r="GG2" s="6"/>
+      <c r="GH2" s="6"/>
+      <c r="GI2" s="6"/>
+      <c r="GJ2" s="6"/>
+      <c r="GK2" s="6"/>
+      <c r="GL2" s="6"/>
+      <c r="GM2" s="6"/>
+      <c r="GN2" s="6"/>
+      <c r="GO2" s="6"/>
+      <c r="GP2" s="6"/>
+      <c r="GQ2" s="6"/>
+      <c r="GR2" s="6"/>
+      <c r="GS2" s="6"/>
+      <c r="GT2" s="6"/>
+      <c r="GU2" s="6"/>
+      <c r="GV2" s="6"/>
+      <c r="GW2" s="6"/>
+      <c r="GX2" s="6"/>
+      <c r="GY2" s="6"/>
+      <c r="GZ2" s="6"/>
+      <c r="HA2" s="6"/>
+      <c r="HB2" s="6"/>
+      <c r="HC2" s="6"/>
+      <c r="HD2" s="6"/>
+      <c r="HE2" s="6"/>
+      <c r="HF2" s="6"/>
+      <c r="HG2" s="6"/>
+      <c r="HH2" s="6"/>
+      <c r="HI2" s="6"/>
+      <c r="HJ2" s="6"/>
+      <c r="HK2" s="6"/>
+      <c r="HL2" s="6"/>
+      <c r="HM2" s="6"/>
+      <c r="HN2" s="6"/>
+      <c r="HO2" s="6"/>
+      <c r="HP2" s="6"/>
+      <c r="HQ2" s="6"/>
+      <c r="HR2" s="6"/>
+      <c r="HS2" s="6"/>
+      <c r="HT2" s="6"/>
+      <c r="HU2" s="6"/>
+      <c r="HV2" s="6"/>
+      <c r="HW2" s="6"/>
+      <c r="HX2" s="6"/>
+      <c r="HY2" s="6"/>
+      <c r="HZ2" s="6"/>
+      <c r="IA2" s="6"/>
+      <c r="IB2" s="6"/>
+      <c r="IC2" s="6"/>
+      <c r="ID2" s="6"/>
+      <c r="IE2" s="6"/>
+      <c r="IF2" s="6"/>
+      <c r="IG2" s="6"/>
+      <c r="IH2" s="6"/>
+      <c r="II2" s="6"/>
+      <c r="IJ2" s="6"/>
+      <c r="IK2" s="6"/>
+      <c r="IL2" s="6"/>
+      <c r="IM2" s="6"/>
+      <c r="IN2" s="6"/>
+      <c r="IO2" s="6"/>
+      <c r="IP2" s="6"/>
+      <c r="IQ2" s="6"/>
+      <c r="IR2" s="6"/>
+      <c r="IS2" s="6"/>
+      <c r="IT2" s="6"/>
+      <c r="IU2" s="6"/>
+      <c r="IV2" s="6"/>
+      <c r="IW2" s="6"/>
+      <c r="IX2" s="6"/>
+      <c r="IY2" s="6"/>
+      <c r="IZ2" s="6"/>
+      <c r="JA2" s="6"/>
+      <c r="JB2" s="6"/>
+      <c r="JC2" s="6"/>
+      <c r="JD2" s="6"/>
+      <c r="JE2" s="6"/>
+      <c r="JF2" s="6"/>
+      <c r="JG2" s="6"/>
+      <c r="JH2" s="6"/>
+      <c r="JI2" s="6"/>
+      <c r="JJ2" s="6"/>
+      <c r="JK2" s="6"/>
+      <c r="JL2" s="6"/>
+      <c r="JM2" s="6"/>
+      <c r="JN2" s="6"/>
+      <c r="JO2" s="6"/>
+      <c r="JP2" s="6"/>
+      <c r="JQ2" s="6"/>
+      <c r="JR2" s="6"/>
+      <c r="JS2" s="6"/>
+      <c r="JT2" s="6"/>
+      <c r="JU2" s="6"/>
+      <c r="JW2" s="6"/>
+      <c r="JX2" s="6"/>
+      <c r="JY2" s="6"/>
+      <c r="JZ2" s="6"/>
+      <c r="KA2" s="6"/>
+      <c r="KB2" s="6"/>
+      <c r="KC2" s="6"/>
+      <c r="KD2" s="6"/>
+      <c r="KG2" s="6"/>
+      <c r="KH2" s="6"/>
+      <c r="KI2" s="6"/>
+      <c r="KJ2" s="6"/>
+      <c r="KK2" s="6"/>
+      <c r="KL2" s="6"/>
+      <c r="KM2" s="6"/>
+      <c r="KN2" s="6"/>
+      <c r="KO2" s="6"/>
+      <c r="KP2" s="6"/>
+      <c r="KQ2" s="6"/>
+      <c r="KR2" s="6"/>
+      <c r="KS2" s="6"/>
+      <c r="KT2" s="6"/>
+      <c r="KU2" s="6"/>
+      <c r="KV2" s="6"/>
+      <c r="KW2" s="6"/>
+      <c r="KX2" s="6"/>
+      <c r="KY2" s="6"/>
+      <c r="KZ2" s="6"/>
+      <c r="LA2" s="6"/>
+      <c r="LB2" s="6"/>
+      <c r="LC2" s="6"/>
+      <c r="LD2" s="6"/>
+      <c r="LE2" s="6"/>
+      <c r="LF2" s="6"/>
+      <c r="LG2" s="6"/>
+      <c r="LH2" s="6"/>
+      <c r="LI2" s="6"/>
+      <c r="LJ2" s="6"/>
+      <c r="LK2" s="6"/>
+      <c r="LL2" s="6"/>
+      <c r="LM2" s="6"/>
+      <c r="LN2" s="6"/>
+      <c r="LO2" s="6"/>
+      <c r="LP2" s="6"/>
+      <c r="LQ2" s="6"/>
+      <c r="LR2" s="6"/>
+      <c r="LS2" s="6"/>
+      <c r="LT2" s="6"/>
+      <c r="LU2" s="6"/>
+      <c r="LV2" s="6"/>
+      <c r="LW2" s="6"/>
+      <c r="LX2" s="6"/>
+      <c r="LY2" s="6"/>
+      <c r="LZ2" s="6"/>
+      <c r="MA2" s="6"/>
+      <c r="MI2" s="6"/>
+      <c r="MJ2" s="6"/>
+      <c r="MK2" s="6"/>
+      <c r="ML2" s="6"/>
+      <c r="MM2" s="6"/>
+      <c r="MN2" s="6"/>
+      <c r="MO2" s="6"/>
+      <c r="MP2" s="6"/>
+      <c r="MQ2" s="6"/>
+      <c r="MR2" s="6"/>
+      <c r="MS2" s="6"/>
+      <c r="MT2" s="6"/>
+      <c r="MU2" s="6"/>
+      <c r="MV2" s="6"/>
+      <c r="MW2" s="6"/>
+      <c r="MX2" s="6"/>
+      <c r="MY2" s="6"/>
+      <c r="MZ2" s="6"/>
+      <c r="NA2" s="6"/>
+      <c r="NB2" s="6"/>
+      <c r="NC2" s="6"/>
+      <c r="ND2" s="6"/>
+      <c r="NE2" s="6"/>
+      <c r="NF2" s="6"/>
+      <c r="NG2" s="6"/>
+      <c r="NH2" s="6"/>
+      <c r="NI2" s="6"/>
+      <c r="NJ2" s="6"/>
+      <c r="NK2" s="6"/>
+      <c r="NL2" s="6"/>
+      <c r="NM2" s="6"/>
+      <c r="NN2" s="6"/>
+      <c r="NO2" s="6"/>
+      <c r="NP2" s="6"/>
+      <c r="NQ2" s="6"/>
+      <c r="NR2" s="6"/>
+      <c r="NS2" s="6"/>
+      <c r="NT2" s="6"/>
+      <c r="NU2" s="6"/>
+      <c r="NV2" s="6"/>
+      <c r="NW2" s="6"/>
+      <c r="NX2" s="6"/>
+      <c r="NY2" s="6"/>
+      <c r="NZ2" s="6"/>
+      <c r="OA2" s="6"/>
+      <c r="OB2" s="6"/>
+      <c r="OC2" s="6"/>
+      <c r="OD2" s="6"/>
+      <c r="OE2" s="6"/>
+      <c r="OF2" s="6"/>
+      <c r="OG2" s="6"/>
+      <c r="OH2" s="6"/>
+      <c r="OI2" s="6"/>
+      <c r="OJ2" s="6"/>
+      <c r="OK2" s="6"/>
+      <c r="OL2" s="6"/>
+      <c r="OM2" s="6"/>
+      <c r="ON2" s="6"/>
+      <c r="OT2" s="6"/>
+      <c r="OU2" s="6"/>
+      <c r="OV2" s="6"/>
+      <c r="OW2" s="6"/>
+      <c r="OX2" s="6"/>
+      <c r="OY2" s="6"/>
+      <c r="OZ2" s="6"/>
+      <c r="PA2" s="6"/>
+      <c r="PB2" s="6"/>
+      <c r="PC2" s="6"/>
+      <c r="PD2" s="6"/>
+      <c r="PE2" s="6"/>
+      <c r="PF2" s="6"/>
+      <c r="PG2" s="6"/>
+      <c r="PK2" s="6"/>
+      <c r="PV2" s="6"/>
+      <c r="PW2" s="6"/>
+      <c r="PX2" s="6"/>
+      <c r="PY2" s="6"/>
+      <c r="PZ2" s="6"/>
+      <c r="QA2" s="6"/>
+      <c r="QB2" s="6"/>
+      <c r="QC2" s="6"/>
+      <c r="QD2" s="6"/>
+      <c r="QE2" s="6"/>
+      <c r="QF2" s="6"/>
+      <c r="QG2" s="6"/>
+      <c r="QH2" s="6"/>
+      <c r="QI2" s="6"/>
+      <c r="QJ2" s="6"/>
+      <c r="QK2" s="6"/>
+      <c r="QL2" s="6"/>
+      <c r="QM2" s="6"/>
+      <c r="QN2" s="6"/>
+      <c r="QO2" s="6"/>
+      <c r="QP2" s="6"/>
+      <c r="QQ2" s="6"/>
+      <c r="QR2" s="6"/>
+      <c r="QS2" s="6"/>
+      <c r="QT2" s="6"/>
+      <c r="QU2" s="6"/>
+      <c r="QV2" s="6"/>
+      <c r="QW2" s="6"/>
+      <c r="QX2" s="6"/>
+      <c r="QY2" s="6"/>
+      <c r="QZ2" s="6"/>
+      <c r="RA2" s="6"/>
+      <c r="RB2" s="6"/>
+      <c r="RC2" s="6"/>
+      <c r="RD2" s="6"/>
+      <c r="RE2" s="6"/>
+      <c r="RF2" s="6"/>
+      <c r="RG2" s="6"/>
+      <c r="RH2" s="6"/>
+      <c r="RI2" s="6"/>
+      <c r="RJ2" s="6"/>
+      <c r="RK2" s="6"/>
+      <c r="RL2" s="6"/>
+      <c r="RM2" s="6"/>
+      <c r="RN2" s="6"/>
+      <c r="RO2" s="6"/>
+      <c r="RP2" s="6"/>
+      <c r="RQ2" s="6"/>
+      <c r="RR2" s="6"/>
+      <c r="RS2" s="6"/>
+      <c r="RT2" s="6"/>
+      <c r="RU2" s="6"/>
+      <c r="RV2" s="6"/>
+      <c r="RW2" s="6"/>
+      <c r="RX2" s="6"/>
+      <c r="RY2" s="6"/>
+      <c r="RZ2" s="6"/>
+      <c r="SA2" s="6"/>
+      <c r="SB2" s="6"/>
+      <c r="SC2" s="6"/>
+      <c r="SD2" s="6"/>
+      <c r="SE2" s="6"/>
+      <c r="SF2" s="6"/>
+      <c r="SG2" s="6"/>
+      <c r="SH2" s="6"/>
+      <c r="SI2" s="6"/>
+      <c r="SJ2" s="6"/>
+      <c r="SK2" s="6"/>
+      <c r="SL2" s="6"/>
+      <c r="SM2" s="6"/>
+      <c r="SN2" s="6"/>
+      <c r="SO2" s="6"/>
+      <c r="SP2" s="6"/>
+      <c r="SQ2" s="6"/>
+      <c r="SR2" s="6"/>
+      <c r="SS2" s="6"/>
+      <c r="ST2" s="6"/>
+      <c r="SU2" s="6"/>
+      <c r="SV2" s="6"/>
+      <c r="SW2" s="6"/>
+      <c r="SX2" s="6"/>
+      <c r="SY2" s="6"/>
+      <c r="SZ2" s="6"/>
+      <c r="TA2" s="6"/>
+      <c r="TB2" s="6"/>
+      <c r="TC2" s="6"/>
+      <c r="TD2" s="6"/>
+      <c r="TE2" s="6"/>
+      <c r="TF2" s="6"/>
+      <c r="TG2" s="6"/>
+      <c r="TH2" s="6"/>
+      <c r="TI2" s="6"/>
+      <c r="TJ2" s="6"/>
+      <c r="TK2" s="6"/>
+      <c r="TL2" s="6"/>
+      <c r="TM2" s="6"/>
+      <c r="TN2" s="6"/>
+      <c r="TO2" s="6"/>
+      <c r="TP2" s="6"/>
+      <c r="TQ2" s="6"/>
+      <c r="TR2" s="6"/>
+      <c r="TS2" s="6"/>
+      <c r="TT2" s="6"/>
+      <c r="TU2" s="6"/>
+      <c r="TV2" s="6"/>
+      <c r="TW2" s="6"/>
+      <c r="TX2" s="6"/>
+      <c r="TY2" s="6"/>
+      <c r="TZ2" s="6"/>
+      <c r="UA2" s="6"/>
+      <c r="UB2" s="6"/>
+      <c r="UC2" s="6"/>
+      <c r="UD2" s="6"/>
+      <c r="UE2" s="6"/>
+      <c r="UF2" s="6"/>
+      <c r="UG2" s="6"/>
+      <c r="UH2" s="6"/>
+      <c r="UI2" s="6"/>
+      <c r="UJ2" s="6"/>
+      <c r="UK2" s="6"/>
+      <c r="UL2" s="6"/>
+      <c r="UM2" s="6"/>
+      <c r="UN2" s="6"/>
+      <c r="UO2" s="6"/>
+      <c r="UP2" s="6"/>
+      <c r="UQ2" s="6"/>
+      <c r="UR2" s="6"/>
+      <c r="US2" s="6"/>
+      <c r="UT2" s="6"/>
+      <c r="UU2" s="6"/>
+      <c r="UV2" s="6"/>
+      <c r="UW2" s="6"/>
+      <c r="UX2" s="6"/>
+      <c r="UY2" s="6"/>
+      <c r="UZ2" s="6"/>
+      <c r="VA2" s="6"/>
+      <c r="VB2" s="6"/>
+      <c r="VC2" s="6"/>
+      <c r="VD2" s="6"/>
+      <c r="VE2" s="6"/>
+      <c r="VF2" s="6"/>
+      <c r="VG2" s="6"/>
+      <c r="VH2" s="6"/>
+      <c r="VI2" s="6"/>
+      <c r="VJ2" s="6"/>
+      <c r="VK2" s="6"/>
+      <c r="VL2" s="6"/>
+      <c r="VM2" s="6"/>
+      <c r="VN2" s="6"/>
+      <c r="VO2" s="6"/>
+      <c r="VP2" s="6"/>
+      <c r="VQ2" s="6"/>
+      <c r="VR2" s="6"/>
+      <c r="VS2" s="6"/>
+      <c r="VT2" s="6"/>
+      <c r="VU2" s="6"/>
+      <c r="VV2" s="6"/>
+      <c r="VW2" s="6"/>
+      <c r="VX2" s="6"/>
+      <c r="VY2" s="6"/>
+      <c r="VZ2" s="6"/>
+      <c r="WA2" s="6"/>
+      <c r="WB2" s="6"/>
+      <c r="WC2" s="6"/>
+      <c r="WD2" s="6"/>
+      <c r="WE2" s="6"/>
+      <c r="WF2" s="6"/>
+      <c r="WG2" s="6"/>
+      <c r="WH2" s="6"/>
+      <c r="WI2" s="6"/>
+      <c r="WJ2" s="6"/>
+      <c r="WK2" s="6"/>
+      <c r="WL2" s="6"/>
+      <c r="WM2" s="6"/>
+      <c r="WN2" s="6"/>
+      <c r="WO2" s="6"/>
+      <c r="WP2" s="6"/>
+      <c r="WQ2" s="6"/>
+      <c r="WR2" s="6"/>
+      <c r="WS2" s="6"/>
+      <c r="WT2" s="6"/>
+      <c r="WU2" s="6"/>
+      <c r="WV2" s="6"/>
+      <c r="WW2" s="6"/>
+      <c r="WX2" s="6"/>
+      <c r="WY2" s="6"/>
+      <c r="WZ2" s="6"/>
+      <c r="XA2" s="6"/>
+      <c r="XB2" s="6"/>
+      <c r="XC2" s="6"/>
+      <c r="XD2" s="6"/>
+      <c r="XE2" s="6"/>
+      <c r="XF2" s="6"/>
+      <c r="XG2" s="6"/>
+      <c r="XH2" s="6"/>
+      <c r="XI2" s="6"/>
+      <c r="XJ2" s="6"/>
+      <c r="XK2" s="6"/>
+      <c r="XL2" s="6"/>
+      <c r="XM2" s="6"/>
+      <c r="XN2" s="6"/>
+      <c r="XO2" s="6"/>
+      <c r="XP2" s="6"/>
+      <c r="XQ2" s="6"/>
+      <c r="XR2" s="6"/>
+      <c r="XS2" s="6"/>
+      <c r="XT2" s="6"/>
+      <c r="XU2" s="6"/>
+      <c r="XV2" s="6"/>
+      <c r="XW2" s="6"/>
+      <c r="XX2" s="6"/>
+      <c r="XY2" s="6"/>
+      <c r="XZ2" s="6"/>
+      <c r="YA2" s="6"/>
+      <c r="YB2" s="6"/>
+      <c r="YC2" s="6"/>
+      <c r="YD2" s="6"/>
+      <c r="YE2" s="6"/>
+      <c r="YF2" s="6"/>
+      <c r="YG2" s="6"/>
+      <c r="YH2" s="6"/>
+      <c r="YI2" s="6"/>
+      <c r="YJ2" s="6"/>
+      <c r="YK2" s="6"/>
+      <c r="YL2" s="6"/>
+      <c r="YM2" s="6"/>
+      <c r="YN2" s="6"/>
+      <c r="YO2" s="6"/>
+      <c r="YP2" s="6"/>
+      <c r="YQ2" s="6"/>
+      <c r="YR2" s="6"/>
+      <c r="YS2" s="6"/>
+      <c r="YT2" s="6"/>
+      <c r="YU2" s="6"/>
+      <c r="YV2" s="6"/>
+      <c r="YW2" s="6"/>
+      <c r="YX2" s="6"/>
+      <c r="YY2" s="6"/>
+      <c r="YZ2" s="6"/>
+      <c r="ZA2" s="6"/>
+      <c r="ZB2" s="6"/>
+      <c r="ZC2" s="6"/>
+      <c r="ZD2" s="6"/>
+      <c r="ZE2" s="6"/>
+      <c r="ZF2" s="6"/>
+      <c r="ZG2" s="6"/>
+      <c r="ZH2" s="6"/>
+      <c r="ZI2" s="6"/>
+      <c r="ZJ2" s="6"/>
+      <c r="ZK2" s="6"/>
+      <c r="ZL2" s="6"/>
+      <c r="ZM2" s="6"/>
+      <c r="ZN2" s="6"/>
+      <c r="ZO2" s="6"/>
+      <c r="ZP2" s="6"/>
+      <c r="ZQ2" s="6"/>
+      <c r="ZR2" s="6"/>
+      <c r="ZS2" s="6"/>
+      <c r="ZT2" s="6"/>
+      <c r="ZU2" s="6"/>
+      <c r="ZV2" s="6"/>
+      <c r="ZW2" s="6"/>
+      <c r="ZX2" s="6"/>
+      <c r="ZY2" s="6"/>
+      <c r="ZZ2" s="6"/>
+      <c r="AAA2" s="6"/>
+      <c r="AAB2" s="6"/>
+      <c r="AAC2" s="6"/>
+      <c r="AAD2" s="6"/>
+      <c r="AAE2" s="6"/>
+      <c r="AAF2" s="6"/>
+      <c r="AAG2" s="6"/>
+      <c r="AAH2" s="6"/>
+      <c r="AAI2" s="6"/>
+      <c r="AAJ2" s="6"/>
+      <c r="AAK2" s="6"/>
+      <c r="AAL2" s="6"/>
+      <c r="AAM2" s="6"/>
+      <c r="AAN2" s="6"/>
+      <c r="AAO2" s="6"/>
+      <c r="AAP2" s="6"/>
+      <c r="AAQ2" s="6"/>
+      <c r="AAR2" s="6"/>
+      <c r="AAS2" s="6"/>
+      <c r="AAT2" s="6"/>
+      <c r="AAU2" s="6"/>
+      <c r="AAV2" s="6"/>
+      <c r="AAW2" s="6"/>
+      <c r="AAX2" s="6"/>
+      <c r="AAY2" s="6"/>
+      <c r="AAZ2" s="6"/>
+      <c r="ABA2" s="6"/>
+      <c r="ABB2" s="6"/>
+      <c r="ABC2" s="6"/>
+      <c r="ABD2" s="6"/>
+      <c r="ABE2" s="6"/>
+      <c r="ABF2" s="6"/>
+      <c r="ABG2" s="6"/>
+      <c r="ABH2" s="6"/>
+      <c r="ABI2" s="6"/>
+      <c r="ABJ2" s="6"/>
+      <c r="ABK2" s="6"/>
+      <c r="ABL2" s="6"/>
+      <c r="ABM2" s="6"/>
+      <c r="ABN2" s="6"/>
+      <c r="ABO2" s="6"/>
+      <c r="ABP2" s="6"/>
+      <c r="ACB2" s="6"/>
+      <c r="ACC2" s="6"/>
+      <c r="ACD2" s="6"/>
+      <c r="ACE2" s="6"/>
+      <c r="ACF2" s="6"/>
+      <c r="ACG2" s="6"/>
+      <c r="ACH2" s="6"/>
+      <c r="ACI2" s="6"/>
+      <c r="ACJ2" s="6"/>
+      <c r="ACK2" s="6"/>
+      <c r="ACL2" s="6"/>
+      <c r="ACM2" s="6"/>
+      <c r="ACN2" s="6"/>
+      <c r="ACO2" s="6"/>
+      <c r="ACP2" s="6"/>
+      <c r="ACQ2" s="6"/>
+      <c r="ACR2" s="6"/>
+      <c r="ACS2" s="6"/>
+      <c r="ACT2" s="6"/>
+      <c r="ACU2" s="6"/>
+      <c r="ACV2" s="6"/>
+      <c r="ACW2" s="6"/>
+      <c r="ACX2" s="6"/>
+      <c r="ACY2" s="6"/>
+      <c r="ACZ2" s="6"/>
+      <c r="ADA2" s="6"/>
+      <c r="ADB2" s="6"/>
+      <c r="ADC2" s="6"/>
+      <c r="ADD2" s="6"/>
+      <c r="ADE2" s="6"/>
+      <c r="ADF2" s="6"/>
+      <c r="ADG2" s="6"/>
+      <c r="ADH2" s="6"/>
+      <c r="ADI2" s="6"/>
+      <c r="ADJ2" s="6"/>
+      <c r="ADK2" s="6"/>
+      <c r="ADL2" s="6"/>
+      <c r="ADM2" s="6"/>
+      <c r="ADN2" s="6"/>
+      <c r="ADO2" s="6"/>
+      <c r="ADP2" s="6"/>
+      <c r="ADQ2" s="6"/>
+      <c r="ADR2" s="6"/>
+      <c r="ADS2" s="6"/>
+      <c r="ADT2" s="6"/>
+      <c r="ADU2" s="6"/>
+      <c r="ADV2" s="6"/>
+      <c r="ADW2" s="6"/>
+      <c r="ADX2" s="6"/>
+      <c r="ADY2" s="6"/>
+      <c r="ADZ2" s="6"/>
+      <c r="AEA2" s="6"/>
+      <c r="AEB2" s="6"/>
+      <c r="AEC2" s="6"/>
+      <c r="AED2" s="6"/>
+      <c r="AEE2" s="6"/>
+      <c r="AEF2" s="6"/>
+      <c r="AEG2" s="6"/>
+      <c r="AEH2" s="6"/>
+      <c r="AEI2" s="6"/>
+      <c r="AEJ2" s="6"/>
+      <c r="AEK2" s="6"/>
+      <c r="AEL2" s="6"/>
+      <c r="AEM2" s="6"/>
+      <c r="AEN2" s="6"/>
+      <c r="AEO2" s="6"/>
+      <c r="AEP2" s="6"/>
+      <c r="AEQ2" s="6"/>
+      <c r="AER2" s="6"/>
+      <c r="AES2" s="6"/>
+      <c r="AET2" s="6"/>
+      <c r="AEU2" s="6"/>
+      <c r="AEV2" s="6"/>
+      <c r="AEW2" s="6"/>
+      <c r="AEX2" s="6"/>
+      <c r="AEY2" s="6"/>
+      <c r="AEZ2" s="6"/>
+      <c r="AFA2" s="6"/>
+      <c r="AFB2" s="6"/>
+      <c r="AFC2" s="6"/>
+      <c r="AFD2" s="6"/>
+      <c r="AFE2" s="6"/>
+      <c r="AFF2" s="6"/>
+      <c r="AFG2" s="6"/>
+      <c r="AFH2" s="6"/>
+      <c r="AFI2" s="6"/>
+      <c r="AFJ2" s="6"/>
+      <c r="AFK2" s="6"/>
+      <c r="AFL2" s="6"/>
+      <c r="AFM2" s="6"/>
+      <c r="AFN2" s="6"/>
+      <c r="AFO2" s="6"/>
+      <c r="AFP2" s="6"/>
+      <c r="AFQ2" s="6"/>
+      <c r="AFR2" s="6"/>
+      <c r="AFS2" s="6"/>
+      <c r="AFT2" s="6"/>
+      <c r="AFU2" s="6"/>
+      <c r="AFV2" s="6"/>
+      <c r="AFW2" s="6"/>
+      <c r="AFX2" s="6"/>
+      <c r="AFY2" s="6"/>
+      <c r="AFZ2" s="6"/>
+      <c r="AGA2" s="6"/>
+      <c r="AGB2" s="6"/>
+      <c r="AGC2" s="6"/>
+      <c r="AGD2" s="6"/>
+      <c r="AGE2" s="6"/>
+      <c r="AGF2" s="6"/>
+      <c r="AGG2" s="6"/>
+      <c r="AGH2" s="6"/>
+      <c r="AGI2" s="6"/>
+      <c r="AGJ2" s="6"/>
+      <c r="AGK2" s="6"/>
+      <c r="AGL2" s="6"/>
+      <c r="AGM2" s="6"/>
+      <c r="AGN2" s="6"/>
+      <c r="AGO2" s="6"/>
+      <c r="AGP2" s="6"/>
+      <c r="AGQ2" s="6"/>
+      <c r="AGR2" s="6"/>
+      <c r="AGS2" s="6"/>
+      <c r="AGT2" s="6"/>
+      <c r="AGU2" s="6"/>
+      <c r="AGV2" s="6"/>
+      <c r="AGW2" s="6"/>
+    </row>
+    <row r="3" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>22007</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="5">
         <v>0.28843341544092699</v>
       </c>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1.64745110317301E-4</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I66" si="0">+H3^0.5*100</f>
+        <v>1.2835307176585258</v>
+      </c>
+    </row>
+    <row r="4" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>22098</v>
       </c>
       <c r="E4">
         <v>0.89823574856820698</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="5">
         <v>0.523840997431956</v>
       </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1.70292826417622E-4</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3049629359396457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>22190</v>
       </c>
       <c r="E5">
         <v>0.88038138353941431</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>0.41520588239302902</v>
       </c>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1.8985036989324099E-4</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3778620028625546</v>
+      </c>
+    </row>
+    <row r="6" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>22282</v>
       </c>
       <c r="E6">
         <v>0.86678018386363609</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <v>0.28804340501403503</v>
       </c>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1.06193863264414E-4</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0305040672622987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>22372</v>
       </c>
       <c r="E7">
         <v>0.82704383423017103</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>0.78757365906479704</v>
       </c>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="6">
+        <v>5.5756274243383698E-5</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="0"/>
+        <v>0.74670124041268138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>22463</v>
       </c>
       <c r="E8">
         <v>0.80974018785446711</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <v>0.35196512504823901</v>
       </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="6">
+        <v>4.9668621714339698E-5</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="0"/>
+        <v>0.70475968751298268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>22555</v>
       </c>
       <c r="E9">
         <v>0.82842824991572772</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <v>0.214806443399745</v>
       </c>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="6">
+        <v>6.4042515419638401E-5</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="0"/>
+        <v>0.80026567725748676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>22647</v>
       </c>
       <c r="E10">
         <v>0.88904687865757681</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <v>0.215049734610615</v>
       </c>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="6">
+        <v>6.4981724169380407E-5</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>0.80611242497173075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>22737</v>
       </c>
       <c r="E11">
         <v>1.0451332275771801</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <v>2.7095158480363302</v>
       </c>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="6">
+        <v>6.7687115930042805E-5</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82272179945618806</v>
+      </c>
+    </row>
+    <row r="12" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>22828</v>
       </c>
       <c r="E12">
         <v>1.0184138480069733</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>0.60333941346306597</v>
       </c>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="6">
+        <v>5.2598135515577201E-5</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="0"/>
+        <v>0.72524572053599323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>22920</v>
       </c>
       <c r="E13">
         <v>0.99035553290120404</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <v>0.84332705248901996</v>
       </c>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="6">
+        <v>4.2500277946518702E-5</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65192237226926564</v>
+      </c>
+    </row>
+    <row r="14" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>23012</v>
       </c>
       <c r="E14">
         <v>0.84785472548782226</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="5">
         <v>0.233373226543341</v>
       </c>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="6">
+        <v>2.9456474568352701E-5</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54273819257863831</v>
+      </c>
+    </row>
+    <row r="15" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>23102</v>
       </c>
       <c r="E15">
         <v>0.73986291035535234</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <v>0.140313306383647</v>
       </c>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="6">
+        <v>4.0009955644320502E-5</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="0"/>
+        <v>0.63253423341603021</v>
+      </c>
+    </row>
+    <row r="16" spans="1:881" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>23193</v>
       </c>
       <c r="E16">
         <v>0.69352357506341156</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="5">
         <v>0.18524051610921899</v>
       </c>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="6">
+        <v>3.3657065611842497E-5</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="0"/>
+        <v>0.58014709869000036</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>23285</v>
       </c>
       <c r="E17">
         <v>0.64990109871809398</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="5">
         <v>0.63500108994776905</v>
       </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="6">
+        <v>3.5406337269781798E-5</v>
+      </c>
+      <c r="I17" s="5">
+        <f t="shared" si="0"/>
+        <v>0.59503224509081687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>23377</v>
       </c>
       <c r="E18">
         <v>0.6169096585764513</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="5">
         <v>5.9524167113452403E-2</v>
       </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="6">
+        <v>3.02097755153639E-5</v>
+      </c>
+      <c r="I18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54963420122263051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>23468</v>
       </c>
       <c r="E19">
         <v>0.59873893043850501</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>0.142349737974374</v>
       </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="6">
+        <v>2.4630400689256399E-5</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49629024460749172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>23559</v>
       </c>
       <c r="E20">
         <v>0.60884874133600009</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="5">
         <v>0.124497306396282</v>
       </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="6">
+        <v>5.0995617413657102E-5</v>
+      </c>
+      <c r="I20" s="5">
+        <f t="shared" si="0"/>
+        <v>0.71411215795319638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>23651</v>
       </c>
       <c r="E21">
         <v>0.63345354326014836</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <v>0.119411352803</v>
       </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="6">
+        <v>3.4616820332966902E-5</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.58836060654131916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>23743</v>
       </c>
       <c r="E22">
         <v>0.68472965350499171</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="5">
         <v>0.113721240145972</v>
       </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="6">
+        <v>2.4832538795436E-5</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49832257419703557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>23833</v>
       </c>
       <c r="E23">
         <v>0.75715019105815129</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="5">
         <v>0.40777354009377897</v>
       </c>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="6">
+        <v>2.1593809796448402E-5</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46469140078603133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23924</v>
       </c>
       <c r="E24">
         <v>0.76707807713963838</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="5">
         <v>0.14492537703182201</v>
       </c>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="6">
+        <v>2.1078578959002299E-5</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45911413568961584</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24016</v>
       </c>
       <c r="E25">
         <v>0.76944434091235936</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="5">
         <v>0.10011503020040299</v>
       </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="6">
+        <v>1.8845748229026399E-5</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43411689933733744</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24108</v>
       </c>
       <c r="E26">
         <v>0.81022271373503096</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="5">
         <v>0.22553827247963801</v>
       </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="6">
+        <v>1.9785228071719599E-5</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44480589105495894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>24198</v>
       </c>
       <c r="E27">
         <v>0.90409985369729906</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <v>0.44420477774088102</v>
       </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="6">
+        <v>2.02940671782072E-5</v>
+      </c>
+      <c r="I27" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45048936922204053</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>24289</v>
       </c>
       <c r="E28">
         <v>0.93575675143301906</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="5">
         <v>0.90692137500787895</v>
       </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="6">
+        <v>2.9492754744356299E-5</v>
+      </c>
+      <c r="I28" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54307232247976234</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>24381</v>
       </c>
       <c r="E29">
         <v>0.92591143844063939</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="5">
         <v>0.63341005878266099</v>
       </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="6">
+        <v>5.3621999417849999E-5</v>
+      </c>
+      <c r="I29" s="5">
+        <f t="shared" si="0"/>
+        <v>0.7322704378701218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>24473</v>
       </c>
       <c r="E30">
         <v>0.94202526996339608</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="5">
         <v>0.26530989197612798</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="6">
+        <v>7.9200352652229996E-5</v>
+      </c>
+      <c r="I30" s="5">
+        <f t="shared" si="0"/>
+        <v>0.88994579976664867</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>24563</v>
       </c>
       <c r="E31">
         <v>0.88483432111155969</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="5">
         <v>0.43719008870922299</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="6">
+        <v>6.8458678113653799E-5</v>
+      </c>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82739759555883285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>24654</v>
       </c>
       <c r="E32">
         <v>0.8657829575956496</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="5">
         <v>0.15301709949887399</v>
       </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H32" s="6">
+        <v>4.7575348310333901E-5</v>
+      </c>
+      <c r="I32" s="5">
+        <f t="shared" si="0"/>
+        <v>0.68974885509389505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>24746</v>
       </c>
       <c r="E33">
         <v>0.87210284981374364</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="5">
         <v>0.27611613791506301</v>
       </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H33" s="6">
+        <v>3.2810220128127199E-5</v>
+      </c>
+      <c r="I33" s="5">
+        <f t="shared" si="0"/>
+        <v>0.5728020611705863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>24838</v>
       </c>
       <c r="E34">
         <v>0.91040937170767611</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="5">
         <v>0.44482313473995599</v>
       </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H34" s="6">
+        <v>2.7449001111661999E-5</v>
+      </c>
+      <c r="I34" s="5">
+        <f t="shared" si="0"/>
+        <v>0.52391794311382389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>24929</v>
       </c>
       <c r="E35">
         <v>0.92729826063968368</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="5">
         <v>0.491873816437435</v>
       </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="6">
+        <v>2.6106595700610602E-5</v>
+      </c>
+      <c r="I35" s="5">
+        <f t="shared" si="0"/>
+        <v>0.51094613904608976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>25020</v>
       </c>
       <c r="E36">
         <v>0.87506488054621767</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="5">
         <v>0.25793367226168201</v>
       </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="6">
+        <v>2.12391531973719E-5</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
+        <v>0.46085955775454956</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>25112</v>
       </c>
       <c r="E37">
         <v>0.89512518959162357</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37" s="5">
         <v>0.163496293259182</v>
       </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="6">
+        <v>1.7812178389531101E-5</v>
+      </c>
+      <c r="I37" s="5">
+        <f t="shared" si="0"/>
+        <v>0.42204476527414836</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>25204</v>
       </c>
       <c r="E38">
         <v>0.93590122262537623</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38" s="5">
         <v>0.29049863993138098</v>
       </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H38" s="6">
+        <v>3.3334492002904702E-5</v>
+      </c>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57736030347526235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>25294</v>
       </c>
       <c r="E39">
         <v>0.99897693127282094</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39" s="5">
         <v>0.27628285321711399</v>
       </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H39" s="6">
+        <v>2.9438897745293901E-5</v>
+      </c>
+      <c r="I39" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54257624114306646</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>25385</v>
       </c>
       <c r="E40">
         <v>1.0503935231872632</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40" s="5">
         <v>0.66031070838293304</v>
       </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H40" s="6">
+        <v>4.2460965975667697E-5</v>
+      </c>
+      <c r="I40" s="5">
+        <f t="shared" si="0"/>
+        <v>0.65162079444771936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>25477</v>
       </c>
       <c r="E41">
         <v>1.0706170010347267</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="5">
         <v>0.371786143379772</v>
       </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H41" s="6">
+        <v>9.5790997573335802E-5</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="0"/>
+        <v>0.978728754933336</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>25569</v>
       </c>
       <c r="E42">
         <v>1.1256497422272498</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42" s="5">
         <v>0.51382843551497404</v>
       </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H42" s="6">
+        <v>8.0710221958363396E-5</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="0"/>
+        <v>0.89838867957228508</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>25659</v>
       </c>
       <c r="E43">
         <v>1.1959001564004634</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43" s="5">
         <v>1.90299827733899</v>
       </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H43" s="6">
+        <v>6.3329918496620303E-5</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="0"/>
+        <v>0.79580097069946021</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>25750</v>
       </c>
       <c r="E44">
         <v>1.08344935132007</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44" s="5">
         <v>0.77551817295168302</v>
       </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1.09669750858267E-4</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0472332636918433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>25842</v>
       </c>
       <c r="E45">
         <v>1.0145923418167446</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45" s="5">
         <v>0.38828698110959498</v>
       </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H45" s="6">
+        <v>5.0415052266905299E-5</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="0"/>
+        <v>0.71003557845297649</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>25934</v>
       </c>
@@ -993,12 +2035,18 @@
       <c r="E46">
         <v>0.93198731010910729</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G46" s="5">
         <v>0.23962727343114601</v>
       </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H46" s="6">
+        <v>3.6162807707463003E-5</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="0"/>
+        <v>0.60135520042203849</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>26024</v>
       </c>
@@ -1011,12 +2059,18 @@
       <c r="E47">
         <v>0.88701960375894007</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G47" s="5">
         <v>0.270726204753369</v>
       </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H47" s="6">
+        <v>3.69553911313991E-5</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="0"/>
+        <v>0.607909459799723</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>26115</v>
       </c>
@@ -1029,12 +2083,18 @@
       <c r="E48">
         <v>0.89604926396509355</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="5">
         <v>0.55848022367945604</v>
       </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H48" s="6">
+        <v>2.4927497551655699E-5</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49927444909243751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>26207</v>
       </c>
@@ -1047,12 +2107,18 @@
       <c r="E49">
         <v>0.90785708001562726</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G49" s="5">
         <v>0.57338516543255302</v>
       </c>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H49" s="6">
+        <v>1.71734307440463E-5</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="0"/>
+        <v>0.41440838244473654</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>26299</v>
       </c>
@@ -1065,12 +2131,18 @@
       <c r="E50">
         <v>0.83228751573073101</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G50" s="5">
         <v>0.20876542528108</v>
       </c>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H50" s="6">
+        <v>1.9242238481304399E-5</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="0"/>
+        <v>0.43865975973759436</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>26390</v>
       </c>
@@ -1083,12 +2155,18 @@
       <c r="E51">
         <v>0.79496624850179654</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G51" s="5">
         <v>0.23842318887723801</v>
       </c>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="6">
+        <v>2.4754405394934199E-5</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49753799246825564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>26481</v>
       </c>
@@ -1101,12 +2179,18 @@
       <c r="E52">
         <v>0.81988371119871539</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G52" s="5">
         <v>0.26408858522948297</v>
       </c>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H52" s="6">
+        <v>1.8260360286194001E-5</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="0"/>
+        <v>0.42732142803976025</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>26573</v>
       </c>
@@ -1119,12 +2203,18 @@
       <c r="E53">
         <v>0.87706552803346571</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="5">
         <v>0.30506867404939703</v>
       </c>
-      <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="6">
+        <v>1.7218324867067899E-5</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="0"/>
+        <v>0.41494969414457816</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>26665</v>
       </c>
@@ -1137,15 +2227,21 @@
       <c r="E54">
         <v>0.97323023974711165</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54">
         <v>0.42755845234265799</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G54" s="5">
         <v>0.53934689774693401</v>
       </c>
-      <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H54" s="6">
+        <v>2.9581796324687801E-5</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="0"/>
+        <v>0.54389149951702509</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>26755</v>
       </c>
@@ -1158,15 +2254,21 @@
       <c r="E55">
         <v>1.0602024347411234</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55">
         <v>0.28951679639213301</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G55" s="5">
         <v>1.07218083377065</v>
       </c>
-      <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H55" s="6">
+        <v>3.2641167803379097E-5</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="0"/>
+        <v>0.57132449451584955</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>26846</v>
       </c>
@@ -1179,15 +2281,21 @@
       <c r="E56">
         <v>1.1580923362343867</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56">
         <v>-2.4120774116153602E-2</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G56" s="5">
         <v>0.61549493864655602</v>
       </c>
-      <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H56" s="6">
+        <v>2.4705945043586801E-5</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="0"/>
+        <v>0.49705075237431035</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>26938</v>
       </c>
@@ -1200,15 +2308,21 @@
       <c r="E57">
         <v>1.2382124520033333</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57">
         <v>-0.468788187507997</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G57" s="5">
         <v>1.7353340768557199</v>
       </c>
-      <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H57" s="6">
+        <v>5.7114995466532199E-5</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="0"/>
+        <v>0.75574463588259888</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>27030</v>
       </c>
@@ -1221,15 +2335,21 @@
       <c r="E58">
         <v>1.1118568293267066</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58">
         <v>-0.75425821204770405</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G58" s="5">
         <v>1.1306292254496</v>
       </c>
-      <c r="I58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H58" s="6">
+        <v>6.2130994289258E-5</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="0"/>
+        <v>0.78823216306655486</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>27120</v>
       </c>
@@ -1242,15 +2362,21 @@
       <c r="E59">
         <v>1.1185831336059768</v>
       </c>
-      <c r="F59" s="6">
+      <c r="F59">
         <v>-0.42219460180995899</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G59" s="5">
         <v>0.97310077303438103</v>
       </c>
-      <c r="I59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H59" s="6">
+        <v>6.6878942038432605E-5</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="0"/>
+        <v>0.81779546366088762</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>27211</v>
       </c>
@@ -1263,15 +2389,21 @@
       <c r="E60">
         <v>1.2340449579291102</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60">
         <v>-1.29550205760366</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G60" s="5">
         <v>2.74055402506005</v>
       </c>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>1.1388829213297201E-4</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="0"/>
+        <v>1.0671845769733181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>27303</v>
       </c>
@@ -1284,15 +2416,21 @@
       <c r="E61">
         <v>1.3084650300325233</v>
       </c>
-      <c r="F61" s="6">
+      <c r="F61">
         <v>-1.64270054457615</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G61" s="5">
         <v>2.69091519663578</v>
       </c>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>2.4736228473924498E-4</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="0"/>
+        <v>1.5727755235228105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>27395</v>
       </c>
@@ -1305,15 +2443,21 @@
       <c r="E62">
         <v>1.2513914317795767</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62">
         <v>-0.71936668250771796</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="5">
         <v>1.37768186573263</v>
       </c>
-      <c r="I62" s="7"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>1.74514464004318E-4</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="0"/>
+        <v>1.3210392272915972</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>27485</v>
       </c>
@@ -1326,15 +2470,21 @@
       <c r="E63">
         <v>1.0588915023362866</v>
       </c>
-      <c r="F63" s="6">
+      <c r="F63">
         <v>3.2436098368793097E-2</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="5">
         <v>0.84971989750402299</v>
       </c>
-      <c r="I63" s="7"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H63" s="6">
+        <v>6.8722848126720503E-5</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="0"/>
+        <v>0.82899244946332606</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>27576</v>
       </c>
@@ -1347,15 +2497,21 @@
       <c r="E64">
         <v>0.98368785988772334</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <v>0.41517319330012098</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="5">
         <v>0.92099849058007499</v>
       </c>
-      <c r="I64" s="7"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="6">
+        <v>2.8845500880230801E-5</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="0"/>
+        <v>0.53708007671324764</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>27668</v>
       </c>
@@ -1368,15 +2524,21 @@
       <c r="E65">
         <v>0.96672689993339567</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65">
         <v>0.59481346894158604</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="5">
         <v>0.66971882192511301</v>
       </c>
-      <c r="I65" s="7"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H65" s="6">
+        <v>1.9595520106080299E-5</v>
+      </c>
+      <c r="I65" s="5">
+        <f t="shared" si="0"/>
+        <v>0.44266827428764649</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>27760</v>
       </c>
@@ -1389,15 +2551,21 @@
       <c r="E66">
         <v>0.96147218071642293</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66">
         <v>0.79123737943568095</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="5">
         <v>0.70480043948911797</v>
       </c>
-      <c r="I66" s="7"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="6">
+        <v>2.0434574891271701E-5</v>
+      </c>
+      <c r="I66" s="5">
+        <f t="shared" si="0"/>
+        <v>0.45204618006650271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>27851</v>
       </c>
@@ -1410,15 +2578,21 @@
       <c r="E67">
         <v>0.81064787501895841</v>
       </c>
-      <c r="F67" s="6">
+      <c r="F67">
         <v>0.57707821380611701</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="5">
         <v>0.46205610207457098</v>
       </c>
-      <c r="I67" s="7"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="6">
+        <v>1.9982904915325899E-5</v>
+      </c>
+      <c r="I67" s="5">
+        <f t="shared" ref="I67:I130" si="1">+H67^0.5*100</f>
+        <v>0.44702242578338169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>27942</v>
       </c>
@@ -1431,15 +2605,21 @@
       <c r="E68">
         <v>0.75368555305374996</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68">
         <v>0.371131568993672</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="5">
         <v>0.33056224128564698</v>
       </c>
-      <c r="I68" s="7"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="6">
+        <v>1.9244389275124499E-5</v>
+      </c>
+      <c r="I68" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43868427456571196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>28034</v>
       </c>
@@ -1452,15 +2632,21 @@
       <c r="E69">
         <v>0.77205660842407564</v>
       </c>
-      <c r="F69" s="6">
+      <c r="F69">
         <v>0.20388087190811</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="5">
         <v>0.47082835324269101</v>
       </c>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="6">
+        <v>3.30398158537725E-5</v>
+      </c>
+      <c r="I69" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57480271270908689</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>28126</v>
       </c>
@@ -1473,15 +2659,21 @@
       <c r="E70">
         <v>0.73717240474971124</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70">
         <v>0.30525281735356002</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="5">
         <v>0.27032917932806799</v>
       </c>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H70" s="6">
+        <v>2.1757736509427399E-5</v>
+      </c>
+      <c r="I70" s="5">
+        <f t="shared" si="1"/>
+        <v>0.46645188936724652</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>28216</v>
       </c>
@@ -1494,15 +2686,21 @@
       <c r="E71">
         <v>0.72652637192542302</v>
       </c>
-      <c r="F71" s="6">
+      <c r="F71">
         <v>3.1739899219840897E-2</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="5">
         <v>0.34707815370077999</v>
       </c>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H71" s="6">
+        <v>2.26742742176289E-5</v>
+      </c>
+      <c r="I71" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47617511713264588</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>28307</v>
       </c>
@@ -1515,15 +2713,21 @@
       <c r="E72">
         <v>0.74293647559369702</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72">
         <v>-2.848296532399E-2</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="5">
         <v>0.26140486740777302</v>
       </c>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H72" s="6">
+        <v>2.3867479475939201E-5</v>
+      </c>
+      <c r="I72" s="5">
+        <f t="shared" si="1"/>
+        <v>0.48854354438411318</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>28399</v>
       </c>
@@ -1536,15 +2740,21 @@
       <c r="E73">
         <v>0.79770153409934597</v>
       </c>
-      <c r="F73" s="6">
+      <c r="F73">
         <v>0.111730498932089</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="5">
         <v>0.434744836359514</v>
       </c>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H73" s="6">
+        <v>5.1968219023338401E-5</v>
+      </c>
+      <c r="I73" s="5">
+        <f t="shared" si="1"/>
+        <v>0.72088985998790689</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>28491</v>
       </c>
@@ -1557,15 +2767,21 @@
       <c r="E74">
         <v>0.83303242782467191</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74">
         <v>-0.10282952063315</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="5">
         <v>0.35595132086575298</v>
       </c>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H74" s="6">
+        <v>2.9541783096890201E-5</v>
+      </c>
+      <c r="I74" s="5">
+        <f t="shared" si="1"/>
+        <v>0.54352353304056855</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>28581</v>
       </c>
@@ -1578,15 +2794,21 @@
       <c r="E75">
         <v>0.883604473352539</v>
       </c>
-      <c r="F75" s="6">
+      <c r="F75">
         <v>0.29311187161042102</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="5">
         <v>0.59892258357550199</v>
       </c>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H75" s="6">
+        <v>2.5095048623270299E-5</v>
+      </c>
+      <c r="I75" s="5">
+        <f t="shared" si="1"/>
+        <v>0.50094958452193872</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>28672</v>
       </c>
@@ -1599,15 +2821,21 @@
       <c r="E76">
         <v>0.99183187814001539</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76">
         <v>0.292529514924387</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="5">
         <v>0.442451555297177</v>
       </c>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H76" s="6">
+        <v>2.0369485889857999E-5</v>
+      </c>
+      <c r="I76" s="5">
+        <f t="shared" si="1"/>
+        <v>0.45132566833560439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>28764</v>
       </c>
@@ -1620,15 +2848,21 @@
       <c r="E77">
         <v>1.08006405187584</v>
       </c>
-      <c r="F77" s="6">
+      <c r="F77">
         <v>0.106283796341093</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="5">
         <v>1.09836704113831</v>
       </c>
-      <c r="I77" s="7"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="6">
+        <v>3.1766781723783497E-5</v>
+      </c>
+      <c r="I77" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5636202775254231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>28856</v>
       </c>
@@ -1641,15 +2875,21 @@
       <c r="E78">
         <v>0.97501126450287001</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78">
         <v>-7.1016781057240699E-2</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="5">
         <v>0.41504858139594603</v>
       </c>
-      <c r="I78" s="7"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H78" s="6">
+        <v>5.2935021527813102E-5</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="1"/>
+        <v>0.72756457808096386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>28946</v>
       </c>
@@ -1662,15 +2902,21 @@
       <c r="E79">
         <v>0.91321747047200263</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79">
         <v>-0.153071942662137</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="5">
         <v>0.33970798054150703</v>
       </c>
-      <c r="I79" s="7"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="6">
+        <v>5.9982435886369597E-5</v>
+      </c>
+      <c r="I79" s="5">
+        <f t="shared" si="1"/>
+        <v>0.77448328507702213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>29037</v>
       </c>
@@ -1683,15 +2929,21 @@
       <c r="E80">
         <v>0.9598926478058617</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80">
         <v>-0.50165452194161997</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="5">
         <v>0.38723907724095002</v>
       </c>
-      <c r="I80" s="7"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H80" s="6">
+        <v>5.3784579307329197E-5</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="1"/>
+        <v>0.73337970593226265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>29129</v>
       </c>
@@ -1704,15 +2956,21 @@
       <c r="E81">
         <v>1.0550023348080535</v>
       </c>
-      <c r="F81" s="6">
+      <c r="F81">
         <v>-0.41543635831360998</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="5">
         <v>0.72374231013958901</v>
       </c>
-      <c r="I81" s="7"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H81" s="6">
+        <v>3.8509173518504402E-5</v>
+      </c>
+      <c r="I81" s="5">
+        <f t="shared" si="1"/>
+        <v>0.62055760021535789</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>29221</v>
       </c>
@@ -1725,15 +2983,21 @@
       <c r="E82">
         <v>1.1155366878783066</v>
       </c>
-      <c r="F82" s="6">
+      <c r="F82">
         <v>-0.18947586795220001</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="5">
         <v>1.34479489086193</v>
       </c>
-      <c r="I82" s="7"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1.1426137343044401E-4</v>
+      </c>
+      <c r="I82" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0689311176612084</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>29312</v>
       </c>
@@ -1746,15 +3010,21 @@
       <c r="E83">
         <v>1.0368119173487866</v>
       </c>
-      <c r="F83" s="6">
+      <c r="F83">
         <v>-1.2284855660802001</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="5">
         <v>0.88453010058437997</v>
       </c>
-      <c r="I83" s="7"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>1.44229265309909E-4</v>
+      </c>
+      <c r="I83" s="5">
+        <f t="shared" si="1"/>
+        <v>1.2009548921999902</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>29403</v>
       </c>
@@ -1767,15 +3037,21 @@
       <c r="E84">
         <v>0.93082021076024291</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84">
         <v>0.39544366399695302</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="5">
         <v>0.89320166845257798</v>
       </c>
-      <c r="I84" s="7"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H84" s="6">
+        <v>4.3703215237345699E-5</v>
+      </c>
+      <c r="I84" s="5">
+        <f t="shared" si="1"/>
+        <v>0.66108407360445232</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>29495</v>
       </c>
@@ -1788,15 +3064,21 @@
       <c r="E85">
         <v>0.8953542407645817</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85">
         <v>0.28201123568608699</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="5">
         <v>1.2005304519941999</v>
       </c>
-      <c r="I85" s="7"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H85" s="6">
+        <v>4.9794437685672602E-5</v>
+      </c>
+      <c r="I85" s="5">
+        <f t="shared" si="1"/>
+        <v>0.70565173907298351</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>29587</v>
       </c>
@@ -1809,15 +3091,21 @@
       <c r="E86">
         <v>0.86764604664004175</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86">
         <v>-0.27882536098905297</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="5">
         <v>0.84015061094798105</v>
       </c>
-      <c r="I86" s="7"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H86" s="6">
+        <v>5.4325931612988297E-5</v>
+      </c>
+      <c r="I86" s="5">
+        <f t="shared" si="1"/>
+        <v>0.73706127026854618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>29677</v>
       </c>
@@ -1830,15 +3118,21 @@
       <c r="E87">
         <v>0.84896845701247425</v>
       </c>
-      <c r="F87" s="6">
+      <c r="F87">
         <v>-9.1275394443398702E-2</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="5">
         <v>0.43783482949441999</v>
       </c>
-      <c r="I87" s="7"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H87" s="6">
+        <v>3.40775552569271E-5</v>
+      </c>
+      <c r="I87" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58375984151812887</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>29768</v>
       </c>
@@ -1851,15 +3145,21 @@
       <c r="E88">
         <v>0.8986923848960533</v>
       </c>
-      <c r="F88" s="6">
+      <c r="F88">
         <v>-0.29940338284125401</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="5">
         <v>0.89473603837467897</v>
       </c>
-      <c r="I88" s="7"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H88" s="6">
+        <v>8.0884917507002604E-5</v>
+      </c>
+      <c r="I88" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89936042556364792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>29860</v>
       </c>
@@ -1872,15 +3172,21 @@
       <c r="E89">
         <v>0.87403785254008504</v>
       </c>
-      <c r="F89" s="6">
+      <c r="F89">
         <v>-0.76092437326426599</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="5">
         <v>0.69747903735097205</v>
       </c>
-      <c r="I89" s="7"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>1.2689769848821399E-4</v>
+      </c>
+      <c r="I89" s="5">
+        <f t="shared" si="1"/>
+        <v>1.126488785954898</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>29952</v>
       </c>
@@ -1893,15 +3199,21 @@
       <c r="E90">
         <v>0.84565939951729341</v>
       </c>
-      <c r="F90" s="6">
+      <c r="F90">
         <v>-0.52578214698516801</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="5">
         <v>1.0099520993806399</v>
       </c>
-      <c r="I90" s="7"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>1.17023712184672E-4</v>
+      </c>
+      <c r="I90" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0817749866985833</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>30042</v>
       </c>
@@ -1914,15 +3226,21 @@
       <c r="E91">
         <v>0.87561169472663958</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91">
         <v>-0.57725029588118804</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="5">
         <v>0.56891437053334704</v>
       </c>
-      <c r="I91" s="7"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>1.08654668150243E-4</v>
+      </c>
+      <c r="I91" s="5">
+        <f t="shared" si="1"/>
+        <v>1.0423754992815353</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>30133</v>
       </c>
@@ -1935,15 +3253,21 @@
       <c r="E92">
         <v>0.96454430809234371</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92">
         <v>-0.48868373014420602</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G92" s="5">
         <v>1.45472119798789</v>
       </c>
-      <c r="I92" s="7"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>1.10219122553654E-4</v>
+      </c>
+      <c r="I92" s="5">
+        <f t="shared" si="1"/>
+        <v>1.049852954244803</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>30225</v>
       </c>
@@ -1956,15 +3280,21 @@
       <c r="E93">
         <v>0.97179625400542458</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93">
         <v>7.1514713740872607E-2</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G93" s="5">
         <v>2.1848612736800201</v>
       </c>
-      <c r="I93" s="7"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H93" s="6">
+        <v>8.6121787714270396E-5</v>
+      </c>
+      <c r="I93" s="5">
+        <f t="shared" si="1"/>
+        <v>0.92801825259135073</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>30317</v>
       </c>
@@ -1977,15 +3307,21 @@
       <c r="E94">
         <v>0.88893711508724893</v>
       </c>
-      <c r="F94" s="6">
+      <c r="F94">
         <v>0.65805557391838099</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G94" s="5">
         <v>1.0715139895756001</v>
       </c>
-      <c r="I94" s="7"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H94" s="6">
+        <v>4.1384850318939903E-5</v>
+      </c>
+      <c r="I94" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64331058066022739</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>30407</v>
       </c>
@@ -1998,15 +3334,21 @@
       <c r="E95">
         <v>0.85344720059389634</v>
       </c>
-      <c r="F95" s="6">
+      <c r="F95">
         <v>1.00077192590842</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G95" s="5">
         <v>0.61306739170787306</v>
       </c>
-      <c r="I95" s="7"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H95" s="6">
+        <v>2.11259816603365E-5</v>
+      </c>
+      <c r="I95" s="5">
+        <f t="shared" si="1"/>
+        <v>0.45963008670382427</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>30498</v>
       </c>
@@ -2019,15 +3361,21 @@
       <c r="E96">
         <v>0.82170502719279037</v>
       </c>
-      <c r="F96" s="6">
+      <c r="F96">
         <v>0.61495595946576898</v>
       </c>
-      <c r="G96" s="8">
+      <c r="G96" s="5">
         <v>0.73916425524835105</v>
       </c>
-      <c r="I96" s="7"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H96" s="6">
+        <v>1.8230606980688401E-5</v>
+      </c>
+      <c r="I96" s="5">
+        <f t="shared" si="1"/>
+        <v>0.42697314881252663</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>30590</v>
       </c>
@@ -2040,15 +3388,21 @@
       <c r="E97">
         <v>0.82401101005845601</v>
       </c>
-      <c r="F97" s="6">
+      <c r="F97">
         <v>0.40860363194384097</v>
       </c>
-      <c r="G97" s="8">
+      <c r="G97" s="5">
         <v>0.39365837638298001</v>
       </c>
-      <c r="I97" s="7"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H97" s="6">
+        <v>1.8284972545862101E-5</v>
+      </c>
+      <c r="I97" s="5">
+        <f t="shared" si="1"/>
+        <v>0.42760931404568475</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>30682</v>
       </c>
@@ -2061,15 +3415,21 @@
       <c r="E98">
         <v>0.83331221712441506</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98">
         <v>0.49649255635758699</v>
       </c>
-      <c r="G98" s="8">
+      <c r="G98" s="5">
         <v>0.66164681706173301</v>
       </c>
-      <c r="I98" s="7"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H98" s="6">
+        <v>1.8982014423513201E-5</v>
+      </c>
+      <c r="I98" s="5">
+        <f t="shared" si="1"/>
+        <v>0.43568353679606947</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>30773</v>
       </c>
@@ -2082,15 +3442,21 @@
       <c r="E99">
         <v>0.86374066818558937</v>
       </c>
-      <c r="F99" s="6">
+      <c r="F99">
         <v>-7.5834099699337507E-2</v>
       </c>
-      <c r="G99" s="8">
+      <c r="G99" s="5">
         <v>0.57749374289307698</v>
       </c>
-      <c r="I99" s="7"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H99" s="6">
+        <v>2.03344619209647E-5</v>
+      </c>
+      <c r="I99" s="5">
+        <f t="shared" si="1"/>
+        <v>0.45093748924839572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>30864</v>
       </c>
@@ -2103,15 +3469,21 @@
       <c r="E100">
         <v>0.90221644747707508</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100">
         <v>-7.9353318526753702E-2</v>
       </c>
-      <c r="G100" s="8">
+      <c r="G100" s="5">
         <v>0.773058932606694</v>
       </c>
-      <c r="I100" s="7"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H100" s="6">
+        <v>3.2533738711750998E-5</v>
+      </c>
+      <c r="I100" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57038354386983325</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>30956</v>
       </c>
@@ -2124,15 +3496,21 @@
       <c r="E101">
         <v>0.83312259326071025</v>
       </c>
-      <c r="F101" s="6">
+      <c r="F101">
         <v>-9.5053024504323805E-2</v>
       </c>
-      <c r="G101" s="8">
+      <c r="G101" s="5">
         <v>0.541948731602647</v>
       </c>
-      <c r="I101" s="7"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H101" s="6">
+        <v>2.83756377105343E-5</v>
+      </c>
+      <c r="I101" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53268787963059849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>31048</v>
       </c>
@@ -2148,15 +3526,21 @@
       <c r="E102">
         <v>0.80616714022531799</v>
       </c>
-      <c r="F102" s="6">
+      <c r="F102">
         <v>7.1713221486902803E-2</v>
       </c>
-      <c r="G102" s="8">
+      <c r="G102" s="5">
         <v>0.50846865850036305</v>
       </c>
-      <c r="I102" s="7"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H102" s="6">
+        <v>2.6065147816009401E-5</v>
+      </c>
+      <c r="I102" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51054037857949497</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>31138</v>
       </c>
@@ -2172,15 +3556,21 @@
       <c r="E103">
         <v>0.75705222621426593</v>
       </c>
-      <c r="F103" s="6">
+      <c r="F103">
         <v>0.212861387850556</v>
       </c>
-      <c r="G103" s="8">
+      <c r="G103" s="5">
         <v>0.321909850454421</v>
       </c>
-      <c r="I103" s="7"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H103" s="6">
+        <v>3.3566883729180197E-5</v>
+      </c>
+      <c r="I103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.57936934445291621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>31229</v>
       </c>
@@ -2196,15 +3586,21 @@
       <c r="E104">
         <v>0.77781561131175592</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104">
         <v>0.32858271573272901</v>
       </c>
-      <c r="G104" s="8">
+      <c r="G104" s="5">
         <v>0.35258431306756499</v>
       </c>
-      <c r="I104" s="7"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H104" s="6">
+        <v>2.8790759742950799E-5</v>
+      </c>
+      <c r="I104" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5365702166813846</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>31321</v>
       </c>
@@ -2220,15 +3616,21 @@
       <c r="E105">
         <v>0.82465466127028197</v>
       </c>
-      <c r="F105" s="6">
+      <c r="F105">
         <v>0.20792735318560299</v>
       </c>
-      <c r="G105" s="8">
+      <c r="G105" s="5">
         <v>0.47764407353107502</v>
       </c>
-      <c r="I105" s="7"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H105" s="6">
+        <v>2.6938390345098399E-5</v>
+      </c>
+      <c r="I105" s="5">
+        <f t="shared" si="1"/>
+        <v>0.5190220645126602</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>31413</v>
       </c>
@@ -2244,15 +3646,21 @@
       <c r="E106">
         <v>0.86054225015457708</v>
       </c>
-      <c r="F106" s="6">
+      <c r="F106">
         <v>0.51260223597383103</v>
       </c>
-      <c r="G106" s="8">
+      <c r="G106" s="5">
         <v>0.71767580713463797</v>
       </c>
-      <c r="I106" s="7"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H106" s="6">
+        <v>5.2210297960240001E-5</v>
+      </c>
+      <c r="I106" s="5">
+        <f t="shared" si="1"/>
+        <v>0.72256693780050585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>31503</v>
       </c>
@@ -2268,15 +3676,21 @@
       <c r="E107">
         <v>0.90466697301129573</v>
       </c>
-      <c r="F107" s="6">
+      <c r="F107">
         <v>0.53547983738932603</v>
       </c>
-      <c r="G107" s="8">
+      <c r="G107" s="5">
         <v>0.84712019094134094</v>
       </c>
-      <c r="I107" s="7"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H107" s="6">
+        <v>4.1566003791413101E-5</v>
+      </c>
+      <c r="I107" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64471702157933675</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>31594</v>
       </c>
@@ -2292,15 +3706,21 @@
       <c r="E108">
         <v>1.0051963051356054</v>
       </c>
-      <c r="F108" s="6">
+      <c r="F108">
         <v>0.51065499276120496</v>
       </c>
-      <c r="G108" s="8">
+      <c r="G108" s="5">
         <v>1.25746517552152</v>
       </c>
-      <c r="I108" s="7"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H108" s="6">
+        <v>2.34860601222394E-5</v>
+      </c>
+      <c r="I108" s="5">
+        <f t="shared" si="1"/>
+        <v>0.48462418555246911</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>31686</v>
       </c>
@@ -2316,15 +3736,21 @@
       <c r="E109">
         <v>0.99808044760280668</v>
       </c>
-      <c r="F109" s="6">
+      <c r="F109">
         <v>0.25652992568495098</v>
       </c>
-      <c r="G109" s="8">
+      <c r="G109" s="5">
         <v>0.62236155560210504</v>
       </c>
-      <c r="I109" s="7"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H109" s="6">
+        <v>2.3621007766670898E-5</v>
+      </c>
+      <c r="I109" s="5">
+        <f t="shared" si="1"/>
+        <v>0.48601448298040356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>31778</v>
       </c>
@@ -2340,15 +3766,21 @@
       <c r="E110">
         <v>1.0003578720364503</v>
       </c>
-      <c r="F110" s="6">
+      <c r="F110">
         <v>0.45992250666837398</v>
       </c>
-      <c r="G110" s="8">
+      <c r="G110" s="5">
         <v>0.93854195558397702</v>
       </c>
-      <c r="I110" s="7"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H110" s="6">
+        <v>1.9499337616317601E-5</v>
+      </c>
+      <c r="I110" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44158054323438667</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>31868</v>
       </c>
@@ -2364,15 +3796,21 @@
       <c r="E111">
         <v>0.97783169752400612</v>
       </c>
-      <c r="F111" s="6">
+      <c r="F111">
         <v>0.70329845917897504</v>
       </c>
-      <c r="G111" s="8">
+      <c r="G111" s="5">
         <v>1.2322002811660899</v>
       </c>
-      <c r="I111" s="7"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H111" s="6">
+        <v>1.52336468687013E-5</v>
+      </c>
+      <c r="I111" s="5">
+        <f t="shared" si="1"/>
+        <v>0.39030304724279696</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>31959</v>
       </c>
@@ -2388,15 +3826,21 @@
       <c r="E112">
         <v>1.1572993109290199</v>
       </c>
-      <c r="F112" s="6">
+      <c r="F112">
         <v>0.65174580642155899</v>
       </c>
-      <c r="G112" s="8">
+      <c r="G112" s="5">
         <v>0.79790009520636296</v>
       </c>
-      <c r="I112" s="7"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H112" s="6">
+        <v>1.4666946831224699E-5</v>
+      </c>
+      <c r="I112" s="5">
+        <f t="shared" si="1"/>
+        <v>0.38297450086428336</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>32051</v>
       </c>
@@ -2412,15 +3856,21 @@
       <c r="E113">
         <v>1.3132686428206435</v>
       </c>
-      <c r="F113" s="6">
+      <c r="F113">
         <v>0.428399157733384</v>
       </c>
-      <c r="G113" s="8">
+      <c r="G113" s="5">
         <v>14.860658924159299</v>
       </c>
-      <c r="I113" s="7"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H113" s="6">
+        <v>1.7964255520805401E-5</v>
+      </c>
+      <c r="I113" s="5">
+        <f t="shared" si="1"/>
+        <v>0.42384260664550227</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>32143</v>
       </c>
@@ -2436,15 +3886,21 @@
       <c r="E114">
         <v>0.9981377169198874</v>
       </c>
-      <c r="F114" s="6">
+      <c r="F114">
         <v>0.27038519837836</v>
       </c>
-      <c r="G114" s="8">
+      <c r="G114" s="5">
         <v>2.0715010579322799</v>
       </c>
-      <c r="I114" s="7"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H114" s="6">
+        <v>2.0448381399058801E-5</v>
+      </c>
+      <c r="I114" s="5">
+        <f t="shared" si="1"/>
+        <v>0.45219886553438854</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>32234</v>
       </c>
@@ -2460,15 +3916,21 @@
       <c r="E115">
         <v>0.84912978780792303</v>
       </c>
-      <c r="F115" s="6">
+      <c r="F115">
         <v>5.3496026863033203E-2</v>
       </c>
-      <c r="G115" s="8">
+      <c r="G115" s="5">
         <v>1.33297741530976</v>
       </c>
-      <c r="I115" s="7"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H115" s="6">
+        <v>2.2473745102781002E-5</v>
+      </c>
+      <c r="I115" s="5">
+        <f t="shared" si="1"/>
+        <v>0.47406481732755701</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>32325</v>
       </c>
@@ -2476,7 +3938,7 @@
         <v>0.1932707142857143</v>
       </c>
       <c r="C116">
-        <v>93.298171997070313</v>
+        <v>93.298171997070312</v>
       </c>
       <c r="D116" s="4">
         <v>0</v>
@@ -2484,15 +3946,21 @@
       <c r="E116">
         <v>0.77674641499238739</v>
       </c>
-      <c r="F116" s="6">
+      <c r="F116">
         <v>-0.14850538176471201</v>
       </c>
-      <c r="G116" s="8">
+      <c r="G116" s="5">
         <v>0.69984511971030505</v>
       </c>
-      <c r="I116" s="7"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H116" s="6">
+        <v>2.8188588287732901E-5</v>
+      </c>
+      <c r="I116" s="5">
+        <f t="shared" si="1"/>
+        <v>0.53092926353453995</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>32417</v>
       </c>
@@ -2508,15 +3976,21 @@
       <c r="E117">
         <v>0.74985401489315195</v>
       </c>
-      <c r="F117" s="6">
+      <c r="F117">
         <v>0.440855517488631</v>
       </c>
-      <c r="G117" s="8">
+      <c r="G117" s="5">
         <v>0.57208077715185501</v>
       </c>
-      <c r="I117" s="7"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H117" s="6">
+        <v>2.4586441165904099E-5</v>
+      </c>
+      <c r="I117" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49584716562570064</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>32509</v>
       </c>
@@ -2532,15 +4006,21 @@
       <c r="E118">
         <v>0.74371041415837935</v>
       </c>
-      <c r="F118" s="6">
+      <c r="F118">
         <v>6.6335704689612807E-2</v>
       </c>
-      <c r="G118" s="8">
+      <c r="G118" s="5">
         <v>0.55441355161498995</v>
       </c>
-      <c r="I118" s="7"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H118" s="6">
+        <v>3.7372238168005799E-5</v>
+      </c>
+      <c r="I118" s="5">
+        <f t="shared" si="1"/>
+        <v>0.61132837467277601</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>32599</v>
       </c>
@@ -2556,15 +4036,21 @@
       <c r="E119">
         <v>0.75328378026282794</v>
       </c>
-      <c r="F119" s="6">
+      <c r="F119">
         <v>-0.111677627692261</v>
       </c>
-      <c r="G119" s="8">
+      <c r="G119" s="5">
         <v>0.53756461191222804</v>
       </c>
-      <c r="I119" s="7"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H119" s="6">
+        <v>5.3574473762756502E-5</v>
+      </c>
+      <c r="I119" s="5">
+        <f t="shared" si="1"/>
+        <v>0.73194585703285808</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>32690</v>
       </c>
@@ -2580,15 +4066,21 @@
       <c r="E120">
         <v>0.78432361548740437</v>
       </c>
-      <c r="F120" s="6">
+      <c r="F120">
         <v>0.24515233295651301</v>
       </c>
-      <c r="G120" s="8">
+      <c r="G120" s="5">
         <v>0.465742529056552</v>
       </c>
-      <c r="I120" s="7"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H120" s="6">
+        <v>4.7451367098009302E-5</v>
+      </c>
+      <c r="I120" s="5">
+        <f t="shared" si="1"/>
+        <v>0.68884952709578962</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>32782</v>
       </c>
@@ -2604,15 +4096,21 @@
       <c r="E121">
         <v>0.83810215923436238</v>
       </c>
-      <c r="F121" s="6">
+      <c r="F121">
         <v>0.19518619570253201</v>
       </c>
-      <c r="G121" s="8">
+      <c r="G121" s="5">
         <v>1.2088515531273301</v>
       </c>
-      <c r="I121" s="7"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H121" s="6">
+        <v>3.3851612943812098E-5</v>
+      </c>
+      <c r="I121" s="5">
+        <f t="shared" si="1"/>
+        <v>0.58182138963613306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>32874</v>
       </c>
@@ -2620,7 +4118,7 @@
         <v>-3.3628461538461538E-2</v>
       </c>
       <c r="C122">
-        <v>92.005142211914063</v>
+        <v>92.005142211914062</v>
       </c>
       <c r="D122" s="4">
         <v>0</v>
@@ -2628,15 +4126,21 @@
       <c r="E122">
         <v>0.90163328241503005</v>
       </c>
-      <c r="F122" s="6">
+      <c r="F122">
         <v>5.2232684075582403E-2</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="5">
         <v>0.78657201083131201</v>
       </c>
-      <c r="I122" s="7"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H122" s="6">
+        <v>2.65956168636072E-5</v>
+      </c>
+      <c r="I122" s="5">
+        <f t="shared" si="1"/>
+        <v>0.51570938389375076</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>32964</v>
       </c>
@@ -2652,15 +4156,21 @@
       <c r="E123">
         <v>0.95958417600053536</v>
       </c>
-      <c r="F123" s="6">
+      <c r="F123">
         <v>-4.2742160364423201E-2</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="5">
         <v>0.582081755938746</v>
       </c>
-      <c r="I123" s="7"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H123" s="6">
+        <v>2.3585960316305099E-5</v>
+      </c>
+      <c r="I123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.48565378940460352</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>33055</v>
       </c>
@@ -2676,15 +4186,21 @@
       <c r="E124">
         <v>1.0575823133023265</v>
       </c>
-      <c r="F124" s="6">
+      <c r="F124">
         <v>-0.53516158046080498</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G124" s="5">
         <v>1.4588692164963799</v>
       </c>
-      <c r="I124" s="7"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H124" s="6">
+        <v>5.15044119371508E-5</v>
+      </c>
+      <c r="I124" s="5">
+        <f t="shared" si="1"/>
+        <v>0.71766574348474232</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>33147</v>
       </c>
@@ -2700,15 +4216,21 @@
       <c r="E125">
         <v>1.0018561924998597</v>
       </c>
-      <c r="F125" s="6">
+      <c r="F125">
         <v>-1.1751474729589799</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="5">
         <v>1.2022003168567501</v>
       </c>
-      <c r="I125" s="7"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H125" s="6">
+        <v>8.6567857873555301E-5</v>
+      </c>
+      <c r="I125" s="5">
+        <f t="shared" si="1"/>
+        <v>0.93041849655708853</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>33239</v>
       </c>
@@ -2724,15 +4246,21 @@
       <c r="E126">
         <v>0.94416135471253471</v>
       </c>
-      <c r="F126" s="6">
+      <c r="F126">
         <v>-0.44984121629962998</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="5">
         <v>1.1330094607815</v>
       </c>
-      <c r="I126" s="7"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H126" s="6">
+        <v>6.2222862621390403E-5</v>
+      </c>
+      <c r="I126" s="5">
+        <f t="shared" si="1"/>
+        <v>0.78881469700678375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>33329</v>
       </c>
@@ -2748,15 +4276,21 @@
       <c r="E127">
         <v>0.87377761126441866</v>
       </c>
-      <c r="F127" s="6">
+      <c r="F127">
         <v>0.16974144943076599</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G127" s="5">
         <v>0.75643673709968995</v>
       </c>
-      <c r="I127" s="7"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H127" s="6">
+        <v>2.0659478034463999E-5</v>
+      </c>
+      <c r="I127" s="5">
+        <f t="shared" si="1"/>
+        <v>0.45452698527660601</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>33420</v>
       </c>
@@ -2772,15 +4306,21 @@
       <c r="E128">
         <v>0.84142567042275107</v>
       </c>
-      <c r="F128" s="6">
+      <c r="F128">
         <v>9.2446111385263194E-2</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G128" s="5">
         <v>0.56204847753520903</v>
       </c>
-      <c r="I128" s="7"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H128" s="6">
+        <v>2.0281355916948801E-5</v>
+      </c>
+      <c r="I128" s="5">
+        <f t="shared" si="1"/>
+        <v>0.4503482643127294</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>33512</v>
       </c>
@@ -2796,15 +4336,21 @@
       <c r="E129">
         <v>0.87996313732386067</v>
       </c>
-      <c r="F129" s="6">
+      <c r="F129">
         <v>5.8285597677267098E-2</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G129" s="5">
         <v>0.81833071997575002</v>
       </c>
-      <c r="I129" s="7"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H129" s="6">
+        <v>4.1274724240573802E-5</v>
+      </c>
+      <c r="I129" s="5">
+        <f t="shared" si="1"/>
+        <v>0.64245407805207211</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>33604</v>
       </c>
@@ -2820,15 +4366,21 @@
       <c r="E130">
         <v>0.83572784605621608</v>
       </c>
-      <c r="F130" s="6">
+      <c r="F130">
         <v>0.156666641201053</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G130" s="5">
         <v>0.35767792383469699</v>
       </c>
-      <c r="I130" s="7"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H130" s="6">
+        <v>1.6771065723310501E-5</v>
+      </c>
+      <c r="I130" s="5">
+        <f t="shared" si="1"/>
+        <v>0.40952491649850198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>33695</v>
       </c>
@@ -2844,15 +4396,21 @@
       <c r="E131">
         <v>0.76872312727639736</v>
       </c>
-      <c r="F131" s="6">
+      <c r="F131">
         <v>0.24940193379629799</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="5">
         <v>0.49245714778383798</v>
       </c>
-      <c r="I131" s="7"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H131" s="6">
+        <v>2.39954894600501E-5</v>
+      </c>
+      <c r="I131" s="5">
+        <f t="shared" ref="I131:I194" si="2">+H131^0.5*100</f>
+        <v>0.48985191088787339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>33786</v>
       </c>
@@ -2868,15 +4426,21 @@
       <c r="E132">
         <v>0.73855613591744529</v>
       </c>
-      <c r="F132" s="6">
+      <c r="F132">
         <v>7.5022615041631102E-2</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G132" s="5">
         <v>0.33390069977254</v>
       </c>
-      <c r="I132" s="7"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H132" s="6">
+        <v>2.3526743870738801E-5</v>
+      </c>
+      <c r="I132" s="5">
+        <f t="shared" si="2"/>
+        <v>0.48504374927153526</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>33878</v>
       </c>
@@ -2892,15 +4456,21 @@
       <c r="E133">
         <v>0.72307428671212792</v>
       </c>
-      <c r="F133" s="6">
+      <c r="F133">
         <v>4.7131929047304497E-2</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="5">
         <v>0.30001582555566098</v>
       </c>
-      <c r="I133" s="7"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H133" s="6">
+        <v>1.6568469788045001E-5</v>
+      </c>
+      <c r="I133" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40704385252752562</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>33970</v>
       </c>
@@ -2916,15 +4486,21 @@
       <c r="E134">
         <v>0.71010568153386566</v>
       </c>
-      <c r="F134" s="6">
+      <c r="F134">
         <v>0.136064927613196</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="5">
         <v>0.40346463405490002</v>
       </c>
-      <c r="I134" s="7"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H134" s="6">
+        <v>2.34301051091406E-5</v>
+      </c>
+      <c r="I134" s="5">
+        <f t="shared" si="2"/>
+        <v>0.48404653814628817</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>34060</v>
       </c>
@@ -2940,15 +4516,21 @@
       <c r="E135">
         <v>0.69295176865344166</v>
       </c>
-      <c r="F135" s="6">
+      <c r="F135">
         <v>3.10015009042659E-2</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="5">
         <v>0.38071678701138101</v>
       </c>
-      <c r="I135" s="7"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H135" s="6">
+        <v>2.4344026722086399E-5</v>
+      </c>
+      <c r="I135" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49339666316348751</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>34151</v>
       </c>
@@ -2964,15 +4546,21 @@
       <c r="E136">
         <v>0.67125196949207933</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F136">
         <v>-2.1338056496061301E-2</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G136" s="5">
         <v>0.212248093255199</v>
       </c>
-      <c r="I136" s="7"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H136" s="6">
+        <v>1.52443558379445E-5</v>
+      </c>
+      <c r="I136" s="5">
+        <f t="shared" si="2"/>
+        <v>0.39044021101757054</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>34243</v>
       </c>
@@ -2988,15 +4576,21 @@
       <c r="E137">
         <v>0.68276625998578</v>
       </c>
-      <c r="F137" s="6">
+      <c r="F137">
         <v>0.34740566264401701</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G137" s="5">
         <v>0.181331799231644</v>
       </c>
-      <c r="I137" s="7"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H137" s="6">
+        <v>1.4138858752821601E-5</v>
+      </c>
+      <c r="I137" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37601673836175964</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>34335</v>
       </c>
@@ -3012,15 +4606,21 @@
       <c r="E138">
         <v>0.69777326318028932</v>
       </c>
-      <c r="F138" s="6">
+      <c r="F138">
         <v>0.418597539617444</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G138" s="5">
         <v>0.375152409543832</v>
       </c>
-      <c r="I138" s="7"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H138" s="6">
+        <v>1.2281656738906601E-5</v>
+      </c>
+      <c r="I138" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35045194733239249</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>34425</v>
       </c>
@@ -3036,15 +4636,21 @@
       <c r="E139">
         <v>0.6842484520440294</v>
       </c>
-      <c r="F139" s="6">
+      <c r="F139">
         <v>0.46840135222026902</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G139" s="5">
         <v>0.470353608452106</v>
       </c>
-      <c r="I139" s="7"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H139" s="6">
+        <v>1.34563483539456E-5</v>
+      </c>
+      <c r="I139" s="5">
+        <f t="shared" si="2"/>
+        <v>0.36682895678974964</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>34516</v>
       </c>
@@ -3060,15 +4666,21 @@
       <c r="E140">
         <v>0.68071562030384525</v>
       </c>
-      <c r="F140" s="6">
+      <c r="F140">
         <v>0.41279712449678002</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G140" s="5">
         <v>0.26374023860660301</v>
       </c>
-      <c r="I140" s="7"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H140" s="6">
+        <v>1.2878754259749399E-5</v>
+      </c>
+      <c r="I140" s="5">
+        <f t="shared" si="2"/>
+        <v>0.35886981288134839</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>34608</v>
       </c>
@@ -3084,15 +4696,21 @@
       <c r="E141">
         <v>0.67991064506556764</v>
       </c>
-      <c r="F141" s="6">
+      <c r="F141">
         <v>0.355005267955191</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G141" s="5">
         <v>0.42908538111112299</v>
       </c>
-      <c r="I141" s="7"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H141" s="6">
+        <v>1.63818109929948E-5</v>
+      </c>
+      <c r="I141" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40474449956725539</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>34700</v>
       </c>
@@ -3108,15 +4726,21 @@
       <c r="E142">
         <v>0.65883263546892001</v>
       </c>
-      <c r="F142" s="6">
+      <c r="F142">
         <v>0.15493872400893999</v>
       </c>
-      <c r="G142" s="8">
+      <c r="G142" s="5">
         <v>0.19564553860037001</v>
       </c>
-      <c r="I142" s="7"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H142" s="6">
+        <v>2.3585206772355801E-5</v>
+      </c>
+      <c r="I142" s="5">
+        <f t="shared" si="2"/>
+        <v>0.48564603130629824</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>34790</v>
       </c>
@@ -3132,15 +4756,21 @@
       <c r="E143">
         <v>0.65853563076529131</v>
       </c>
-      <c r="F143" s="6">
+      <c r="F143">
         <v>0.17810180822438801</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143" s="5">
         <v>0.31034752613035999</v>
       </c>
-      <c r="I143" s="7"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H143" s="6">
+        <v>2.4066663800038001E-5</v>
+      </c>
+      <c r="I143" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49057786130274983</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>34881</v>
       </c>
@@ -3156,15 +4786,21 @@
       <c r="E144">
         <v>0.68270015650687521</v>
       </c>
-      <c r="F144" s="6">
+      <c r="F144">
         <v>0.20764391075489699</v>
       </c>
-      <c r="G144" s="8">
+      <c r="G144" s="5">
         <v>0.215470767561564</v>
       </c>
-      <c r="I144" s="7"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H144" s="6">
+        <v>2.0955230386373399E-5</v>
+      </c>
+      <c r="I144" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45776883234197363</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>34973</v>
       </c>
@@ -3180,15 +4816,21 @@
       <c r="E145">
         <v>0.69595650499071093</v>
       </c>
-      <c r="F145" s="6">
+      <c r="F145">
         <v>0.18357254253812799</v>
       </c>
-      <c r="G145" s="8">
+      <c r="G145" s="5">
         <v>0.29434986499543297</v>
       </c>
-      <c r="I145" s="7"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H145" s="6">
+        <v>2.6222304950467399E-5</v>
+      </c>
+      <c r="I145" s="5">
+        <f t="shared" si="2"/>
+        <v>0.51207719096311444</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>35065</v>
       </c>
@@ -3204,15 +4846,21 @@
       <c r="E146">
         <v>0.68705502400164142</v>
       </c>
-      <c r="F146" s="6">
+      <c r="F146">
         <v>0.194536444453524</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146" s="5">
         <v>0.70073662438059403</v>
       </c>
-      <c r="I146" s="7"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H146" s="6">
+        <v>2.4696400432333602E-5</v>
+      </c>
+      <c r="I146" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49695473065797047</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>35156</v>
       </c>
@@ -3228,15 +4876,21 @@
       <c r="E147">
         <v>0.74534591015166374</v>
       </c>
-      <c r="F147" s="6">
+      <c r="F147">
         <v>0.27008482718332699</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G147" s="5">
         <v>0.39766976817120198</v>
       </c>
-      <c r="I147" s="7"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H147" s="6">
+        <v>1.9365836834785398E-5</v>
+      </c>
+      <c r="I147" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44006632266949719</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>35247</v>
       </c>
@@ -3252,15 +4906,21 @@
       <c r="E148">
         <v>0.79991927372980498</v>
       </c>
-      <c r="F148" s="6">
+      <c r="F148">
         <v>0.198883329112339</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G148" s="5">
         <v>0.65281900158675299</v>
       </c>
-      <c r="I148" s="7"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H148" s="6">
+        <v>1.89093987288227E-5</v>
+      </c>
+      <c r="I148" s="5">
+        <f t="shared" si="2"/>
+        <v>0.43484938460141226</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>35339</v>
       </c>
@@ -3276,15 +4936,21 @@
       <c r="E149">
         <v>0.79174557584049732</v>
       </c>
-      <c r="F149" s="6">
+      <c r="F149">
         <v>0.32641394822979602</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="5">
         <v>0.47038507584466399</v>
       </c>
-      <c r="I149" s="7"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H149" s="6">
+        <v>1.6199512231211401E-5</v>
+      </c>
+      <c r="I149" s="5">
+        <f t="shared" si="2"/>
+        <v>0.40248617654785862</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>35431</v>
       </c>
@@ -3300,15 +4966,21 @@
       <c r="E150">
         <v>0.82259458017959031</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F150">
         <v>0.35883232093420703</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G150" s="5">
         <v>0.79433706175074903</v>
       </c>
-      <c r="I150" s="7"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H150" s="6">
+        <v>1.7088769486633801E-5</v>
+      </c>
+      <c r="I150" s="5">
+        <f t="shared" si="2"/>
+        <v>0.41338564908126407</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>35521</v>
       </c>
@@ -3324,15 +4996,21 @@
       <c r="E151">
         <v>0.88008243603756731</v>
       </c>
-      <c r="F151" s="6">
+      <c r="F151">
         <v>0.424640606041781</v>
       </c>
-      <c r="G151" s="8">
+      <c r="G151" s="5">
         <v>1.08667031406304</v>
       </c>
-      <c r="I151" s="7"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H151" s="6">
+        <v>1.48487876376181E-5</v>
+      </c>
+      <c r="I151" s="5">
+        <f t="shared" si="2"/>
+        <v>0.38534124665831065</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>35612</v>
       </c>
@@ -3348,15 +5026,21 @@
       <c r="E152">
         <v>0.89918795508671712</v>
       </c>
-      <c r="F152" s="6">
+      <c r="F152">
         <v>0.58106439383888098</v>
       </c>
-      <c r="G152" s="8">
+      <c r="G152" s="5">
         <v>1.10336053102259</v>
       </c>
-      <c r="I152" s="7"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H152" s="6">
+        <v>1.40124990985315E-5</v>
+      </c>
+      <c r="I152" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37433272764389036</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>35704</v>
       </c>
@@ -3372,15 +5056,21 @@
       <c r="E153">
         <v>0.88856556886227134</v>
       </c>
-      <c r="F153" s="6">
+      <c r="F153">
         <v>0.25519478039326299</v>
       </c>
-      <c r="G153" s="8">
+      <c r="G153" s="5">
         <v>2.2598800845540299</v>
       </c>
-      <c r="I153" s="7"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H153" s="6">
+        <v>1.7571375763721999E-5</v>
+      </c>
+      <c r="I153" s="5">
+        <f t="shared" si="2"/>
+        <v>0.419182248714351</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>35796</v>
       </c>
@@ -3396,15 +5086,21 @@
       <c r="E154">
         <v>0.91635153724784135</v>
       </c>
-      <c r="F154" s="6">
+      <c r="F154">
         <v>-5.8111019076626299E-3</v>
       </c>
-      <c r="G154" s="8">
+      <c r="G154" s="5">
         <v>0.76222826190754001</v>
       </c>
-      <c r="I154" s="7"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H154" s="6">
+        <v>2.08803674200709E-5</v>
+      </c>
+      <c r="I154" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45695040671905418</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>35886</v>
       </c>
@@ -3420,15 +5116,21 @@
       <c r="E155">
         <v>1.004877728980005</v>
       </c>
-      <c r="F155" s="6">
+      <c r="F155">
         <v>0.29231620000199199</v>
       </c>
-      <c r="G155" s="8">
+      <c r="G155" s="5">
         <v>0.74154121704273701</v>
       </c>
-      <c r="I155" s="7"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H155" s="6">
+        <v>4.26318597846688E-5</v>
+      </c>
+      <c r="I155" s="5">
+        <f t="shared" si="2"/>
+        <v>0.65293077569271307</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>35977</v>
       </c>
@@ -3444,15 +5146,21 @@
       <c r="E156">
         <v>1.2007365263575533</v>
       </c>
-      <c r="F156" s="6">
+      <c r="F156">
         <v>-0.100987756009741</v>
       </c>
-      <c r="G156" s="8">
+      <c r="G156" s="5">
         <v>3.4073850485134298</v>
       </c>
-      <c r="I156" s="7"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H156" s="6">
+        <v>3.71613754764863E-5</v>
+      </c>
+      <c r="I156" s="5">
+        <f t="shared" si="2"/>
+        <v>0.60960130804064305</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>36069</v>
       </c>
@@ -3468,15 +5176,21 @@
       <c r="E157">
         <v>1.0600893964097233</v>
       </c>
-      <c r="F157" s="6">
+      <c r="F157">
         <v>3.5878436265753398E-2</v>
       </c>
-      <c r="G157" s="8">
+      <c r="G157" s="5">
         <v>1.61120779025856</v>
       </c>
-      <c r="I157" s="7"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H157" s="6">
+        <v>2.7056468039657801E-5</v>
+      </c>
+      <c r="I157" s="5">
+        <f t="shared" si="2"/>
+        <v>0.52015832243325488</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>36161</v>
       </c>
@@ -3492,15 +5206,21 @@
       <c r="E158">
         <v>1.01310986369588</v>
       </c>
-      <c r="F158" s="6">
+      <c r="F158">
         <v>0.165921409759821</v>
       </c>
-      <c r="G158" s="8">
+      <c r="G158" s="5">
         <v>1.6387873900664101</v>
       </c>
-      <c r="I158" s="7"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H158" s="6">
+        <v>2.1563016877707999E-5</v>
+      </c>
+      <c r="I158" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4643599560438863</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>36251</v>
       </c>
@@ -3516,15 +5236,21 @@
       <c r="E159">
         <v>0.99522483499808645</v>
       </c>
-      <c r="F159" s="6">
+      <c r="F159">
         <v>0.17110421404582399</v>
       </c>
-      <c r="G159" s="8">
+      <c r="G159" s="5">
         <v>1.3018622476811299</v>
       </c>
-      <c r="I159" s="7"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H159" s="6">
+        <v>2.2275179624081E-5</v>
+      </c>
+      <c r="I159" s="5">
+        <f t="shared" si="2"/>
+        <v>0.47196588461541372</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>36342</v>
       </c>
@@ -3540,15 +5266,21 @@
       <c r="E160">
         <v>0.99028948189899035</v>
       </c>
-      <c r="F160" s="6">
+      <c r="F160">
         <v>0.50499129455437797</v>
       </c>
-      <c r="G160" s="8">
+      <c r="G160" s="5">
         <v>1.1019957305152599</v>
       </c>
-      <c r="I160" s="7"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H160" s="6">
+        <v>2.7536529927537001E-5</v>
+      </c>
+      <c r="I160" s="5">
+        <f t="shared" si="2"/>
+        <v>0.52475260768801335</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>36434</v>
       </c>
@@ -3564,15 +5296,21 @@
       <c r="E161">
         <v>1.0777017881684066</v>
       </c>
-      <c r="F161" s="6">
+      <c r="F161">
         <v>0.46147940556269701</v>
       </c>
-      <c r="G161" s="8">
+      <c r="G161" s="5">
         <v>1.1449742017106499</v>
       </c>
-      <c r="I161" s="7"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H161" s="6">
+        <v>2.2350028142033501E-5</v>
+      </c>
+      <c r="I161" s="5">
+        <f t="shared" si="2"/>
+        <v>0.47275816377968027</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>36526</v>
       </c>
@@ -3588,15 +5326,21 @@
       <c r="E162">
         <v>1.21117413307816</v>
       </c>
-      <c r="F162" s="6">
+      <c r="F162">
         <v>0.36051301533855701</v>
       </c>
-      <c r="G162" s="8">
+      <c r="G162" s="5">
         <v>2.35834289427445</v>
       </c>
-      <c r="I162" s="7"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H162" s="6">
+        <v>1.93170465561915E-5</v>
+      </c>
+      <c r="I162" s="5">
+        <f t="shared" si="2"/>
+        <v>0.43951162164602087</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>36617</v>
       </c>
@@ -3612,15 +5356,21 @@
       <c r="E163">
         <v>1.1772237454004602</v>
       </c>
-      <c r="F163" s="6">
+      <c r="F163">
         <v>6.5664850613295703E-2</v>
       </c>
-      <c r="G163" s="8">
+      <c r="G163" s="5">
         <v>2.47441503204527</v>
       </c>
-      <c r="I163" s="7"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H163" s="6">
+        <v>3.1973976199209603E-5</v>
+      </c>
+      <c r="I163" s="5">
+        <f t="shared" si="2"/>
+        <v>0.56545535808947467</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>36708</v>
       </c>
@@ -3636,15 +5386,21 @@
       <c r="E164">
         <v>1.1191630068090699</v>
       </c>
-      <c r="F164" s="6">
+      <c r="F164">
         <v>3.8377052455377599E-2</v>
       </c>
-      <c r="G164" s="8">
+      <c r="G164" s="5">
         <v>0.74736815496494902</v>
       </c>
-      <c r="I164" s="7"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H164" s="6">
+        <v>4.0947278847290798E-5</v>
+      </c>
+      <c r="I164" s="5">
+        <f t="shared" si="2"/>
+        <v>0.63990060827671358</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>36800</v>
       </c>
@@ -3660,15 +5416,21 @@
       <c r="E165">
         <v>1.1344984155049131</v>
       </c>
-      <c r="F165" s="6">
+      <c r="F165">
         <v>-0.46435781136092902</v>
       </c>
-      <c r="G165" s="8">
+      <c r="G165" s="5">
         <v>2.23791316568586</v>
       </c>
-      <c r="I165" s="7"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H165" s="6">
+        <v>6.7292154228722206E-5</v>
+      </c>
+      <c r="I165" s="5">
+        <f t="shared" si="2"/>
+        <v>0.82031795194742763</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>36892</v>
       </c>
@@ -3684,15 +5446,21 @@
       <c r="E166">
         <v>1.1135900496674298</v>
       </c>
-      <c r="F166" s="6">
+      <c r="F166">
         <v>-0.649833597610875</v>
       </c>
-      <c r="G166" s="8">
+      <c r="G166" s="5">
         <v>2.3655851888780202</v>
       </c>
-      <c r="I166" s="7"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H166" s="6">
+        <v>7.8041947441992896E-5</v>
+      </c>
+      <c r="I166" s="5">
+        <f t="shared" si="2"/>
+        <v>0.88341353533887457</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>36982</v>
       </c>
@@ -3708,15 +5476,21 @@
       <c r="E167">
         <v>1.06087908731338</v>
       </c>
-      <c r="F167" s="6">
+      <c r="F167">
         <v>-0.467287009907361</v>
       </c>
-      <c r="G167" s="8">
+      <c r="G167" s="5">
         <v>1.80057515903564</v>
       </c>
-      <c r="I167" s="7"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H167" s="6">
+        <v>8.5420627338208594E-5</v>
+      </c>
+      <c r="I167" s="5">
+        <f t="shared" si="2"/>
+        <v>0.92423280258930751</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>37073</v>
       </c>
@@ -3732,15 +5506,21 @@
       <c r="E168">
         <v>1.1255938742784033</v>
       </c>
-      <c r="F168" s="6">
+      <c r="F168">
         <v>-0.64738053226394698</v>
       </c>
-      <c r="G168" s="8">
+      <c r="G168" s="5">
         <v>2.10626583895746</v>
       </c>
-      <c r="I168" s="7"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H168" s="6">
+        <v>8.3298482711323198E-5</v>
+      </c>
+      <c r="I168" s="5">
+        <f t="shared" si="2"/>
+        <v>0.91268002449556873</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>37165</v>
       </c>
@@ -3756,15 +5536,21 @@
       <c r="E169">
         <v>1.0847143707526967</v>
       </c>
-      <c r="F169" s="6">
+      <c r="F169">
         <v>-0.681944756810131</v>
       </c>
-      <c r="G169" s="8">
+      <c r="G169" s="5">
         <v>1.12609480918896</v>
       </c>
-      <c r="I169" s="7"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H169" s="6">
+        <v>5.2438454826040601E-5</v>
+      </c>
+      <c r="I169" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72414401071914281</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>37257</v>
       </c>
@@ -3780,15 +5566,21 @@
       <c r="E170">
         <v>1.0305256380215935</v>
       </c>
-      <c r="F170" s="6">
+      <c r="F170">
         <v>-2.9590227789933001E-2</v>
       </c>
-      <c r="G170" s="8">
+      <c r="G170" s="5">
         <v>1.13119298133732</v>
       </c>
-      <c r="I170" s="7"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H170" s="6">
+        <v>2.0975917914867002E-5</v>
+      </c>
+      <c r="I170" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45799473703162796</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>37347</v>
       </c>
@@ -3804,15 +5596,21 @@
       <c r="E171">
         <v>1.0882557493016665</v>
       </c>
-      <c r="F171" s="6">
+      <c r="F171">
         <v>8.0688069411284993E-2</v>
       </c>
-      <c r="G171" s="8">
+      <c r="G171" s="5">
         <v>1.5794374808526499</v>
       </c>
-      <c r="I171" s="7"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H171" s="6">
+        <v>1.98123205627008E-5</v>
+      </c>
+      <c r="I171" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44511032972399994</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -3828,15 +5626,21 @@
       <c r="E172">
         <v>1.1668768034846932</v>
       </c>
-      <c r="F172" s="6">
+      <c r="F172">
         <v>-0.29123475760793199</v>
       </c>
-      <c r="G172" s="8">
+      <c r="G172" s="5">
         <v>5.0108290137389604</v>
       </c>
-      <c r="I172" s="7"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H172" s="6">
+        <v>2.69017174664474E-5</v>
+      </c>
+      <c r="I172" s="5">
+        <f t="shared" si="2"/>
+        <v>0.51866865594951272</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>37530</v>
       </c>
@@ -3852,15 +5656,21 @@
       <c r="E173">
         <v>1.0646661448220234</v>
       </c>
-      <c r="F173" s="6">
+      <c r="F173">
         <v>-0.37072740676846799</v>
       </c>
-      <c r="G173" s="8">
+      <c r="G173" s="5">
         <v>2.8819602613024502</v>
       </c>
-      <c r="I173" s="7"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H173" s="6">
+        <v>3.35673427673596E-5</v>
+      </c>
+      <c r="I173" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5793733059725793</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>37622</v>
       </c>
@@ -3876,15 +5686,21 @@
       <c r="E174">
         <v>0.95922121477847533</v>
       </c>
-      <c r="F174" s="6">
+      <c r="F174">
         <v>-0.4260286532791</v>
       </c>
-      <c r="G174" s="8">
+      <c r="G174" s="5">
         <v>2.2679407395522002</v>
       </c>
-      <c r="I174" s="7"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H174" s="6">
+        <v>4.7825084887962901E-5</v>
+      </c>
+      <c r="I174" s="5">
+        <f t="shared" si="2"/>
+        <v>0.69155682982646405</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>37712</v>
       </c>
@@ -3900,15 +5716,21 @@
       <c r="E175">
         <v>0.93259825025674947</v>
       </c>
-      <c r="F175" s="6">
+      <c r="F175">
         <v>-4.0302808585083998E-2</v>
       </c>
-      <c r="G175" s="8">
+      <c r="G175" s="5">
         <v>1.1492709253154201</v>
       </c>
-      <c r="I175" s="7"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H175" s="6">
+        <v>3.5097418846298898E-5</v>
+      </c>
+      <c r="I175" s="5">
+        <f t="shared" si="2"/>
+        <v>0.59243074571040699</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>37803</v>
       </c>
@@ -3924,15 +5746,21 @@
       <c r="E176">
         <v>0.85693186355725759</v>
       </c>
-      <c r="F176" s="6">
+      <c r="F176">
         <v>0.37389637242458001</v>
       </c>
-      <c r="G176" s="8">
+      <c r="G176" s="5">
         <v>0.76283369492028297</v>
       </c>
-      <c r="I176" s="7"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H176" s="6">
+        <v>2.0413083105105401E-5</v>
+      </c>
+      <c r="I176" s="5">
+        <f t="shared" si="2"/>
+        <v>0.45180840081947793</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>37895</v>
       </c>
@@ -3948,15 +5776,21 @@
       <c r="E177">
         <v>0.80940280547970367</v>
       </c>
-      <c r="F177" s="6">
+      <c r="F177">
         <v>0.59874443945587696</v>
       </c>
-      <c r="G177" s="8">
+      <c r="G177" s="5">
         <v>0.499764255595461</v>
       </c>
-      <c r="I177" s="7"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H177" s="6">
+        <v>1.6878669619723301E-5</v>
+      </c>
+      <c r="I177" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4108365808898144</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>37987</v>
       </c>
@@ -3972,15 +5806,21 @@
       <c r="E178">
         <v>0.7499856064678313</v>
       </c>
-      <c r="F178" s="6">
+      <c r="F178">
         <v>0.81905019104847399</v>
       </c>
-      <c r="G178" s="8">
+      <c r="G178" s="5">
         <v>0.57580095989785496</v>
       </c>
-      <c r="I178" s="7"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H178" s="6">
+        <v>2.4213895442853601E-5</v>
+      </c>
+      <c r="I178" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49207616730394088</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>38078</v>
       </c>
@@ -3996,15 +5836,21 @@
       <c r="E179">
         <v>0.7547083075104144</v>
       </c>
-      <c r="F179" s="6">
+      <c r="F179">
         <v>0.18911142941492101</v>
       </c>
-      <c r="G179" s="8">
+      <c r="G179" s="5">
         <v>0.48092230816424197</v>
       </c>
-      <c r="I179" s="7"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H179" s="6">
+        <v>3.7613327348868702E-5</v>
+      </c>
+      <c r="I179" s="5">
+        <f t="shared" si="2"/>
+        <v>0.61329705158975534</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>38169</v>
       </c>
@@ -4020,15 +5866,21 @@
       <c r="E180">
         <v>0.76601714616438332</v>
       </c>
-      <c r="F180" s="6">
+      <c r="F180">
         <v>0.215580457146125</v>
       </c>
-      <c r="G180" s="8">
+      <c r="G180" s="5">
         <v>0.45844245601466899</v>
       </c>
-      <c r="I180" s="7"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H180" s="6">
+        <v>2.0735208786582899E-5</v>
+      </c>
+      <c r="I180" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4553592953545903</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>38261</v>
       </c>
@@ -4044,15 +5896,21 @@
       <c r="E181">
         <v>0.77754691368693107</v>
       </c>
-      <c r="F181" s="6">
+      <c r="F181">
         <v>0.226030332263986</v>
       </c>
-      <c r="G181" s="8">
+      <c r="G181" s="5">
         <v>0.43776616944204599</v>
       </c>
-      <c r="I181" s="7"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H181" s="6">
+        <v>1.3950316061804301E-5</v>
+      </c>
+      <c r="I181" s="5">
+        <f t="shared" si="2"/>
+        <v>0.37350121903153544</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>38353</v>
       </c>
@@ -4068,15 +5926,21 @@
       <c r="E182">
         <v>0.76276904390107869</v>
       </c>
-      <c r="F182" s="6">
+      <c r="F182">
         <v>0.14657184281364599</v>
       </c>
-      <c r="G182" s="8">
+      <c r="G182" s="5">
         <v>0.41306876416479299</v>
       </c>
-      <c r="I182" s="7"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H182" s="6">
+        <v>2.1304787149011599E-5</v>
+      </c>
+      <c r="I182" s="5">
+        <f t="shared" si="2"/>
+        <v>0.46157109039682714</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>38443</v>
       </c>
@@ -4092,15 +5956,21 @@
       <c r="E183">
         <v>0.75607961299266468</v>
       </c>
-      <c r="F183" s="6">
+      <c r="F183">
         <v>-6.0858587922729898E-2</v>
       </c>
-      <c r="G183" s="8">
+      <c r="G183" s="5">
         <v>0.50396932548031703</v>
       </c>
-      <c r="I183" s="7"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H183" s="6">
+        <v>2.48313394987017E-5</v>
+      </c>
+      <c r="I183" s="5">
+        <f t="shared" si="2"/>
+        <v>0.49831054071433911</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>38534</v>
       </c>
@@ -4116,15 +5986,21 @@
       <c r="E184">
         <v>0.72417480905682374</v>
       </c>
-      <c r="F184" s="6">
+      <c r="F184">
         <v>-1.44734018153665E-2</v>
       </c>
-      <c r="G184" s="8">
+      <c r="G184" s="5">
         <v>0.31309033692025001</v>
       </c>
-      <c r="I184" s="7"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H184" s="6">
+        <v>5.9754905573544297E-5</v>
+      </c>
+      <c r="I184" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77301297255314094</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>38626</v>
       </c>
@@ -4140,15 +6016,21 @@
       <c r="E185">
         <v>0.71940949094165363</v>
       </c>
-      <c r="F185" s="6">
+      <c r="F185">
         <v>5.4220799013309201E-2</v>
       </c>
-      <c r="G185" s="8">
+      <c r="G185" s="5">
         <v>0.44214630740710198</v>
       </c>
-      <c r="I185" s="7"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H185" s="6">
+        <v>2.2918418925001601E-5</v>
+      </c>
+      <c r="I185" s="5">
+        <f t="shared" si="2"/>
+        <v>0.47873185526974915</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>38718</v>
       </c>
@@ -4164,15 +6046,21 @@
       <c r="E186">
         <v>0.70785685033636936</v>
       </c>
-      <c r="F186" s="6">
+      <c r="F186">
         <v>0.43221121101286702</v>
       </c>
-      <c r="G186" s="8">
+      <c r="G186" s="5">
         <v>0.34940044783443602</v>
       </c>
-      <c r="I186" s="7"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H186" s="6">
+        <v>1.89336499410889E-5</v>
+      </c>
+      <c r="I186" s="5">
+        <f t="shared" si="2"/>
+        <v>0.43512814136859618</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>38808</v>
       </c>
@@ -4188,15 +6076,21 @@
       <c r="E187">
         <v>0.68704483521651394</v>
       </c>
-      <c r="F187" s="6">
+      <c r="F187">
         <v>5.8242483365488602E-2</v>
       </c>
-      <c r="G187" s="8">
+      <c r="G187" s="5">
         <v>0.64076240981872701</v>
       </c>
-      <c r="I187" s="7"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H187" s="6">
+        <v>1.7397022911582001E-5</v>
+      </c>
+      <c r="I187" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4170973856497065</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>38899</v>
       </c>
@@ -4212,15 +6106,21 @@
       <c r="E188">
         <v>0.65770633486254104</v>
       </c>
-      <c r="F188" s="6">
+      <c r="F188">
         <v>-1.5777568811501198E-2</v>
       </c>
-      <c r="G188" s="8">
+      <c r="G188" s="5">
         <v>0.38412270611440302</v>
       </c>
-      <c r="I188" s="7"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H188" s="6">
+        <v>2.5426742873423099E-5</v>
+      </c>
+      <c r="I188" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5042493715754448</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>38991</v>
       </c>
@@ -4236,15 +6136,21 @@
       <c r="E189">
         <v>0.63663647574463134</v>
       </c>
-      <c r="F189" s="6">
+      <c r="F189">
         <v>0.21983656426669601</v>
       </c>
-      <c r="G189" s="8">
+      <c r="G189" s="5">
         <v>0.22146512360878701</v>
       </c>
-      <c r="I189" s="7"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H189" s="6">
+        <v>2.2937924816833998E-5</v>
+      </c>
+      <c r="I189" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4789355365478114</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>39083</v>
       </c>
@@ -4260,15 +6166,21 @@
       <c r="E190">
         <v>0.63921096503752972</v>
       </c>
-      <c r="F190" s="6">
+      <c r="F190">
         <v>-9.7191460244791195E-2</v>
       </c>
-      <c r="G190" s="8">
+      <c r="G190" s="5">
         <v>0.58337215737373405</v>
       </c>
-      <c r="I190" s="7"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H190" s="6">
+        <v>1.8000664438850701E-5</v>
+      </c>
+      <c r="I190" s="5">
+        <f t="shared" si="2"/>
+        <v>0.42427189912661789</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>39173</v>
       </c>
@@ -4284,15 +6196,21 @@
       <c r="E191">
         <v>0.70103306590220849</v>
       </c>
-      <c r="F191" s="6">
+      <c r="F191">
         <v>0.26748196708986</v>
       </c>
-      <c r="G191" s="8">
+      <c r="G191" s="5">
         <v>0.43697682688774803</v>
       </c>
-      <c r="I191" s="7"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H191" s="6">
+        <v>2.2871277521805099E-5</v>
+      </c>
+      <c r="I191" s="5">
+        <f t="shared" si="2"/>
+        <v>0.47823924474895513</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>39264</v>
       </c>
@@ -4308,15 +6226,21 @@
       <c r="E192">
         <v>0.77920978032556432</v>
       </c>
-      <c r="F192" s="6">
+      <c r="F192">
         <v>0.11831046379452299</v>
       </c>
-      <c r="G192" s="8">
+      <c r="G192" s="5">
         <v>1.5001585954689001</v>
       </c>
-      <c r="I192" s="7"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H192" s="6">
+        <v>2.29023784418125E-5</v>
+      </c>
+      <c r="I192" s="5">
+        <f t="shared" si="2"/>
+        <v>0.47856429496790193</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>39356</v>
       </c>
@@ -4332,15 +6256,21 @@
       <c r="E193">
         <v>0.87509657947467534</v>
       </c>
-      <c r="F193" s="6">
+      <c r="F193">
         <v>-0.20238013264112401</v>
       </c>
-      <c r="G193" s="8">
+      <c r="G193" s="5">
         <v>1.51675550762738</v>
       </c>
-      <c r="I193" s="7"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H193" s="6">
+        <v>2.70219517736294E-5</v>
+      </c>
+      <c r="I193" s="5">
+        <f t="shared" si="2"/>
+        <v>0.51982643039412113</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>39448</v>
       </c>
@@ -4356,15 +6286,21 @@
       <c r="E194">
         <v>0.95706651288172739</v>
       </c>
-      <c r="F194" s="6">
+      <c r="F194">
         <v>-0.60554289576037701</v>
       </c>
-      <c r="G194" s="8">
+      <c r="G194" s="5">
         <v>2.3604092774345</v>
       </c>
-      <c r="I194" s="7"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H194" s="6">
+        <v>5.7780034620367397E-5</v>
+      </c>
+      <c r="I194" s="5">
+        <f t="shared" si="2"/>
+        <v>0.76013179528531361</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>39539</v>
       </c>
@@ -4380,15 +6316,21 @@
       <c r="E195">
         <v>1.0912071710195033</v>
       </c>
-      <c r="F195" s="6">
+      <c r="F195">
         <v>-0.75171483073186995</v>
       </c>
-      <c r="G195" s="8">
+      <c r="G195" s="5">
         <v>1.24712296949516</v>
       </c>
-      <c r="I195" s="7"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H195" s="6">
+        <v>8.06186376374425E-5</v>
+      </c>
+      <c r="I195" s="5">
+        <f t="shared" ref="I195:I245" si="3">+H195^0.5*100</f>
+        <v>0.89787882054006873</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>39630</v>
       </c>
@@ -4404,15 +6346,21 @@
       <c r="E196">
         <v>1.3086908694591033</v>
       </c>
-      <c r="F196" s="6">
+      <c r="F196">
         <v>-1.1112024173331201</v>
       </c>
-      <c r="G196" s="8">
+      <c r="G196" s="5">
         <v>5.0743207469238198</v>
       </c>
-      <c r="I196" s="7"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <v>1.7085751152197401E-4</v>
+      </c>
+      <c r="I196" s="5">
+        <f t="shared" si="3"/>
+        <v>1.3071247512076802</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>39722</v>
       </c>
@@ -4428,15 +6376,21 @@
       <c r="E197">
         <v>1.5000719787724568</v>
       </c>
-      <c r="F197" s="6">
+      <c r="F197">
         <v>-2.5188226267261098</v>
       </c>
-      <c r="G197" s="8">
+      <c r="G197" s="5">
         <v>17.865680263636101</v>
       </c>
-      <c r="I197" s="7"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>2.0412799061721501E-4</v>
+      </c>
+      <c r="I197" s="5">
+        <f t="shared" si="3"/>
+        <v>1.4287336722329149</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>39814</v>
       </c>
@@ -4452,15 +6406,21 @@
       <c r="E198">
         <v>1.4303572178303134</v>
       </c>
-      <c r="F198" s="6">
+      <c r="F198">
         <v>-1.7626932736752501</v>
       </c>
-      <c r="G198" s="8">
+      <c r="G198" s="5">
         <v>6.9162691200050199</v>
       </c>
-      <c r="I198" s="7"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <v>1.6176279030554101E-4</v>
+      </c>
+      <c r="I198" s="5">
+        <f t="shared" si="3"/>
+        <v>1.2718600170834091</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>39904</v>
       </c>
@@ -4476,15 +6436,21 @@
       <c r="E199">
         <v>1.2569483699847332</v>
       </c>
-      <c r="F199" s="6">
+      <c r="F199">
         <v>-5.6149843823811801E-2</v>
       </c>
-      <c r="G199" s="8">
+      <c r="G199" s="5">
         <v>2.7542855536457198</v>
       </c>
-      <c r="I199" s="7"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H199" s="6">
+        <v>6.7112191916936597E-5</v>
+      </c>
+      <c r="I199" s="5">
+        <f t="shared" si="3"/>
+        <v>0.81922031174121046</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>39995</v>
       </c>
@@ -4500,15 +6466,21 @@
       <c r="E200">
         <v>1.1091694443604734</v>
       </c>
-      <c r="F200" s="6">
+      <c r="F200">
         <v>0.37424362995232202</v>
       </c>
-      <c r="G200" s="8">
+      <c r="G200" s="5">
         <v>1.2246062949502701</v>
       </c>
-      <c r="I200" s="7"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H200" s="6">
+        <v>1.7164715229503299E-5</v>
+      </c>
+      <c r="I200" s="5">
+        <f t="shared" si="3"/>
+        <v>0.41430321299144302</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>40087</v>
       </c>
@@ -4524,15 +6496,21 @@
       <c r="E201">
         <v>1.0376893312372666</v>
       </c>
-      <c r="F201" s="6">
+      <c r="F201">
         <v>0.49950230072430801</v>
       </c>
-      <c r="G201" s="8">
+      <c r="G201" s="5">
         <v>1.06964953084443</v>
       </c>
-      <c r="I201" s="7"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H201" s="6">
+        <v>1.2272317134684299E-5</v>
+      </c>
+      <c r="I201" s="5">
+        <f t="shared" si="3"/>
+        <v>0.35031867113649967</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>40179</v>
       </c>
@@ -4548,15 +6526,21 @@
       <c r="E202">
         <v>1.0276684821575766</v>
       </c>
-      <c r="F202" s="6">
+      <c r="F202">
         <v>0.61878398192957496</v>
       </c>
-      <c r="G202" s="8">
+      <c r="G202" s="5">
         <v>0.824440553821292</v>
       </c>
-      <c r="I202" s="7"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H202" s="6">
+        <v>1.1440033622506299E-5</v>
+      </c>
+      <c r="I202" s="5">
+        <f t="shared" si="3"/>
+        <v>0.33823118754050902</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>40269</v>
       </c>
@@ -4564,7 +6548,7 @@
         <v>-0.2258676923076923</v>
       </c>
       <c r="C203">
-        <v>142.91665649414063</v>
+        <v>142.91665649414062</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
@@ -4572,15 +6556,21 @@
       <c r="E203">
         <v>1.0892857684958166</v>
       </c>
-      <c r="F203" s="6">
+      <c r="F203">
         <v>0.193965601697136</v>
       </c>
-      <c r="G203" s="8">
+      <c r="G203" s="5">
         <v>2.4680708766573298</v>
       </c>
-      <c r="I203" s="7"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H203" s="6">
+        <v>1.37930113846681E-5</v>
+      </c>
+      <c r="I203" s="5">
+        <f t="shared" si="3"/>
+        <v>0.3713894369077842</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>40360</v>
       </c>
@@ -4596,15 +6586,21 @@
       <c r="E204">
         <v>1.0982696472050069</v>
       </c>
-      <c r="F204" s="6">
+      <c r="F204">
         <v>-7.0059827633705302E-2</v>
       </c>
-      <c r="G204" s="8">
+      <c r="G204" s="5">
         <v>1.30406743212288</v>
       </c>
-      <c r="I204" s="7"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H204" s="6">
+        <v>2.2286045491065399E-5</v>
+      </c>
+      <c r="I204" s="5">
+        <f t="shared" si="3"/>
+        <v>0.472080983424088</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>40452</v>
       </c>
@@ -4620,15 +6616,21 @@
       <c r="E205">
         <v>0.97038903796248166</v>
       </c>
-      <c r="F205" s="6">
+      <c r="F205">
         <v>0.31668277206621498</v>
       </c>
-      <c r="G205" s="8">
+      <c r="G205" s="5">
         <v>0.56664735645187503</v>
       </c>
-      <c r="I205" s="7"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H205" s="6">
+        <v>2.9639408902819399E-5</v>
+      </c>
+      <c r="I205" s="5">
+        <f t="shared" si="3"/>
+        <v>0.5444208749012055</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>40544</v>
       </c>
@@ -4644,15 +6646,21 @@
       <c r="E206">
         <v>0.87944787046109563</v>
       </c>
-      <c r="F206" s="6">
+      <c r="F206">
         <v>0.26549985232467699</v>
       </c>
-      <c r="G206" s="8">
+      <c r="G206" s="5">
         <v>0.69182305597350702</v>
       </c>
-      <c r="I206" s="7"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H206" s="6">
+        <v>3.5608460239178997E-5</v>
+      </c>
+      <c r="I206" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59672824836083471</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>40634</v>
       </c>
@@ -4668,15 +6676,21 @@
       <c r="E207">
         <v>0.88759501770529636</v>
       </c>
-      <c r="F207" s="6">
+      <c r="F207">
         <v>-0.24088131889848199</v>
       </c>
-      <c r="G207" s="8">
+      <c r="G207" s="5">
         <v>0.61603341052024096</v>
       </c>
-      <c r="I207" s="7"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H207" s="6">
+        <v>2.3934413353803702E-5</v>
+      </c>
+      <c r="I207" s="5">
+        <f t="shared" si="3"/>
+        <v>0.48922809970200715</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>40725</v>
       </c>
@@ -4692,15 +6706,21 @@
       <c r="E208">
         <v>1.0509862609997598</v>
       </c>
-      <c r="F208" s="6">
+      <c r="F208">
         <v>-0.31398729597316799</v>
       </c>
-      <c r="G208" s="8">
+      <c r="G208" s="5">
         <v>4.4399045216350697</v>
       </c>
-      <c r="I208" s="7"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H208" s="6">
+        <v>2.1975732895204298E-5</v>
+      </c>
+      <c r="I208" s="5">
+        <f t="shared" si="3"/>
+        <v>0.4687828164001353</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>40817</v>
       </c>
@@ -4716,15 +6736,21 @@
       <c r="E209">
         <v>1.0228449938163975</v>
       </c>
-      <c r="F209" s="6">
+      <c r="F209">
         <v>-0.32171200388598697</v>
       </c>
-      <c r="G209" s="8">
+      <c r="G209" s="5">
         <v>2.8159310777371802</v>
       </c>
-      <c r="I209" s="7"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H209" s="6">
+        <v>1.6370049389088899E-5</v>
+      </c>
+      <c r="I209" s="5">
+        <f t="shared" si="3"/>
+        <v>0.40459917682922808</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>40909</v>
       </c>
@@ -4740,15 +6766,21 @@
       <c r="E210">
         <v>0.87536590547514026</v>
       </c>
-      <c r="F210" s="6">
+      <c r="F210">
         <v>0.38879086666232199</v>
       </c>
-      <c r="G210" s="8">
+      <c r="G210" s="5">
         <v>0.38872414009570599</v>
       </c>
-      <c r="I210" s="7"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H210" s="6">
+        <v>2.9221027256174399E-5</v>
+      </c>
+      <c r="I210" s="5">
+        <f t="shared" si="3"/>
+        <v>0.54056477184676399</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>41000</v>
       </c>
@@ -4764,15 +6796,21 @@
       <c r="E211">
         <v>0.8340070895081203</v>
       </c>
-      <c r="F211" s="6">
+      <c r="F211">
         <v>-0.23132643078242501</v>
       </c>
-      <c r="G211" s="8">
+      <c r="G211" s="5">
         <v>1.04266416879145</v>
       </c>
-      <c r="I211" s="7"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H211" s="6">
+        <v>2.98768729544501E-5</v>
+      </c>
+      <c r="I211" s="5">
+        <f t="shared" si="3"/>
+        <v>0.54659741084686908</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>41091</v>
       </c>
@@ -4788,15 +6826,21 @@
       <c r="E212">
         <v>0.76377566513691997</v>
       </c>
-      <c r="F212" s="6">
+      <c r="F212">
         <v>-0.199053889053697</v>
       </c>
-      <c r="G212" s="8">
+      <c r="G212" s="5">
         <v>0.52303147477939704</v>
       </c>
-      <c r="I212" s="7"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H212" s="6">
+        <v>3.0768155949097902E-5</v>
+      </c>
+      <c r="I212" s="5">
+        <f t="shared" si="3"/>
+        <v>0.55469050784286811</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>41183</v>
       </c>
@@ -4812,15 +6856,21 @@
       <c r="E213">
         <v>0.73697965794188269</v>
       </c>
-      <c r="F213" s="6">
+      <c r="F213">
         <v>7.1939451163734597E-2</v>
       </c>
-      <c r="G213" s="8">
+      <c r="G213" s="5">
         <v>0.62457367944637798</v>
       </c>
-      <c r="I213" s="7"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H213" s="6">
+        <v>1.9451676796794999E-5</v>
+      </c>
+      <c r="I213" s="5">
+        <f t="shared" si="3"/>
+        <v>0.44104055138722792</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>41275</v>
       </c>
@@ -4836,15 +6886,21 @@
       <c r="E214">
         <v>0.74842269660691596</v>
       </c>
-      <c r="F214" s="6">
+      <c r="F214">
         <v>0.15422548088070201</v>
       </c>
-      <c r="G214" s="8">
+      <c r="G214" s="5">
         <v>0.43661762961165301</v>
       </c>
-      <c r="I214" s="7"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H214" s="6">
+        <v>1.8647205165544001E-5</v>
+      </c>
+      <c r="I214" s="5">
+        <f t="shared" si="3"/>
+        <v>0.43182409804854566</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>41365</v>
       </c>
@@ -4860,15 +6916,21 @@
       <c r="E215">
         <v>0.75812972329198003</v>
       </c>
-      <c r="F215" s="6">
+      <c r="F215">
         <v>0.15862237298050699</v>
       </c>
-      <c r="G215" s="8">
+      <c r="G215" s="5">
         <v>0.77684377822001804</v>
       </c>
-      <c r="I215" s="7"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H215" s="6">
+        <v>2.23068176830348E-5</v>
+      </c>
+      <c r="I215" s="5">
+        <f t="shared" si="3"/>
+        <v>0.47230093884127311</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>41456</v>
       </c>
@@ -4884,15 +6946,21 @@
       <c r="E216">
         <v>0.78731753393618398</v>
       </c>
-      <c r="F216" s="6">
+      <c r="F216">
         <v>0.21723213156417501</v>
       </c>
-      <c r="G216" s="8">
+      <c r="G216" s="5">
         <v>0.32380882650824799</v>
       </c>
-      <c r="I216" s="7"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H216" s="6">
+        <v>1.7852005671002101E-5</v>
+      </c>
+      <c r="I216" s="5">
+        <f t="shared" si="3"/>
+        <v>0.42251633898586816</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>41548</v>
       </c>
@@ -4908,15 +6976,21 @@
       <c r="E217">
         <v>0.75864313674190542</v>
       </c>
-      <c r="F217" s="6">
+      <c r="F217">
         <v>0.28126069086585198</v>
       </c>
-      <c r="G217" s="8">
+      <c r="G217" s="5">
         <v>0.43917451157098197</v>
       </c>
-      <c r="I217" s="7"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H217" s="6">
+        <v>2.1451152555446101E-5</v>
+      </c>
+      <c r="I217" s="5">
+        <f t="shared" si="3"/>
+        <v>0.46315388971103438</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>41640</v>
       </c>
@@ -4932,15 +7006,21 @@
       <c r="E218">
         <v>0.76087071304517007</v>
       </c>
-      <c r="F218" s="6">
+      <c r="F218">
         <v>0.206660863376841</v>
       </c>
-      <c r="G218" s="8">
+      <c r="G218" s="5">
         <v>0.56391767133713699</v>
       </c>
-      <c r="I218" s="7"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H218" s="6">
+        <v>1.47594677519437E-5</v>
+      </c>
+      <c r="I218" s="5">
+        <f t="shared" si="3"/>
+        <v>0.38418052725175567</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>41730</v>
       </c>
@@ -4956,15 +7036,21 @@
       <c r="E219">
         <v>0.75604142625525872</v>
       </c>
-      <c r="F219" s="6">
+      <c r="F219">
         <v>0.33132163239351098</v>
       </c>
-      <c r="G219" s="8">
+      <c r="G219" s="5">
         <v>0.35067600337233101</v>
       </c>
-      <c r="I219" s="7"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H219" s="6">
+        <v>1.6732035567344299E-5</v>
+      </c>
+      <c r="I219" s="5">
+        <f t="shared" si="3"/>
+        <v>0.40904810924076274</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>41821</v>
       </c>
@@ -4980,15 +7066,21 @@
       <c r="E220">
         <v>0.80526918835682071</v>
       </c>
-      <c r="F220" s="6">
+      <c r="F220">
         <v>0.16024045025741901</v>
       </c>
-      <c r="G220" s="8">
+      <c r="G220" s="5">
         <v>0.34790549823806599</v>
       </c>
-      <c r="I220" s="7"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H220" s="6">
+        <v>1.6375084433844598E-5</v>
+      </c>
+      <c r="I220" s="5">
+        <f t="shared" si="3"/>
+        <v>0.40466139467268925</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>41913</v>
       </c>
@@ -5004,15 +7096,21 @@
       <c r="E221">
         <v>0.78621872748161603</v>
       </c>
-      <c r="F221" s="6">
+      <c r="F221">
         <v>-4.3035969881957299E-2</v>
       </c>
-      <c r="G221" s="8">
+      <c r="G221" s="5">
         <v>0.79296117773752905</v>
       </c>
-      <c r="I221" s="7"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H221" s="6">
+        <v>4.1890119450717303E-5</v>
+      </c>
+      <c r="I221" s="5">
+        <f t="shared" si="3"/>
+        <v>0.64722576780221985</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>42005</v>
       </c>
@@ -5028,15 +7126,21 @@
       <c r="E222">
         <v>0.78875718250178528</v>
       </c>
-      <c r="F222" s="6">
+      <c r="F222">
         <v>-5.5223182553621998E-2</v>
       </c>
-      <c r="G222" s="8">
+      <c r="G222" s="5">
         <v>0.77997671195037499</v>
       </c>
-      <c r="I222" s="7"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H222" s="6">
+        <v>6.6247453795188294E-5</v>
+      </c>
+      <c r="I222" s="5">
+        <f t="shared" si="3"/>
+        <v>0.81392538844287377</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>42095</v>
       </c>
@@ -5052,15 +7156,21 @@
       <c r="E223">
         <v>0.77999925153364524</v>
       </c>
-      <c r="F223" s="6">
+      <c r="F223">
         <v>-2.2571753330519501E-2</v>
       </c>
-      <c r="G223" s="8">
+      <c r="G223" s="5">
         <v>0.400025872169882</v>
       </c>
-      <c r="I223" s="7"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H223" s="6">
+        <v>4.7838501288424499E-5</v>
+      </c>
+      <c r="I223" s="5">
+        <f t="shared" si="3"/>
+        <v>0.6916538244557352</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>42186</v>
       </c>
@@ -5076,15 +7186,21 @@
       <c r="E224">
         <v>0.85343344476388205</v>
       </c>
-      <c r="F224" s="6">
+      <c r="F224">
         <v>-0.39496568601291798</v>
       </c>
-      <c r="G224" s="8">
+      <c r="G224" s="5">
         <v>1.7379717597368201</v>
       </c>
-      <c r="I224" s="7"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H224" s="6">
+        <v>5.6558277283138802E-5</v>
+      </c>
+      <c r="I224" s="5">
+        <f t="shared" si="3"/>
+        <v>0.75205237372897638</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>42278</v>
       </c>
@@ -5100,15 +7216,21 @@
       <c r="E225">
         <v>0.87673661446632389</v>
       </c>
-      <c r="F225" s="6">
+      <c r="F225">
         <v>-0.25351638592494102</v>
       </c>
-      <c r="G225" s="8">
+      <c r="G225" s="5">
         <v>0.86832111472098605</v>
       </c>
-      <c r="I225" s="7"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H225" s="6">
+        <v>5.6716844679724403E-5</v>
+      </c>
+      <c r="I225" s="5">
+        <f t="shared" si="3"/>
+        <v>0.75310586692525772</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>42370</v>
       </c>
@@ -5124,15 +7246,21 @@
       <c r="E226">
         <v>0.86484325103888937</v>
       </c>
-      <c r="F226" s="6">
+      <c r="F226">
         <v>-0.428713718513899</v>
       </c>
-      <c r="G226" s="8">
+      <c r="G226" s="5">
         <v>1.3412767139019399</v>
       </c>
-      <c r="I226" s="7"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H226" s="6">
+        <v>5.5621445583254703E-5</v>
+      </c>
+      <c r="I226" s="5">
+        <f t="shared" si="3"/>
+        <v>0.74579786526413916</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>42461</v>
       </c>
@@ -5148,15 +7276,21 @@
       <c r="E227">
         <v>0.7829917314402417</v>
       </c>
-      <c r="F227" s="6">
+      <c r="F227">
         <v>-0.126791867239959</v>
       </c>
-      <c r="G227" s="8">
+      <c r="G227" s="5">
         <v>0.73663895371328802</v>
       </c>
-      <c r="I227" s="7"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H227" s="6">
+        <v>2.6018949224872699E-5</v>
+      </c>
+      <c r="I227" s="5">
+        <f t="shared" si="3"/>
+        <v>0.51008772995311991</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>42552</v>
       </c>
@@ -5172,15 +7306,21 @@
       <c r="E228">
         <v>0.77229423353277082</v>
       </c>
-      <c r="F228" s="6">
+      <c r="F228">
         <v>-0.19716515602671</v>
       </c>
-      <c r="G228" s="8">
+      <c r="G228" s="5">
         <v>0.381096007121283</v>
       </c>
-      <c r="I228" s="7"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H228" s="6">
+        <v>2.6267455522416599E-5</v>
+      </c>
+      <c r="I228" s="5">
+        <f t="shared" si="3"/>
+        <v>0.51251785844413855</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>42644</v>
       </c>
@@ -5196,15 +7336,21 @@
       <c r="E229">
         <v>0.79515591401821795</v>
       </c>
-      <c r="F229" s="6">
+      <c r="F229">
         <v>2.8101219269591499E-2</v>
       </c>
-      <c r="G229" s="8">
+      <c r="G229" s="5">
         <v>0.28922728009669801</v>
       </c>
-      <c r="I229" s="7"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H229" s="6">
+        <v>2.5811790480498401E-5</v>
+      </c>
+      <c r="I229" s="5">
+        <f t="shared" si="3"/>
+        <v>0.50805305314010663</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>42736</v>
       </c>
@@ -5220,15 +7366,21 @@
       <c r="E230">
         <v>0.69949438610392056</v>
       </c>
-      <c r="F230" s="6">
+      <c r="F230">
         <v>0.206541119356625</v>
       </c>
-      <c r="G230" s="8">
+      <c r="G230" s="5">
         <v>0.182423566904341</v>
       </c>
-      <c r="I230" s="7"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H230" s="6">
+        <v>1.5343053527300101E-5</v>
+      </c>
+      <c r="I230" s="5">
+        <f t="shared" si="3"/>
+        <v>0.39170210016414386</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>42826</v>
       </c>
@@ -5244,15 +7396,21 @@
       <c r="E231">
         <v>0.67267311166980404</v>
       </c>
-      <c r="F231" s="6">
+      <c r="F231">
         <v>0.121723332211136</v>
       </c>
-      <c r="G231" s="8">
+      <c r="G231" s="5">
         <v>0.21335502949340299</v>
       </c>
-      <c r="I231" s="7"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H231" s="6">
+        <v>2.3303866360299199E-5</v>
+      </c>
+      <c r="I231" s="5">
+        <f t="shared" si="3"/>
+        <v>0.48274078303266649</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>42917</v>
       </c>
@@ -5268,15 +7426,21 @@
       <c r="E232">
         <v>0.69374126307924922</v>
       </c>
-      <c r="F232" s="6">
+      <c r="F232">
         <v>0.162973215419527</v>
       </c>
-      <c r="G232" s="8">
+      <c r="G232" s="5">
         <v>0.20205486855427701</v>
       </c>
-      <c r="I232" s="7"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H232" s="6">
+        <v>1.6880338633750301E-5</v>
+      </c>
+      <c r="I232" s="5">
+        <f t="shared" si="3"/>
+        <v>0.41085689277107545</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>43009</v>
       </c>
@@ -5292,15 +7456,21 @@
       <c r="E233">
         <v>0.70920302816807446</v>
       </c>
-      <c r="F233" s="6">
+      <c r="F233">
         <v>0.327914810740563</v>
       </c>
-      <c r="G233" s="8">
+      <c r="G233" s="5">
         <v>0.129199144441529</v>
       </c>
-      <c r="I233" s="7"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H233" s="6">
+        <v>1.39316229938857E-5</v>
+      </c>
+      <c r="I233" s="5">
+        <f t="shared" si="3"/>
+        <v>0.37325089408982937</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>43101</v>
       </c>
@@ -5316,15 +7486,21 @@
       <c r="E234">
         <v>0.74850509841022428</v>
       </c>
-      <c r="F234" s="6">
+      <c r="F234">
         <v>0.239557265595427</v>
       </c>
-      <c r="G234" s="8">
+      <c r="G234" s="5">
         <v>1.55839274867665</v>
       </c>
-      <c r="I234" s="7"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H234" s="6">
+        <v>2.4180676860503802E-5</v>
+      </c>
+      <c r="I234" s="5">
+        <f t="shared" si="3"/>
+        <v>0.49173851649534023</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>43191</v>
       </c>
@@ -5340,15 +7516,21 @@
       <c r="E235">
         <v>0.78145416078329522</v>
       </c>
-      <c r="F235" s="6">
+      <c r="F235">
         <v>-0.100604154915356</v>
       </c>
-      <c r="G235" s="8">
+      <c r="G235" s="5">
         <v>0.612520277723823</v>
       </c>
-      <c r="I235" s="7"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H235" s="6">
+        <v>2.3355708235059499E-5</v>
+      </c>
+      <c r="I235" s="5">
+        <f t="shared" si="3"/>
+        <v>0.48327743828011976</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>43282</v>
       </c>
@@ -5364,15 +7546,21 @@
       <c r="E236">
         <v>0.88471317256682858</v>
       </c>
-      <c r="F236" s="6">
+      <c r="F236">
         <v>-1.59086449253882E-2</v>
       </c>
-      <c r="G236" s="8">
+      <c r="G236" s="5">
         <v>0.21453880845745901</v>
       </c>
-      <c r="I236" s="7"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H236" s="6">
+        <v>2.2911478227466201E-5</v>
+      </c>
+      <c r="I236" s="5">
+        <f t="shared" si="3"/>
+        <v>0.47865935933047626</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>43374</v>
       </c>
@@ -5388,15 +7576,21 @@
       <c r="E237">
         <v>1.0863506135312566</v>
       </c>
-      <c r="F237" s="6">
+      <c r="F237">
         <v>-0.37505581930436499</v>
       </c>
-      <c r="G237" s="8">
+      <c r="G237" s="5">
         <v>2.26084141563121</v>
       </c>
-      <c r="I237" s="7"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H237" s="6">
+        <v>4.1828046103995797E-5</v>
+      </c>
+      <c r="I237" s="5">
+        <f t="shared" si="3"/>
+        <v>0.64674605606834423</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>43466</v>
       </c>
@@ -5412,15 +7606,21 @@
       <c r="E238">
         <v>1.07699364095511</v>
       </c>
-      <c r="F238" s="6">
+      <c r="F238">
         <v>-0.15027743845430799</v>
       </c>
-      <c r="G238" s="8">
+      <c r="G238" s="5">
         <v>0.75724471236010005</v>
       </c>
-      <c r="I238" s="7"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H238" s="6">
+        <v>5.0122939929836199E-5</v>
+      </c>
+      <c r="I238" s="5">
+        <f t="shared" si="3"/>
+        <v>0.70797556405455264</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>43556</v>
       </c>
@@ -5436,15 +7636,21 @@
       <c r="E239">
         <v>1.0547881234693333</v>
       </c>
-      <c r="F239" s="6">
+      <c r="F239">
         <v>-0.122246377427496</v>
       </c>
-      <c r="G239" s="8">
+      <c r="G239" s="5">
         <v>0.52024148354826005</v>
       </c>
-      <c r="I239" s="7"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H239" s="6">
+        <v>3.7389082093848E-5</v>
+      </c>
+      <c r="I239" s="5">
+        <f t="shared" si="3"/>
+        <v>0.6114661241135767</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>43647</v>
       </c>
@@ -5460,15 +7666,21 @@
       <c r="E240">
         <v>1.0217426508914433</v>
       </c>
-      <c r="F240" s="6">
+      <c r="F240">
         <v>-0.42756056589925201</v>
       </c>
-      <c r="G240" s="8">
+      <c r="G240" s="5">
         <v>0.86796968749999526</v>
       </c>
-      <c r="I240" s="7"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H240" s="6">
+        <v>4.5851948392684798E-5</v>
+      </c>
+      <c r="I240" s="5">
+        <f t="shared" si="3"/>
+        <v>0.6771406677543802</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>43739</v>
       </c>
@@ -5484,15 +7696,21 @@
       <c r="E241">
         <v>1.0599096384804401</v>
       </c>
-      <c r="F241" s="6">
+      <c r="F241">
         <v>4.4448131626078601E-2</v>
       </c>
-      <c r="G241" s="8">
+      <c r="G241" s="5">
         <v>0.36264106249999267</v>
       </c>
-      <c r="I241" s="7"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H241" s="6">
+        <v>4.4524353085925497E-5</v>
+      </c>
+      <c r="I241" s="5">
+        <f t="shared" si="3"/>
+        <v>0.66726571233598908</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>43831</v>
       </c>
@@ -5508,12 +7726,11 @@
       <c r="E242">
         <v>1.3660131942498366</v>
       </c>
-      <c r="F242" s="6">
+      <c r="F242">
         <v>-1.2036027121458399</v>
       </c>
-      <c r="I242" s="7"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>43922</v>
       </c>
@@ -5523,18 +7740,17 @@
       <c r="C243">
         <v>283.44533793131512</v>
       </c>
-      <c r="D243" s="5">
+      <c r="D243" s="4">
         <v>1</v>
       </c>
       <c r="E243">
         <v>1.2994515504664232</v>
       </c>
-      <c r="F243" s="6">
+      <c r="F243">
         <v>-3.0881972742501298</v>
       </c>
-      <c r="I243" s="7"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>44013</v>
       </c>
@@ -5544,15 +7760,14 @@
       <c r="C244">
         <v>257.36605834960938</v>
       </c>
-      <c r="D244" s="5">
+      <c r="D244" s="4">
         <v>1</v>
       </c>
-      <c r="F244" s="6">
+      <c r="F244">
         <v>1.4009308040482</v>
       </c>
-      <c r="I244" s="7"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>44105</v>
       </c>
@@ -5560,118 +7775,12 @@
       <c r="C245">
         <v>249.52288818359375</v>
       </c>
-      <c r="D245" s="5">
+      <c r="D245" s="4">
         <v>1</v>
       </c>
-      <c r="F245" s="6">
+      <c r="F245">
         <v>0.154008226388585</v>
       </c>
-      <c r="I245" s="7"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I246" s="7"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I247" s="7"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I248" s="7"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I249" s="7"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I250" s="7"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I251" s="7"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I252" s="7"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I253" s="7"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I254" s="7"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I255" s="7"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I256" s="7"/>
-    </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I257" s="7"/>
-    </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I258" s="7"/>
-    </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I259" s="7"/>
-    </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I260" s="7"/>
-    </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I261" s="7"/>
-    </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I262" s="7"/>
-    </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I263" s="7"/>
-    </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I264" s="7"/>
-    </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I265" s="7"/>
-    </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I266" s="7"/>
-    </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I267" s="7"/>
-    </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I268" s="7"/>
-    </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I269" s="7"/>
-    </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I270" s="7"/>
-    </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I271" s="7"/>
-    </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I272" s="7"/>
-    </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I273" s="7"/>
-    </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I274" s="7"/>
-    </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I275" s="7"/>
-    </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I276" s="7"/>
-    </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I277" s="7"/>
-    </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I278" s="7"/>
-    </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I279" s="7"/>
-    </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I280" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/USconditions.xlsx
+++ b/Data/USconditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignaciogarronvedia/Documents/GitHub/Vulnerable-Funding-RR2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igarron\Documents\GitHub\Vulnerable-Funding-RR2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CFE8BF-E3B1-6540-853B-AD0BD20376AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA4B4DB-5A7B-494B-8CA4-EEE80507FFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{2216C49B-0CF4-44C0-B597-0C0EC2EAB19F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2216C49B-0CF4-44C0-B597-0C0EC2EAB19F}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>NFCI</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>VOL_GROWTH</t>
+  </si>
+  <si>
+    <t>VOL_WPI</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -431,18 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6443C3C9-EB2F-4C4A-A6E2-8C0297F08FC4}">
-  <dimension ref="A1:AGW245"/>
+  <dimension ref="A1:AGX245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -462,30 +466,32 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>21916</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>0.477487310897318</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
         <v>1.5637848956881099E-4</v>
       </c>
-      <c r="I2" s="5">
-        <f>+H2^0.5*100</f>
+      <c r="J2" s="5">
+        <f>+I2^0.5*100</f>
         <v>1.2505138526574227</v>
       </c>
-      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -504,9 +510,9 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
-      <c r="AK2" s="6"/>
+      <c r="AC2" s="6"/>
       <c r="AL2" s="6"/>
-      <c r="AP2" s="6"/>
+      <c r="AM2" s="6"/>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
       <c r="AS2" s="6"/>
@@ -524,7 +530,7 @@
       <c r="BE2" s="6"/>
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
-      <c r="BJ2" s="6"/>
+      <c r="BH2" s="6"/>
       <c r="BK2" s="6"/>
       <c r="BL2" s="6"/>
       <c r="BM2" s="6"/>
@@ -533,7 +539,7 @@
       <c r="BP2" s="6"/>
       <c r="BQ2" s="6"/>
       <c r="BR2" s="6"/>
-      <c r="BV2" s="6"/>
+      <c r="BS2" s="6"/>
       <c r="BW2" s="6"/>
       <c r="BX2" s="6"/>
       <c r="BY2" s="6"/>
@@ -545,7 +551,7 @@
       <c r="CE2" s="6"/>
       <c r="CF2" s="6"/>
       <c r="CG2" s="6"/>
-      <c r="CT2" s="6"/>
+      <c r="CH2" s="6"/>
       <c r="CU2" s="6"/>
       <c r="CV2" s="6"/>
       <c r="CW2" s="6"/>
@@ -566,13 +572,13 @@
       <c r="DL2" s="6"/>
       <c r="DM2" s="6"/>
       <c r="DN2" s="6"/>
-      <c r="DS2" s="6"/>
-      <c r="DU2" s="6"/>
-      <c r="DW2" s="6"/>
+      <c r="DO2" s="6"/>
+      <c r="DT2" s="6"/>
+      <c r="DV2" s="6"/>
       <c r="DX2" s="6"/>
-      <c r="EB2" s="6"/>
+      <c r="DY2" s="6"/>
       <c r="EC2" s="6"/>
-      <c r="EN2" s="6"/>
+      <c r="ED2" s="6"/>
       <c r="EO2" s="6"/>
       <c r="EP2" s="6"/>
       <c r="EQ2" s="6"/>
@@ -584,8 +590,8 @@
       <c r="EW2" s="6"/>
       <c r="EX2" s="6"/>
       <c r="EY2" s="6"/>
-      <c r="FF2" s="6"/>
-      <c r="FV2" s="6"/>
+      <c r="EZ2" s="6"/>
+      <c r="FG2" s="6"/>
       <c r="FW2" s="6"/>
       <c r="FX2" s="6"/>
       <c r="FY2" s="6"/>
@@ -689,7 +695,7 @@
       <c r="JS2" s="6"/>
       <c r="JT2" s="6"/>
       <c r="JU2" s="6"/>
-      <c r="JW2" s="6"/>
+      <c r="JV2" s="6"/>
       <c r="JX2" s="6"/>
       <c r="JY2" s="6"/>
       <c r="JZ2" s="6"/>
@@ -697,7 +703,7 @@
       <c r="KB2" s="6"/>
       <c r="KC2" s="6"/>
       <c r="KD2" s="6"/>
-      <c r="KG2" s="6"/>
+      <c r="KE2" s="6"/>
       <c r="KH2" s="6"/>
       <c r="KI2" s="6"/>
       <c r="KJ2" s="6"/>
@@ -744,7 +750,7 @@
       <c r="LY2" s="6"/>
       <c r="LZ2" s="6"/>
       <c r="MA2" s="6"/>
-      <c r="MI2" s="6"/>
+      <c r="MB2" s="6"/>
       <c r="MJ2" s="6"/>
       <c r="MK2" s="6"/>
       <c r="ML2" s="6"/>
@@ -802,7 +808,7 @@
       <c r="OL2" s="6"/>
       <c r="OM2" s="6"/>
       <c r="ON2" s="6"/>
-      <c r="OT2" s="6"/>
+      <c r="OO2" s="6"/>
       <c r="OU2" s="6"/>
       <c r="OV2" s="6"/>
       <c r="OW2" s="6"/>
@@ -816,8 +822,8 @@
       <c r="PE2" s="6"/>
       <c r="PF2" s="6"/>
       <c r="PG2" s="6"/>
-      <c r="PK2" s="6"/>
-      <c r="PV2" s="6"/>
+      <c r="PH2" s="6"/>
+      <c r="PL2" s="6"/>
       <c r="PW2" s="6"/>
       <c r="PX2" s="6"/>
       <c r="PY2" s="6"/>
@@ -1124,7 +1130,7 @@
       <c r="ABN2" s="6"/>
       <c r="ABO2" s="6"/>
       <c r="ABP2" s="6"/>
-      <c r="ACB2" s="6"/>
+      <c r="ABQ2" s="6"/>
       <c r="ACC2" s="6"/>
       <c r="ACD2" s="6"/>
       <c r="ACE2" s="6"/>
@@ -1250,779 +1256,780 @@
       <c r="AGU2" s="6"/>
       <c r="AGV2" s="6"/>
       <c r="AGW2" s="6"/>
-    </row>
-    <row r="3" spans="1:881" x14ac:dyDescent="0.2">
+      <c r="AGX2" s="6"/>
+    </row>
+    <row r="3" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>22007</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>0.28843341544092699</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.64745110317301E-4</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I66" si="0">+H3^0.5*100</f>
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J66" si="0">+I3^0.5*100</f>
         <v>1.2835307176585258</v>
       </c>
     </row>
-    <row r="4" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>22098</v>
       </c>
       <c r="E4">
         <v>0.89823574856820698</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>0.523840997431956</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1.70292826417622E-4</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J4" s="5">
         <f t="shared" si="0"/>
         <v>1.3049629359396457</v>
       </c>
     </row>
-    <row r="5" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>22190</v>
       </c>
       <c r="E5">
         <v>0.88038138353941431</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>0.41520588239302902</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1.8985036989324099E-4</v>
       </c>
-      <c r="I5" s="5">
+      <c r="J5" s="5">
         <f t="shared" si="0"/>
         <v>1.3778620028625546</v>
       </c>
     </row>
-    <row r="6" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>22282</v>
       </c>
       <c r="E6">
         <v>0.86678018386363609</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>0.28804340501403503</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1.06193863264414E-4</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <f t="shared" si="0"/>
         <v>1.0305040672622987</v>
       </c>
     </row>
-    <row r="7" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>22372</v>
       </c>
       <c r="E7">
         <v>0.82704383423017103</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>0.78757365906479704</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>5.5756274243383698E-5</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <f t="shared" si="0"/>
         <v>0.74670124041268138</v>
       </c>
     </row>
-    <row r="8" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>22463</v>
       </c>
       <c r="E8">
         <v>0.80974018785446711</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>0.35196512504823901</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>4.9668621714339698E-5</v>
       </c>
-      <c r="I8" s="5">
+      <c r="J8" s="5">
         <f t="shared" si="0"/>
         <v>0.70475968751298268</v>
       </c>
     </row>
-    <row r="9" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>22555</v>
       </c>
       <c r="E9">
         <v>0.82842824991572772</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>0.214806443399745</v>
       </c>
-      <c r="H9" s="6">
+      <c r="I9" s="6">
         <v>6.4042515419638401E-5</v>
       </c>
-      <c r="I9" s="5">
+      <c r="J9" s="5">
         <f t="shared" si="0"/>
         <v>0.80026567725748676</v>
       </c>
     </row>
-    <row r="10" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>22647</v>
       </c>
       <c r="E10">
         <v>0.88904687865757681</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>0.215049734610615</v>
       </c>
-      <c r="H10" s="6">
+      <c r="I10" s="6">
         <v>6.4981724169380407E-5</v>
       </c>
-      <c r="I10" s="5">
+      <c r="J10" s="5">
         <f t="shared" si="0"/>
         <v>0.80611242497173075</v>
       </c>
     </row>
-    <row r="11" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22737</v>
       </c>
       <c r="E11">
         <v>1.0451332275771801</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>2.7095158480363302</v>
       </c>
-      <c r="H11" s="6">
+      <c r="I11" s="6">
         <v>6.7687115930042805E-5</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5">
         <f t="shared" si="0"/>
         <v>0.82272179945618806</v>
       </c>
     </row>
-    <row r="12" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>22828</v>
       </c>
       <c r="E12">
         <v>1.0184138480069733</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="5">
         <v>0.60333941346306597</v>
       </c>
-      <c r="H12" s="6">
+      <c r="I12" s="6">
         <v>5.2598135515577201E-5</v>
       </c>
-      <c r="I12" s="5">
+      <c r="J12" s="5">
         <f t="shared" si="0"/>
         <v>0.72524572053599323</v>
       </c>
     </row>
-    <row r="13" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>22920</v>
       </c>
       <c r="E13">
         <v>0.99035553290120404</v>
       </c>
-      <c r="G13" s="5">
+      <c r="H13" s="5">
         <v>0.84332705248901996</v>
       </c>
-      <c r="H13" s="6">
+      <c r="I13" s="6">
         <v>4.2500277946518702E-5</v>
       </c>
-      <c r="I13" s="5">
+      <c r="J13" s="5">
         <f t="shared" si="0"/>
         <v>0.65192237226926564</v>
       </c>
     </row>
-    <row r="14" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>23012</v>
       </c>
       <c r="E14">
         <v>0.84785472548782226</v>
       </c>
-      <c r="G14" s="5">
+      <c r="H14" s="5">
         <v>0.233373226543341</v>
       </c>
-      <c r="H14" s="6">
+      <c r="I14" s="6">
         <v>2.9456474568352701E-5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="J14" s="5">
         <f t="shared" si="0"/>
         <v>0.54273819257863831</v>
       </c>
     </row>
-    <row r="15" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>23102</v>
       </c>
       <c r="E15">
         <v>0.73986291035535234</v>
       </c>
-      <c r="G15" s="5">
+      <c r="H15" s="5">
         <v>0.140313306383647</v>
       </c>
-      <c r="H15" s="6">
+      <c r="I15" s="6">
         <v>4.0009955644320502E-5</v>
       </c>
-      <c r="I15" s="5">
+      <c r="J15" s="5">
         <f t="shared" si="0"/>
         <v>0.63253423341603021</v>
       </c>
     </row>
-    <row r="16" spans="1:881" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:882" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>23193</v>
       </c>
       <c r="E16">
         <v>0.69352357506341156</v>
       </c>
-      <c r="G16" s="5">
+      <c r="H16" s="5">
         <v>0.18524051610921899</v>
       </c>
-      <c r="H16" s="6">
+      <c r="I16" s="6">
         <v>3.3657065611842497E-5</v>
       </c>
-      <c r="I16" s="5">
+      <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>0.58014709869000036</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>23285</v>
       </c>
       <c r="E17">
         <v>0.64990109871809398</v>
       </c>
-      <c r="G17" s="5">
+      <c r="H17" s="5">
         <v>0.63500108994776905</v>
       </c>
-      <c r="H17" s="6">
+      <c r="I17" s="6">
         <v>3.5406337269781798E-5</v>
       </c>
-      <c r="I17" s="5">
+      <c r="J17" s="5">
         <f t="shared" si="0"/>
         <v>0.59503224509081687</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>23377</v>
       </c>
       <c r="E18">
         <v>0.6169096585764513</v>
       </c>
-      <c r="G18" s="5">
+      <c r="H18" s="5">
         <v>5.9524167113452403E-2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="I18" s="6">
         <v>3.02097755153639E-5</v>
       </c>
-      <c r="I18" s="5">
+      <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>0.54963420122263051</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>23468</v>
       </c>
       <c r="E19">
         <v>0.59873893043850501</v>
       </c>
-      <c r="G19" s="5">
+      <c r="H19" s="5">
         <v>0.142349737974374</v>
       </c>
-      <c r="H19" s="6">
+      <c r="I19" s="6">
         <v>2.4630400689256399E-5</v>
       </c>
-      <c r="I19" s="5">
+      <c r="J19" s="5">
         <f t="shared" si="0"/>
         <v>0.49629024460749172</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>23559</v>
       </c>
       <c r="E20">
         <v>0.60884874133600009</v>
       </c>
-      <c r="G20" s="5">
+      <c r="H20" s="5">
         <v>0.124497306396282</v>
       </c>
-      <c r="H20" s="6">
+      <c r="I20" s="6">
         <v>5.0995617413657102E-5</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <f t="shared" si="0"/>
         <v>0.71411215795319638</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>23651</v>
       </c>
       <c r="E21">
         <v>0.63345354326014836</v>
       </c>
-      <c r="G21" s="5">
+      <c r="H21" s="5">
         <v>0.119411352803</v>
       </c>
-      <c r="H21" s="6">
+      <c r="I21" s="6">
         <v>3.4616820332966902E-5</v>
       </c>
-      <c r="I21" s="5">
+      <c r="J21" s="5">
         <f t="shared" si="0"/>
         <v>0.58836060654131916</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>23743</v>
       </c>
       <c r="E22">
         <v>0.68472965350499171</v>
       </c>
-      <c r="G22" s="5">
+      <c r="H22" s="5">
         <v>0.113721240145972</v>
       </c>
-      <c r="H22" s="6">
+      <c r="I22" s="6">
         <v>2.4832538795436E-5</v>
       </c>
-      <c r="I22" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="0"/>
         <v>0.49832257419703557</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23833</v>
       </c>
       <c r="E23">
         <v>0.75715019105815129</v>
       </c>
-      <c r="G23" s="5">
+      <c r="H23" s="5">
         <v>0.40777354009377897</v>
       </c>
-      <c r="H23" s="6">
+      <c r="I23" s="6">
         <v>2.1593809796448402E-5</v>
       </c>
-      <c r="I23" s="5">
+      <c r="J23" s="5">
         <f t="shared" si="0"/>
         <v>0.46469140078603133</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23924</v>
       </c>
       <c r="E24">
         <v>0.76707807713963838</v>
       </c>
-      <c r="G24" s="5">
+      <c r="H24" s="5">
         <v>0.14492537703182201</v>
       </c>
-      <c r="H24" s="6">
+      <c r="I24" s="6">
         <v>2.1078578959002299E-5</v>
       </c>
-      <c r="I24" s="5">
+      <c r="J24" s="5">
         <f t="shared" si="0"/>
         <v>0.45911413568961584</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24016</v>
       </c>
       <c r="E25">
         <v>0.76944434091235936</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H25" s="5">
         <v>0.10011503020040299</v>
       </c>
-      <c r="H25" s="6">
+      <c r="I25" s="6">
         <v>1.8845748229026399E-5</v>
       </c>
-      <c r="I25" s="5">
+      <c r="J25" s="5">
         <f t="shared" si="0"/>
         <v>0.43411689933733744</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24108</v>
       </c>
       <c r="E26">
         <v>0.81022271373503096</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H26" s="5">
         <v>0.22553827247963801</v>
       </c>
-      <c r="H26" s="6">
+      <c r="I26" s="6">
         <v>1.9785228071719599E-5</v>
       </c>
-      <c r="I26" s="5">
+      <c r="J26" s="5">
         <f t="shared" si="0"/>
         <v>0.44480589105495894</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>24198</v>
       </c>
       <c r="E27">
         <v>0.90409985369729906</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H27" s="5">
         <v>0.44420477774088102</v>
       </c>
-      <c r="H27" s="6">
+      <c r="I27" s="6">
         <v>2.02940671782072E-5</v>
       </c>
-      <c r="I27" s="5">
+      <c r="J27" s="5">
         <f t="shared" si="0"/>
         <v>0.45048936922204053</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>24289</v>
       </c>
       <c r="E28">
         <v>0.93575675143301906</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H28" s="5">
         <v>0.90692137500787895</v>
       </c>
-      <c r="H28" s="6">
+      <c r="I28" s="6">
         <v>2.9492754744356299E-5</v>
       </c>
-      <c r="I28" s="5">
+      <c r="J28" s="5">
         <f t="shared" si="0"/>
         <v>0.54307232247976234</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>24381</v>
       </c>
       <c r="E29">
         <v>0.92591143844063939</v>
       </c>
-      <c r="G29" s="5">
+      <c r="H29" s="5">
         <v>0.63341005878266099</v>
       </c>
-      <c r="H29" s="6">
+      <c r="I29" s="6">
         <v>5.3621999417849999E-5</v>
       </c>
-      <c r="I29" s="5">
+      <c r="J29" s="5">
         <f t="shared" si="0"/>
         <v>0.7322704378701218</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>24473</v>
       </c>
       <c r="E30">
         <v>0.94202526996339608</v>
       </c>
-      <c r="G30" s="5">
+      <c r="H30" s="5">
         <v>0.26530989197612798</v>
       </c>
-      <c r="H30" s="6">
+      <c r="I30" s="6">
         <v>7.9200352652229996E-5</v>
       </c>
-      <c r="I30" s="5">
+      <c r="J30" s="5">
         <f t="shared" si="0"/>
         <v>0.88994579976664867</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>24563</v>
       </c>
       <c r="E31">
         <v>0.88483432111155969</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="5">
         <v>0.43719008870922299</v>
       </c>
-      <c r="H31" s="6">
+      <c r="I31" s="6">
         <v>6.8458678113653799E-5</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="5">
         <f t="shared" si="0"/>
         <v>0.82739759555883285</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>24654</v>
       </c>
       <c r="E32">
         <v>0.8657829575956496</v>
       </c>
-      <c r="G32" s="5">
+      <c r="H32" s="5">
         <v>0.15301709949887399</v>
       </c>
-      <c r="H32" s="6">
+      <c r="I32" s="6">
         <v>4.7575348310333901E-5</v>
       </c>
-      <c r="I32" s="5">
+      <c r="J32" s="5">
         <f t="shared" si="0"/>
         <v>0.68974885509389505</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>24746</v>
       </c>
       <c r="E33">
         <v>0.87210284981374364</v>
       </c>
-      <c r="G33" s="5">
+      <c r="H33" s="5">
         <v>0.27611613791506301</v>
       </c>
-      <c r="H33" s="6">
+      <c r="I33" s="6">
         <v>3.2810220128127199E-5</v>
       </c>
-      <c r="I33" s="5">
+      <c r="J33" s="5">
         <f t="shared" si="0"/>
         <v>0.5728020611705863</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>24838</v>
       </c>
       <c r="E34">
         <v>0.91040937170767611</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>0.44482313473995599</v>
       </c>
-      <c r="H34" s="6">
+      <c r="I34" s="6">
         <v>2.7449001111661999E-5</v>
       </c>
-      <c r="I34" s="5">
+      <c r="J34" s="5">
         <f t="shared" si="0"/>
         <v>0.52391794311382389</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>24929</v>
       </c>
       <c r="E35">
         <v>0.92729826063968368</v>
       </c>
-      <c r="G35" s="5">
+      <c r="H35" s="5">
         <v>0.491873816437435</v>
       </c>
-      <c r="H35" s="6">
+      <c r="I35" s="6">
         <v>2.6106595700610602E-5</v>
       </c>
-      <c r="I35" s="5">
+      <c r="J35" s="5">
         <f t="shared" si="0"/>
         <v>0.51094613904608976</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>25020</v>
       </c>
       <c r="E36">
         <v>0.87506488054621767</v>
       </c>
-      <c r="G36" s="5">
+      <c r="H36" s="5">
         <v>0.25793367226168201</v>
       </c>
-      <c r="H36" s="6">
+      <c r="I36" s="6">
         <v>2.12391531973719E-5</v>
       </c>
-      <c r="I36" s="5">
+      <c r="J36" s="5">
         <f t="shared" si="0"/>
         <v>0.46085955775454956</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>25112</v>
       </c>
       <c r="E37">
         <v>0.89512518959162357</v>
       </c>
-      <c r="G37" s="5">
+      <c r="H37" s="5">
         <v>0.163496293259182</v>
       </c>
-      <c r="H37" s="6">
+      <c r="I37" s="6">
         <v>1.7812178389531101E-5</v>
       </c>
-      <c r="I37" s="5">
+      <c r="J37" s="5">
         <f t="shared" si="0"/>
         <v>0.42204476527414836</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>25204</v>
       </c>
       <c r="E38">
         <v>0.93590122262537623</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <v>0.29049863993138098</v>
       </c>
-      <c r="H38" s="6">
+      <c r="I38" s="6">
         <v>3.3334492002904702E-5</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <f t="shared" si="0"/>
         <v>0.57736030347526235</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>25294</v>
       </c>
       <c r="E39">
         <v>0.99897693127282094</v>
       </c>
-      <c r="G39" s="5">
+      <c r="H39" s="5">
         <v>0.27628285321711399</v>
       </c>
-      <c r="H39" s="6">
+      <c r="I39" s="6">
         <v>2.9438897745293901E-5</v>
       </c>
-      <c r="I39" s="5">
+      <c r="J39" s="5">
         <f t="shared" si="0"/>
         <v>0.54257624114306646</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>25385</v>
       </c>
       <c r="E40">
         <v>1.0503935231872632</v>
       </c>
-      <c r="G40" s="5">
+      <c r="H40" s="5">
         <v>0.66031070838293304</v>
       </c>
-      <c r="H40" s="6">
+      <c r="I40" s="6">
         <v>4.2460965975667697E-5</v>
       </c>
-      <c r="I40" s="5">
+      <c r="J40" s="5">
         <f t="shared" si="0"/>
         <v>0.65162079444771936</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>25477</v>
       </c>
       <c r="E41">
         <v>1.0706170010347267</v>
       </c>
-      <c r="G41" s="5">
+      <c r="H41" s="5">
         <v>0.371786143379772</v>
       </c>
-      <c r="H41" s="6">
+      <c r="I41" s="6">
         <v>9.5790997573335802E-5</v>
       </c>
-      <c r="I41" s="5">
+      <c r="J41" s="5">
         <f t="shared" si="0"/>
         <v>0.978728754933336</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>25569</v>
       </c>
       <c r="E42">
         <v>1.1256497422272498</v>
       </c>
-      <c r="G42" s="5">
+      <c r="H42" s="5">
         <v>0.51382843551497404</v>
       </c>
-      <c r="H42" s="6">
+      <c r="I42" s="6">
         <v>8.0710221958363396E-5</v>
       </c>
-      <c r="I42" s="5">
+      <c r="J42" s="5">
         <f t="shared" si="0"/>
         <v>0.89838867957228508</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>25659</v>
       </c>
       <c r="E43">
         <v>1.1959001564004634</v>
       </c>
-      <c r="G43" s="5">
+      <c r="H43" s="5">
         <v>1.90299827733899</v>
       </c>
-      <c r="H43" s="6">
+      <c r="I43" s="6">
         <v>6.3329918496620303E-5</v>
       </c>
-      <c r="I43" s="5">
+      <c r="J43" s="5">
         <f t="shared" si="0"/>
         <v>0.79580097069946021</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>25750</v>
       </c>
       <c r="E44">
         <v>1.08344935132007</v>
       </c>
-      <c r="G44" s="5">
+      <c r="H44" s="5">
         <v>0.77551817295168302</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>1.09669750858267E-4</v>
       </c>
-      <c r="I44" s="5">
+      <c r="J44" s="5">
         <f t="shared" si="0"/>
         <v>1.0472332636918433</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>25842</v>
       </c>
       <c r="E45">
         <v>1.0145923418167446</v>
       </c>
-      <c r="G45" s="5">
+      <c r="H45" s="5">
         <v>0.38828698110959498</v>
       </c>
-      <c r="H45" s="6">
+      <c r="I45" s="6">
         <v>5.0415052266905299E-5</v>
       </c>
-      <c r="I45" s="5">
+      <c r="J45" s="5">
         <f t="shared" si="0"/>
         <v>0.71003557845297649</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>25934</v>
       </c>
@@ -2035,18 +2042,18 @@
       <c r="E46">
         <v>0.93198731010910729</v>
       </c>
-      <c r="G46" s="5">
+      <c r="H46" s="5">
         <v>0.23962727343114601</v>
       </c>
-      <c r="H46" s="6">
+      <c r="I46" s="6">
         <v>3.6162807707463003E-5</v>
       </c>
-      <c r="I46" s="5">
+      <c r="J46" s="5">
         <f t="shared" si="0"/>
         <v>0.60135520042203849</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>26024</v>
       </c>
@@ -2059,18 +2066,18 @@
       <c r="E47">
         <v>0.88701960375894007</v>
       </c>
-      <c r="G47" s="5">
+      <c r="H47" s="5">
         <v>0.270726204753369</v>
       </c>
-      <c r="H47" s="6">
+      <c r="I47" s="6">
         <v>3.69553911313991E-5</v>
       </c>
-      <c r="I47" s="5">
+      <c r="J47" s="5">
         <f t="shared" si="0"/>
         <v>0.607909459799723</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>26115</v>
       </c>
@@ -2083,18 +2090,18 @@
       <c r="E48">
         <v>0.89604926396509355</v>
       </c>
-      <c r="G48" s="5">
+      <c r="H48" s="5">
         <v>0.55848022367945604</v>
       </c>
-      <c r="H48" s="6">
+      <c r="I48" s="6">
         <v>2.4927497551655699E-5</v>
       </c>
-      <c r="I48" s="5">
+      <c r="J48" s="5">
         <f t="shared" si="0"/>
         <v>0.49927444909243751</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>26207</v>
       </c>
@@ -2107,18 +2114,18 @@
       <c r="E49">
         <v>0.90785708001562726</v>
       </c>
-      <c r="G49" s="5">
+      <c r="H49" s="5">
         <v>0.57338516543255302</v>
       </c>
-      <c r="H49" s="6">
+      <c r="I49" s="6">
         <v>1.71734307440463E-5</v>
       </c>
-      <c r="I49" s="5">
+      <c r="J49" s="5">
         <f t="shared" si="0"/>
         <v>0.41440838244473654</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>26299</v>
       </c>
@@ -2131,18 +2138,18 @@
       <c r="E50">
         <v>0.83228751573073101</v>
       </c>
-      <c r="G50" s="5">
+      <c r="H50" s="5">
         <v>0.20876542528108</v>
       </c>
-      <c r="H50" s="6">
+      <c r="I50" s="6">
         <v>1.9242238481304399E-5</v>
       </c>
-      <c r="I50" s="5">
+      <c r="J50" s="5">
         <f t="shared" si="0"/>
         <v>0.43865975973759436</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>26390</v>
       </c>
@@ -2155,18 +2162,18 @@
       <c r="E51">
         <v>0.79496624850179654</v>
       </c>
-      <c r="G51" s="5">
+      <c r="H51" s="5">
         <v>0.23842318887723801</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="6">
         <v>2.4754405394934199E-5</v>
       </c>
-      <c r="I51" s="5">
+      <c r="J51" s="5">
         <f t="shared" si="0"/>
         <v>0.49753799246825564</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>26481</v>
       </c>
@@ -2179,18 +2186,18 @@
       <c r="E52">
         <v>0.81988371119871539</v>
       </c>
-      <c r="G52" s="5">
+      <c r="H52" s="5">
         <v>0.26408858522948297</v>
       </c>
-      <c r="H52" s="6">
+      <c r="I52" s="6">
         <v>1.8260360286194001E-5</v>
       </c>
-      <c r="I52" s="5">
+      <c r="J52" s="5">
         <f t="shared" si="0"/>
         <v>0.42732142803976025</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>26573</v>
       </c>
@@ -2203,18 +2210,18 @@
       <c r="E53">
         <v>0.87706552803346571</v>
       </c>
-      <c r="G53" s="5">
+      <c r="H53" s="5">
         <v>0.30506867404939703</v>
       </c>
-      <c r="H53" s="6">
+      <c r="I53" s="6">
         <v>1.7218324867067899E-5</v>
       </c>
-      <c r="I53" s="5">
+      <c r="J53" s="5">
         <f t="shared" si="0"/>
         <v>0.41494969414457816</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>26665</v>
       </c>
@@ -2230,18 +2237,22 @@
       <c r="F54">
         <v>0.42755845234265799</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54">
+        <f>+SQRT((E54-AVERAGE($F$54:$F$241))^2)</f>
+        <v>0.95537980478670237</v>
+      </c>
+      <c r="H54" s="5">
         <v>0.53934689774693401</v>
       </c>
-      <c r="H54" s="6">
+      <c r="I54" s="6">
         <v>2.9581796324687801E-5</v>
       </c>
-      <c r="I54" s="5">
+      <c r="J54" s="5">
         <f t="shared" si="0"/>
         <v>0.54389149951702509</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>26755</v>
       </c>
@@ -2257,18 +2268,22 @@
       <c r="F55">
         <v>0.28951679639213301</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55">
+        <f t="shared" ref="G55:G118" si="1">+SQRT((E55-AVERAGE($F$54:$F$241))^2)</f>
+        <v>1.042351999780714</v>
+      </c>
+      <c r="H55" s="5">
         <v>1.07218083377065</v>
       </c>
-      <c r="H55" s="6">
+      <c r="I55" s="6">
         <v>3.2641167803379097E-5</v>
       </c>
-      <c r="I55" s="5">
+      <c r="J55" s="5">
         <f t="shared" si="0"/>
         <v>0.57132449451584955</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>26846</v>
       </c>
@@ -2284,18 +2299,22 @@
       <c r="F56">
         <v>-2.4120774116153602E-2</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>1.1402419012739773</v>
+      </c>
+      <c r="H56" s="5">
         <v>0.61549493864655602</v>
       </c>
-      <c r="H56" s="6">
+      <c r="I56" s="6">
         <v>2.4705945043586801E-5</v>
       </c>
-      <c r="I56" s="5">
+      <c r="J56" s="5">
         <f t="shared" si="0"/>
         <v>0.49705075237431035</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>26938</v>
       </c>
@@ -2311,18 +2330,22 @@
       <c r="F57">
         <v>-0.468788187507997</v>
       </c>
-      <c r="G57" s="5">
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1.2203620170429239</v>
+      </c>
+      <c r="H57" s="5">
         <v>1.7353340768557199</v>
       </c>
-      <c r="H57" s="6">
+      <c r="I57" s="6">
         <v>5.7114995466532199E-5</v>
       </c>
-      <c r="I57" s="5">
+      <c r="J57" s="5">
         <f t="shared" si="0"/>
         <v>0.75574463588259888</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>27030</v>
       </c>
@@ -2338,18 +2361,22 @@
       <c r="F58">
         <v>-0.75425821204770405</v>
       </c>
-      <c r="G58" s="5">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>1.0940063943662972</v>
+      </c>
+      <c r="H58" s="5">
         <v>1.1306292254496</v>
       </c>
-      <c r="H58" s="6">
+      <c r="I58" s="6">
         <v>6.2130994289258E-5</v>
       </c>
-      <c r="I58" s="5">
+      <c r="J58" s="5">
         <f t="shared" si="0"/>
         <v>0.78823216306655486</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>27120</v>
       </c>
@@ -2365,18 +2392,22 @@
       <c r="F59">
         <v>-0.42219460180995899</v>
       </c>
-      <c r="G59" s="5">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>1.1007326986455674</v>
+      </c>
+      <c r="H59" s="5">
         <v>0.97310077303438103</v>
       </c>
-      <c r="H59" s="6">
+      <c r="I59" s="6">
         <v>6.6878942038432605E-5</v>
       </c>
-      <c r="I59" s="5">
+      <c r="J59" s="5">
         <f t="shared" si="0"/>
         <v>0.81779546366088762</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27211</v>
       </c>
@@ -2392,18 +2423,22 @@
       <c r="F60">
         <v>-1.29550205760366</v>
       </c>
-      <c r="G60" s="5">
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>1.2161945229687008</v>
+      </c>
+      <c r="H60" s="5">
         <v>2.74055402506005</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>1.1388829213297201E-4</v>
       </c>
-      <c r="I60" s="5">
+      <c r="J60" s="5">
         <f t="shared" si="0"/>
         <v>1.0671845769733181</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>27303</v>
       </c>
@@ -2419,18 +2454,22 @@
       <c r="F61">
         <v>-1.64270054457615</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>1.290614595072114</v>
+      </c>
+      <c r="H61" s="5">
         <v>2.69091519663578</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>2.4736228473924498E-4</v>
       </c>
-      <c r="I61" s="5">
+      <c r="J61" s="5">
         <f t="shared" si="0"/>
         <v>1.5727755235228105</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>27395</v>
       </c>
@@ -2446,18 +2485,22 @@
       <c r="F62">
         <v>-0.71936668250771796</v>
       </c>
-      <c r="G62" s="5">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>1.2335409968191673</v>
+      </c>
+      <c r="H62" s="5">
         <v>1.37768186573263</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>1.74514464004318E-4</v>
       </c>
-      <c r="I62" s="5">
+      <c r="J62" s="5">
         <f t="shared" si="0"/>
         <v>1.3210392272915972</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>27485</v>
       </c>
@@ -2473,18 +2516,22 @@
       <c r="F63">
         <v>3.2436098368793097E-2</v>
       </c>
-      <c r="G63" s="5">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>1.0410410673758772</v>
+      </c>
+      <c r="H63" s="5">
         <v>0.84971989750402299</v>
       </c>
-      <c r="H63" s="6">
+      <c r="I63" s="6">
         <v>6.8722848126720503E-5</v>
       </c>
-      <c r="I63" s="5">
+      <c r="J63" s="5">
         <f t="shared" si="0"/>
         <v>0.82899244946332606</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>27576</v>
       </c>
@@ -2500,18 +2547,22 @@
       <c r="F64">
         <v>0.41517319330012098</v>
       </c>
-      <c r="G64" s="5">
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0.96583742492731406</v>
+      </c>
+      <c r="H64" s="5">
         <v>0.92099849058007499</v>
       </c>
-      <c r="H64" s="6">
+      <c r="I64" s="6">
         <v>2.8845500880230801E-5</v>
       </c>
-      <c r="I64" s="5">
+      <c r="J64" s="5">
         <f t="shared" si="0"/>
         <v>0.53708007671324764</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>27668</v>
       </c>
@@ -2527,18 +2578,22 @@
       <c r="F65">
         <v>0.59481346894158604</v>
       </c>
-      <c r="G65" s="5">
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0.94887646497298639</v>
+      </c>
+      <c r="H65" s="5">
         <v>0.66971882192511301</v>
       </c>
-      <c r="H65" s="6">
+      <c r="I65" s="6">
         <v>1.9595520106080299E-5</v>
       </c>
-      <c r="I65" s="5">
+      <c r="J65" s="5">
         <f t="shared" si="0"/>
         <v>0.44266827428764649</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>27760</v>
       </c>
@@ -2554,18 +2609,22 @@
       <c r="F66">
         <v>0.79123737943568095</v>
       </c>
-      <c r="G66" s="5">
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>0.94362174575601365</v>
+      </c>
+      <c r="H66" s="5">
         <v>0.70480043948911797</v>
       </c>
-      <c r="H66" s="6">
+      <c r="I66" s="6">
         <v>2.0434574891271701E-5</v>
       </c>
-      <c r="I66" s="5">
+      <c r="J66" s="5">
         <f t="shared" si="0"/>
         <v>0.45204618006650271</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>27851</v>
       </c>
@@ -2581,18 +2640,22 @@
       <c r="F67">
         <v>0.57707821380611701</v>
       </c>
-      <c r="G67" s="5">
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>0.79279744005854913</v>
+      </c>
+      <c r="H67" s="5">
         <v>0.46205610207457098</v>
       </c>
-      <c r="H67" s="6">
+      <c r="I67" s="6">
         <v>1.9982904915325899E-5</v>
       </c>
-      <c r="I67" s="5">
-        <f t="shared" ref="I67:I130" si="1">+H67^0.5*100</f>
+      <c r="J67" s="5">
+        <f t="shared" ref="J67:J130" si="2">+I67^0.5*100</f>
         <v>0.44702242578338169</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>27942</v>
       </c>
@@ -2608,18 +2671,22 @@
       <c r="F68">
         <v>0.371131568993672</v>
       </c>
-      <c r="G68" s="5">
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0.73583511809334068</v>
+      </c>
+      <c r="H68" s="5">
         <v>0.33056224128564698</v>
       </c>
-      <c r="H68" s="6">
+      <c r="I68" s="6">
         <v>1.9244389275124499E-5</v>
       </c>
-      <c r="I68" s="5">
-        <f t="shared" si="1"/>
+      <c r="J68" s="5">
+        <f t="shared" si="2"/>
         <v>0.43868427456571196</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>28034</v>
       </c>
@@ -2635,18 +2702,22 @@
       <c r="F69">
         <v>0.20388087190811</v>
       </c>
-      <c r="G69" s="5">
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>0.75420617346366636</v>
+      </c>
+      <c r="H69" s="5">
         <v>0.47082835324269101</v>
       </c>
-      <c r="H69" s="6">
+      <c r="I69" s="6">
         <v>3.30398158537725E-5</v>
       </c>
-      <c r="I69" s="5">
-        <f t="shared" si="1"/>
+      <c r="J69" s="5">
+        <f t="shared" si="2"/>
         <v>0.57480271270908689</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>28126</v>
       </c>
@@ -2662,18 +2733,22 @@
       <c r="F70">
         <v>0.30525281735356002</v>
       </c>
-      <c r="G70" s="5">
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0.71932196978930196</v>
+      </c>
+      <c r="H70" s="5">
         <v>0.27032917932806799</v>
       </c>
-      <c r="H70" s="6">
+      <c r="I70" s="6">
         <v>2.1757736509427399E-5</v>
       </c>
-      <c r="I70" s="5">
-        <f t="shared" si="1"/>
+      <c r="J70" s="5">
+        <f t="shared" si="2"/>
         <v>0.46645188936724652</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>28216</v>
       </c>
@@ -2689,18 +2764,22 @@
       <c r="F71">
         <v>3.1739899219840897E-2</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>0.70867593696501374</v>
+      </c>
+      <c r="H71" s="5">
         <v>0.34707815370077999</v>
       </c>
-      <c r="H71" s="6">
+      <c r="I71" s="6">
         <v>2.26742742176289E-5</v>
       </c>
-      <c r="I71" s="5">
-        <f t="shared" si="1"/>
+      <c r="J71" s="5">
+        <f t="shared" si="2"/>
         <v>0.47617511713264588</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>28307</v>
       </c>
@@ -2716,18 +2795,22 @@
       <c r="F72">
         <v>-2.848296532399E-2</v>
       </c>
-      <c r="G72" s="5">
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>0.72508604063328774</v>
+      </c>
+      <c r="H72" s="5">
         <v>0.26140486740777302</v>
       </c>
-      <c r="H72" s="6">
+      <c r="I72" s="6">
         <v>2.3867479475939201E-5</v>
       </c>
-      <c r="I72" s="5">
-        <f t="shared" si="1"/>
+      <c r="J72" s="5">
+        <f t="shared" si="2"/>
         <v>0.48854354438411318</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>28399</v>
       </c>
@@ -2743,18 +2826,22 @@
       <c r="F73">
         <v>0.111730498932089</v>
       </c>
-      <c r="G73" s="5">
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>0.77985109913893669</v>
+      </c>
+      <c r="H73" s="5">
         <v>0.434744836359514</v>
       </c>
-      <c r="H73" s="6">
+      <c r="I73" s="6">
         <v>5.1968219023338401E-5</v>
       </c>
-      <c r="I73" s="5">
-        <f t="shared" si="1"/>
+      <c r="J73" s="5">
+        <f t="shared" si="2"/>
         <v>0.72088985998790689</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>28491</v>
       </c>
@@ -2770,18 +2857,22 @@
       <c r="F74">
         <v>-0.10282952063315</v>
       </c>
-      <c r="G74" s="5">
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>0.81518199286426263</v>
+      </c>
+      <c r="H74" s="5">
         <v>0.35595132086575298</v>
       </c>
-      <c r="H74" s="6">
+      <c r="I74" s="6">
         <v>2.9541783096890201E-5</v>
       </c>
-      <c r="I74" s="5">
-        <f t="shared" si="1"/>
+      <c r="J74" s="5">
+        <f t="shared" si="2"/>
         <v>0.54352353304056855</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>28581</v>
       </c>
@@ -2797,18 +2888,22 @@
       <c r="F75">
         <v>0.29311187161042102</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>0.86575403839212972</v>
+      </c>
+      <c r="H75" s="5">
         <v>0.59892258357550199</v>
       </c>
-      <c r="H75" s="6">
+      <c r="I75" s="6">
         <v>2.5095048623270299E-5</v>
       </c>
-      <c r="I75" s="5">
-        <f t="shared" si="1"/>
+      <c r="J75" s="5">
+        <f t="shared" si="2"/>
         <v>0.50094958452193872</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>28672</v>
       </c>
@@ -2824,18 +2919,22 @@
       <c r="F76">
         <v>0.292529514924387</v>
       </c>
-      <c r="G76" s="5">
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>0.97398144317960611</v>
+      </c>
+      <c r="H76" s="5">
         <v>0.442451555297177</v>
       </c>
-      <c r="H76" s="6">
+      <c r="I76" s="6">
         <v>2.0369485889857999E-5</v>
       </c>
-      <c r="I76" s="5">
-        <f t="shared" si="1"/>
+      <c r="J76" s="5">
+        <f t="shared" si="2"/>
         <v>0.45132566833560439</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>28764</v>
       </c>
@@ -2851,18 +2950,22 @@
       <c r="F77">
         <v>0.106283796341093</v>
       </c>
-      <c r="G77" s="5">
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>1.0622136169154306</v>
+      </c>
+      <c r="H77" s="5">
         <v>1.09836704113831</v>
       </c>
-      <c r="H77" s="6">
+      <c r="I77" s="6">
         <v>3.1766781723783497E-5</v>
       </c>
-      <c r="I77" s="5">
-        <f t="shared" si="1"/>
+      <c r="J77" s="5">
+        <f t="shared" si="2"/>
         <v>0.5636202775254231</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>28856</v>
       </c>
@@ -2878,18 +2981,22 @@
       <c r="F78">
         <v>-7.1016781057240699E-2</v>
       </c>
-      <c r="G78" s="5">
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>0.95716082954246073</v>
+      </c>
+      <c r="H78" s="5">
         <v>0.41504858139594603</v>
       </c>
-      <c r="H78" s="6">
+      <c r="I78" s="6">
         <v>5.2935021527813102E-5</v>
       </c>
-      <c r="I78" s="5">
-        <f t="shared" si="1"/>
+      <c r="J78" s="5">
+        <f t="shared" si="2"/>
         <v>0.72756457808096386</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>28946</v>
       </c>
@@ -2905,18 +3012,22 @@
       <c r="F79">
         <v>-0.153071942662137</v>
       </c>
-      <c r="G79" s="5">
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>0.89536703551159336</v>
+      </c>
+      <c r="H79" s="5">
         <v>0.33970798054150703</v>
       </c>
-      <c r="H79" s="6">
+      <c r="I79" s="6">
         <v>5.9982435886369597E-5</v>
       </c>
-      <c r="I79" s="5">
-        <f t="shared" si="1"/>
+      <c r="J79" s="5">
+        <f t="shared" si="2"/>
         <v>0.77448328507702213</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>29037</v>
       </c>
@@ -2932,18 +3043,22 @@
       <c r="F80">
         <v>-0.50165452194161997</v>
       </c>
-      <c r="G80" s="5">
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>0.94204221284545242</v>
+      </c>
+      <c r="H80" s="5">
         <v>0.38723907724095002</v>
       </c>
-      <c r="H80" s="6">
+      <c r="I80" s="6">
         <v>5.3784579307329197E-5</v>
       </c>
-      <c r="I80" s="5">
-        <f t="shared" si="1"/>
+      <c r="J80" s="5">
+        <f t="shared" si="2"/>
         <v>0.73337970593226265</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>29129</v>
       </c>
@@ -2959,18 +3074,22 @@
       <c r="F81">
         <v>-0.41543635831360998</v>
       </c>
-      <c r="G81" s="5">
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>1.0371518998476441</v>
+      </c>
+      <c r="H81" s="5">
         <v>0.72374231013958901</v>
       </c>
-      <c r="H81" s="6">
+      <c r="I81" s="6">
         <v>3.8509173518504402E-5</v>
       </c>
-      <c r="I81" s="5">
-        <f t="shared" si="1"/>
+      <c r="J81" s="5">
+        <f t="shared" si="2"/>
         <v>0.62055760021535789</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>29221</v>
       </c>
@@ -2986,18 +3105,22 @@
       <c r="F82">
         <v>-0.18947586795220001</v>
       </c>
-      <c r="G82" s="5">
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>1.0976862529178972</v>
+      </c>
+      <c r="H82" s="5">
         <v>1.34479489086193</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>1.1426137343044401E-4</v>
       </c>
-      <c r="I82" s="5">
-        <f t="shared" si="1"/>
+      <c r="J82" s="5">
+        <f t="shared" si="2"/>
         <v>1.0689311176612084</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>29312</v>
       </c>
@@ -3013,18 +3136,22 @@
       <c r="F83">
         <v>-1.2284855660802001</v>
       </c>
-      <c r="G83" s="5">
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>1.0189614823883772</v>
+      </c>
+      <c r="H83" s="5">
         <v>0.88453010058437997</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>1.44229265309909E-4</v>
       </c>
-      <c r="I83" s="5">
-        <f t="shared" si="1"/>
+      <c r="J83" s="5">
+        <f t="shared" si="2"/>
         <v>1.2009548921999902</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>29403</v>
       </c>
@@ -3040,18 +3167,22 @@
       <c r="F84">
         <v>0.39544366399695302</v>
       </c>
-      <c r="G84" s="5">
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>0.91296977579983363</v>
+      </c>
+      <c r="H84" s="5">
         <v>0.89320166845257798</v>
       </c>
-      <c r="H84" s="6">
+      <c r="I84" s="6">
         <v>4.3703215237345699E-5</v>
       </c>
-      <c r="I84" s="5">
-        <f t="shared" si="1"/>
+      <c r="J84" s="5">
+        <f t="shared" si="2"/>
         <v>0.66108407360445232</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>29495</v>
       </c>
@@ -3067,18 +3198,22 @@
       <c r="F85">
         <v>0.28201123568608699</v>
       </c>
-      <c r="G85" s="5">
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>0.87750380580417242</v>
+      </c>
+      <c r="H85" s="5">
         <v>1.2005304519941999</v>
       </c>
-      <c r="H85" s="6">
+      <c r="I85" s="6">
         <v>4.9794437685672602E-5</v>
       </c>
-      <c r="I85" s="5">
-        <f t="shared" si="1"/>
+      <c r="J85" s="5">
+        <f t="shared" si="2"/>
         <v>0.70565173907298351</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>29587</v>
       </c>
@@ -3094,18 +3229,22 @@
       <c r="F86">
         <v>-0.27882536098905297</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>0.84979561167963247</v>
+      </c>
+      <c r="H86" s="5">
         <v>0.84015061094798105</v>
       </c>
-      <c r="H86" s="6">
+      <c r="I86" s="6">
         <v>5.4325931612988297E-5</v>
       </c>
-      <c r="I86" s="5">
-        <f t="shared" si="1"/>
+      <c r="J86" s="5">
+        <f t="shared" si="2"/>
         <v>0.73706127026854618</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>29677</v>
       </c>
@@ -3121,18 +3260,22 @@
       <c r="F87">
         <v>-9.1275394443398702E-2</v>
       </c>
-      <c r="G87" s="5">
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>0.83111802205206498</v>
+      </c>
+      <c r="H87" s="5">
         <v>0.43783482949441999</v>
       </c>
-      <c r="H87" s="6">
+      <c r="I87" s="6">
         <v>3.40775552569271E-5</v>
       </c>
-      <c r="I87" s="5">
-        <f t="shared" si="1"/>
+      <c r="J87" s="5">
+        <f t="shared" si="2"/>
         <v>0.58375984151812887</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>29768</v>
       </c>
@@ -3148,18 +3291,22 @@
       <c r="F88">
         <v>-0.29940338284125401</v>
       </c>
-      <c r="G88" s="5">
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>0.88084194993564402</v>
+      </c>
+      <c r="H88" s="5">
         <v>0.89473603837467897</v>
       </c>
-      <c r="H88" s="6">
+      <c r="I88" s="6">
         <v>8.0884917507002604E-5</v>
       </c>
-      <c r="I88" s="5">
-        <f t="shared" si="1"/>
+      <c r="J88" s="5">
+        <f t="shared" si="2"/>
         <v>0.89936042556364792</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>29860</v>
       </c>
@@ -3175,18 +3322,22 @@
       <c r="F89">
         <v>-0.76092437326426599</v>
       </c>
-      <c r="G89" s="5">
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>0.85618741757967576</v>
+      </c>
+      <c r="H89" s="5">
         <v>0.69747903735097205</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>1.2689769848821399E-4</v>
       </c>
-      <c r="I89" s="5">
-        <f t="shared" si="1"/>
+      <c r="J89" s="5">
+        <f t="shared" si="2"/>
         <v>1.126488785954898</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>29952</v>
       </c>
@@ -3202,18 +3353,22 @@
       <c r="F90">
         <v>-0.52578214698516801</v>
       </c>
-      <c r="G90" s="5">
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>0.82780896455688413</v>
+      </c>
+      <c r="H90" s="5">
         <v>1.0099520993806399</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>1.17023712184672E-4</v>
       </c>
-      <c r="I90" s="5">
-        <f t="shared" si="1"/>
+      <c r="J90" s="5">
+        <f t="shared" si="2"/>
         <v>1.0817749866985833</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>30042</v>
       </c>
@@ -3229,18 +3384,22 @@
       <c r="F91">
         <v>-0.57725029588118804</v>
       </c>
-      <c r="G91" s="5">
+      <c r="G91">
+        <f t="shared" si="1"/>
+        <v>0.8577612597662303</v>
+      </c>
+      <c r="H91" s="5">
         <v>0.56891437053334704</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>1.08654668150243E-4</v>
       </c>
-      <c r="I91" s="5">
-        <f t="shared" si="1"/>
+      <c r="J91" s="5">
+        <f t="shared" si="2"/>
         <v>1.0423754992815353</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>30133</v>
       </c>
@@ -3256,18 +3415,22 @@
       <c r="F92">
         <v>-0.48868373014420602</v>
       </c>
-      <c r="G92" s="5">
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>0.94669387313193443</v>
+      </c>
+      <c r="H92" s="5">
         <v>1.45472119798789</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>1.10219122553654E-4</v>
       </c>
-      <c r="I92" s="5">
-        <f t="shared" si="1"/>
+      <c r="J92" s="5">
+        <f t="shared" si="2"/>
         <v>1.049852954244803</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>30225</v>
       </c>
@@ -3283,18 +3446,22 @@
       <c r="F93">
         <v>7.1514713740872607E-2</v>
       </c>
-      <c r="G93" s="5">
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>0.9539458190450153</v>
+      </c>
+      <c r="H93" s="5">
         <v>2.1848612736800201</v>
       </c>
-      <c r="H93" s="6">
+      <c r="I93" s="6">
         <v>8.6121787714270396E-5</v>
       </c>
-      <c r="I93" s="5">
-        <f t="shared" si="1"/>
+      <c r="J93" s="5">
+        <f t="shared" si="2"/>
         <v>0.92801825259135073</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>30317</v>
       </c>
@@ -3310,18 +3477,22 @@
       <c r="F94">
         <v>0.65805557391838099</v>
       </c>
-      <c r="G94" s="5">
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>0.87108668012683965</v>
+      </c>
+      <c r="H94" s="5">
         <v>1.0715139895756001</v>
       </c>
-      <c r="H94" s="6">
+      <c r="I94" s="6">
         <v>4.1384850318939903E-5</v>
       </c>
-      <c r="I94" s="5">
-        <f t="shared" si="1"/>
+      <c r="J94" s="5">
+        <f t="shared" si="2"/>
         <v>0.64331058066022739</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>30407</v>
       </c>
@@ -3337,18 +3508,22 @@
       <c r="F95">
         <v>1.00077192590842</v>
       </c>
-      <c r="G95" s="5">
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>0.83559676563348706</v>
+      </c>
+      <c r="H95" s="5">
         <v>0.61306739170787306</v>
       </c>
-      <c r="H95" s="6">
+      <c r="I95" s="6">
         <v>2.11259816603365E-5</v>
       </c>
-      <c r="I95" s="5">
-        <f t="shared" si="1"/>
+      <c r="J95" s="5">
+        <f t="shared" si="2"/>
         <v>0.45963008670382427</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>30498</v>
       </c>
@@ -3364,18 +3539,22 @@
       <c r="F96">
         <v>0.61495595946576898</v>
       </c>
-      <c r="G96" s="5">
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>0.80385459223238109</v>
+      </c>
+      <c r="H96" s="5">
         <v>0.73916425524835105</v>
       </c>
-      <c r="H96" s="6">
+      <c r="I96" s="6">
         <v>1.8230606980688401E-5</v>
       </c>
-      <c r="I96" s="5">
-        <f t="shared" si="1"/>
+      <c r="J96" s="5">
+        <f t="shared" si="2"/>
         <v>0.42697314881252663</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>30590</v>
       </c>
@@ -3391,18 +3570,22 @@
       <c r="F97">
         <v>0.40860363194384097</v>
       </c>
-      <c r="G97" s="5">
+      <c r="G97">
+        <f t="shared" si="1"/>
+        <v>0.80616057509804673</v>
+      </c>
+      <c r="H97" s="5">
         <v>0.39365837638298001</v>
       </c>
-      <c r="H97" s="6">
+      <c r="I97" s="6">
         <v>1.8284972545862101E-5</v>
       </c>
-      <c r="I97" s="5">
-        <f t="shared" si="1"/>
+      <c r="J97" s="5">
+        <f t="shared" si="2"/>
         <v>0.42760931404568475</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>30682</v>
       </c>
@@ -3418,18 +3601,22 @@
       <c r="F98">
         <v>0.49649255635758699</v>
       </c>
-      <c r="G98" s="5">
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>0.81546178216400578</v>
+      </c>
+      <c r="H98" s="5">
         <v>0.66164681706173301</v>
       </c>
-      <c r="H98" s="6">
+      <c r="I98" s="6">
         <v>1.8982014423513201E-5</v>
       </c>
-      <c r="I98" s="5">
-        <f t="shared" si="1"/>
+      <c r="J98" s="5">
+        <f t="shared" si="2"/>
         <v>0.43568353679606947</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>30773</v>
       </c>
@@ -3445,18 +3632,22 @@
       <c r="F99">
         <v>-7.5834099699337507E-2</v>
       </c>
-      <c r="G99" s="5">
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>0.84589023322518009</v>
+      </c>
+      <c r="H99" s="5">
         <v>0.57749374289307698</v>
       </c>
-      <c r="H99" s="6">
+      <c r="I99" s="6">
         <v>2.03344619209647E-5</v>
       </c>
-      <c r="I99" s="5">
-        <f t="shared" si="1"/>
+      <c r="J99" s="5">
+        <f t="shared" si="2"/>
         <v>0.45093748924839572</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>30864</v>
       </c>
@@ -3472,18 +3663,22 @@
       <c r="F100">
         <v>-7.9353318526753702E-2</v>
       </c>
-      <c r="G100" s="5">
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>0.8843660125166658</v>
+      </c>
+      <c r="H100" s="5">
         <v>0.773058932606694</v>
       </c>
-      <c r="H100" s="6">
+      <c r="I100" s="6">
         <v>3.2533738711750998E-5</v>
       </c>
-      <c r="I100" s="5">
-        <f t="shared" si="1"/>
+      <c r="J100" s="5">
+        <f t="shared" si="2"/>
         <v>0.57038354386983325</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>30956</v>
       </c>
@@ -3499,18 +3694,22 @@
       <c r="F101">
         <v>-9.5053024504323805E-2</v>
       </c>
-      <c r="G101" s="5">
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>0.81527215830030098</v>
+      </c>
+      <c r="H101" s="5">
         <v>0.541948731602647</v>
       </c>
-      <c r="H101" s="6">
+      <c r="I101" s="6">
         <v>2.83756377105343E-5</v>
       </c>
-      <c r="I101" s="5">
-        <f t="shared" si="1"/>
+      <c r="J101" s="5">
+        <f t="shared" si="2"/>
         <v>0.53268787963059849</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>31048</v>
       </c>
@@ -3529,18 +3728,22 @@
       <c r="F102">
         <v>7.1713221486902803E-2</v>
       </c>
-      <c r="G102" s="5">
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>0.78831670526490871</v>
+      </c>
+      <c r="H102" s="5">
         <v>0.50846865850036305</v>
       </c>
-      <c r="H102" s="6">
+      <c r="I102" s="6">
         <v>2.6065147816009401E-5</v>
       </c>
-      <c r="I102" s="5">
-        <f t="shared" si="1"/>
+      <c r="J102" s="5">
+        <f t="shared" si="2"/>
         <v>0.51054037857949497</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>31138</v>
       </c>
@@ -3559,18 +3762,22 @@
       <c r="F103">
         <v>0.212861387850556</v>
       </c>
-      <c r="G103" s="5">
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>0.73920179125385665</v>
+      </c>
+      <c r="H103" s="5">
         <v>0.321909850454421</v>
       </c>
-      <c r="H103" s="6">
+      <c r="I103" s="6">
         <v>3.3566883729180197E-5</v>
       </c>
-      <c r="I103" s="5">
-        <f t="shared" si="1"/>
+      <c r="J103" s="5">
+        <f t="shared" si="2"/>
         <v>0.57936934445291621</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>31229</v>
       </c>
@@ -3589,18 +3796,22 @@
       <c r="F104">
         <v>0.32858271573272901</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>0.75996517635134664</v>
+      </c>
+      <c r="H104" s="5">
         <v>0.35258431306756499</v>
       </c>
-      <c r="H104" s="6">
+      <c r="I104" s="6">
         <v>2.8790759742950799E-5</v>
       </c>
-      <c r="I104" s="5">
-        <f t="shared" si="1"/>
+      <c r="J104" s="5">
+        <f t="shared" si="2"/>
         <v>0.5365702166813846</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>31321</v>
       </c>
@@ -3619,18 +3830,22 @@
       <c r="F105">
         <v>0.20792735318560299</v>
       </c>
-      <c r="G105" s="5">
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>0.8068042263098727</v>
+      </c>
+      <c r="H105" s="5">
         <v>0.47764407353107502</v>
       </c>
-      <c r="H105" s="6">
+      <c r="I105" s="6">
         <v>2.6938390345098399E-5</v>
       </c>
-      <c r="I105" s="5">
-        <f t="shared" si="1"/>
+      <c r="J105" s="5">
+        <f t="shared" si="2"/>
         <v>0.5190220645126602</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>31413</v>
       </c>
@@ -3649,18 +3864,22 @@
       <c r="F106">
         <v>0.51260223597383103</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>0.8426918151941678</v>
+      </c>
+      <c r="H106" s="5">
         <v>0.71767580713463797</v>
       </c>
-      <c r="H106" s="6">
+      <c r="I106" s="6">
         <v>5.2210297960240001E-5</v>
       </c>
-      <c r="I106" s="5">
-        <f t="shared" si="1"/>
+      <c r="J106" s="5">
+        <f t="shared" si="2"/>
         <v>0.72256693780050585</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>31503</v>
       </c>
@@ -3679,18 +3898,22 @@
       <c r="F107">
         <v>0.53547983738932603</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>0.88681653805088645</v>
+      </c>
+      <c r="H107" s="5">
         <v>0.84712019094134094</v>
       </c>
-      <c r="H107" s="6">
+      <c r="I107" s="6">
         <v>4.1566003791413101E-5</v>
       </c>
-      <c r="I107" s="5">
-        <f t="shared" si="1"/>
+      <c r="J107" s="5">
+        <f t="shared" si="2"/>
         <v>0.64471702157933675</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>31594</v>
       </c>
@@ -3709,18 +3932,22 @@
       <c r="F108">
         <v>0.51065499276120496</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>0.98734587017519615</v>
+      </c>
+      <c r="H108" s="5">
         <v>1.25746517552152</v>
       </c>
-      <c r="H108" s="6">
+      <c r="I108" s="6">
         <v>2.34860601222394E-5</v>
       </c>
-      <c r="I108" s="5">
-        <f t="shared" si="1"/>
+      <c r="J108" s="5">
+        <f t="shared" si="2"/>
         <v>0.48462418555246911</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>31686</v>
       </c>
@@ -3739,18 +3966,22 @@
       <c r="F109">
         <v>0.25652992568495098</v>
       </c>
-      <c r="G109" s="5">
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>0.9802300126423974</v>
+      </c>
+      <c r="H109" s="5">
         <v>0.62236155560210504</v>
       </c>
-      <c r="H109" s="6">
+      <c r="I109" s="6">
         <v>2.3621007766670898E-5</v>
       </c>
-      <c r="I109" s="5">
-        <f t="shared" si="1"/>
+      <c r="J109" s="5">
+        <f t="shared" si="2"/>
         <v>0.48601448298040356</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>31778</v>
       </c>
@@ -3769,18 +4000,22 @@
       <c r="F110">
         <v>0.45992250666837398</v>
       </c>
-      <c r="G110" s="5">
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>0.98250743707604105</v>
+      </c>
+      <c r="H110" s="5">
         <v>0.93854195558397702</v>
       </c>
-      <c r="H110" s="6">
+      <c r="I110" s="6">
         <v>1.9499337616317601E-5</v>
       </c>
-      <c r="I110" s="5">
-        <f t="shared" si="1"/>
+      <c r="J110" s="5">
+        <f t="shared" si="2"/>
         <v>0.44158054323438667</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>31868</v>
       </c>
@@ -3799,18 +4034,22 @@
       <c r="F111">
         <v>0.70329845917897504</v>
       </c>
-      <c r="G111" s="5">
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>0.95998126256359684</v>
+      </c>
+      <c r="H111" s="5">
         <v>1.2322002811660899</v>
       </c>
-      <c r="H111" s="6">
+      <c r="I111" s="6">
         <v>1.52336468687013E-5</v>
       </c>
-      <c r="I111" s="5">
-        <f t="shared" si="1"/>
+      <c r="J111" s="5">
+        <f t="shared" si="2"/>
         <v>0.39030304724279696</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>31959</v>
       </c>
@@ -3829,18 +4068,22 @@
       <c r="F112">
         <v>0.65174580642155899</v>
       </c>
-      <c r="G112" s="5">
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>1.1394488759686106</v>
+      </c>
+      <c r="H112" s="5">
         <v>0.79790009520636296</v>
       </c>
-      <c r="H112" s="6">
+      <c r="I112" s="6">
         <v>1.4666946831224699E-5</v>
       </c>
-      <c r="I112" s="5">
-        <f t="shared" si="1"/>
+      <c r="J112" s="5">
+        <f t="shared" si="2"/>
         <v>0.38297450086428336</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>32051</v>
       </c>
@@ -3859,18 +4102,22 @@
       <c r="F113">
         <v>0.428399157733384</v>
       </c>
-      <c r="G113" s="5">
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>1.2954182078602341</v>
+      </c>
+      <c r="H113" s="5">
         <v>14.860658924159299</v>
       </c>
-      <c r="H113" s="6">
+      <c r="I113" s="6">
         <v>1.7964255520805401E-5</v>
       </c>
-      <c r="I113" s="5">
-        <f t="shared" si="1"/>
+      <c r="J113" s="5">
+        <f t="shared" si="2"/>
         <v>0.42384260664550227</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>32143</v>
       </c>
@@ -3889,18 +4136,22 @@
       <c r="F114">
         <v>0.27038519837836</v>
       </c>
-      <c r="G114" s="5">
+      <c r="G114">
+        <f t="shared" si="1"/>
+        <v>0.98028728195947812</v>
+      </c>
+      <c r="H114" s="5">
         <v>2.0715010579322799</v>
       </c>
-      <c r="H114" s="6">
+      <c r="I114" s="6">
         <v>2.0448381399058801E-5</v>
       </c>
-      <c r="I114" s="5">
-        <f t="shared" si="1"/>
+      <c r="J114" s="5">
+        <f t="shared" si="2"/>
         <v>0.45219886553438854</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>32234</v>
       </c>
@@ -3919,18 +4170,22 @@
       <c r="F115">
         <v>5.3496026863033203E-2</v>
       </c>
-      <c r="G115" s="5">
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>0.83127935284751375</v>
+      </c>
+      <c r="H115" s="5">
         <v>1.33297741530976</v>
       </c>
-      <c r="H115" s="6">
+      <c r="I115" s="6">
         <v>2.2473745102781002E-5</v>
       </c>
-      <c r="I115" s="5">
-        <f t="shared" si="1"/>
+      <c r="J115" s="5">
+        <f t="shared" si="2"/>
         <v>0.47406481732755701</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>32325</v>
       </c>
@@ -3938,7 +4193,7 @@
         <v>0.1932707142857143</v>
       </c>
       <c r="C116">
-        <v>93.298171997070312</v>
+        <v>93.298171997070313</v>
       </c>
       <c r="D116" s="4">
         <v>0</v>
@@ -3949,18 +4204,22 @@
       <c r="F116">
         <v>-0.14850538176471201</v>
       </c>
-      <c r="G116" s="5">
+      <c r="G116">
+        <f t="shared" si="1"/>
+        <v>0.75889598003197811</v>
+      </c>
+      <c r="H116" s="5">
         <v>0.69984511971030505</v>
       </c>
-      <c r="H116" s="6">
+      <c r="I116" s="6">
         <v>2.8188588287732901E-5</v>
       </c>
-      <c r="I116" s="5">
-        <f t="shared" si="1"/>
+      <c r="J116" s="5">
+        <f t="shared" si="2"/>
         <v>0.53092926353453995</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>32417</v>
       </c>
@@ -3979,18 +4238,22 @@
       <c r="F117">
         <v>0.440855517488631</v>
       </c>
-      <c r="G117" s="5">
+      <c r="G117">
+        <f t="shared" si="1"/>
+        <v>0.73200357993274268</v>
+      </c>
+      <c r="H117" s="5">
         <v>0.57208077715185501</v>
       </c>
-      <c r="H117" s="6">
+      <c r="I117" s="6">
         <v>2.4586441165904099E-5</v>
       </c>
-      <c r="I117" s="5">
-        <f t="shared" si="1"/>
+      <c r="J117" s="5">
+        <f t="shared" si="2"/>
         <v>0.49584716562570064</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>32509</v>
       </c>
@@ -4009,18 +4272,22 @@
       <c r="F118">
         <v>6.6335704689612807E-2</v>
       </c>
-      <c r="G118" s="5">
+      <c r="G118">
+        <f t="shared" si="1"/>
+        <v>0.72585997919797007</v>
+      </c>
+      <c r="H118" s="5">
         <v>0.55441355161498995</v>
       </c>
-      <c r="H118" s="6">
+      <c r="I118" s="6">
         <v>3.7372238168005799E-5</v>
       </c>
-      <c r="I118" s="5">
-        <f t="shared" si="1"/>
+      <c r="J118" s="5">
+        <f t="shared" si="2"/>
         <v>0.61132837467277601</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>32599</v>
       </c>
@@ -4039,18 +4306,22 @@
       <c r="F119">
         <v>-0.111677627692261</v>
       </c>
-      <c r="G119" s="5">
+      <c r="G119">
+        <f t="shared" ref="G119:G182" si="3">+SQRT((E119-AVERAGE($F$54:$F$241))^2)</f>
+        <v>0.73543334530241866</v>
+      </c>
+      <c r="H119" s="5">
         <v>0.53756461191222804</v>
       </c>
-      <c r="H119" s="6">
+      <c r="I119" s="6">
         <v>5.3574473762756502E-5</v>
       </c>
-      <c r="I119" s="5">
-        <f t="shared" si="1"/>
+      <c r="J119" s="5">
+        <f t="shared" si="2"/>
         <v>0.73194585703285808</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>32690</v>
       </c>
@@ -4069,18 +4340,22 @@
       <c r="F120">
         <v>0.24515233295651301</v>
       </c>
-      <c r="G120" s="5">
+      <c r="G120">
+        <f t="shared" si="3"/>
+        <v>0.76647318052699509</v>
+      </c>
+      <c r="H120" s="5">
         <v>0.465742529056552</v>
       </c>
-      <c r="H120" s="6">
+      <c r="I120" s="6">
         <v>4.7451367098009302E-5</v>
       </c>
-      <c r="I120" s="5">
-        <f t="shared" si="1"/>
+      <c r="J120" s="5">
+        <f t="shared" si="2"/>
         <v>0.68884952709578962</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>32782</v>
       </c>
@@ -4099,18 +4374,22 @@
       <c r="F121">
         <v>0.19518619570253201</v>
       </c>
-      <c r="G121" s="5">
+      <c r="G121">
+        <f t="shared" si="3"/>
+        <v>0.8202517242739531</v>
+      </c>
+      <c r="H121" s="5">
         <v>1.2088515531273301</v>
       </c>
-      <c r="H121" s="6">
+      <c r="I121" s="6">
         <v>3.3851612943812098E-5</v>
       </c>
-      <c r="I121" s="5">
-        <f t="shared" si="1"/>
+      <c r="J121" s="5">
+        <f t="shared" si="2"/>
         <v>0.58182138963613306</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>32874</v>
       </c>
@@ -4118,7 +4397,7 @@
         <v>-3.3628461538461538E-2</v>
       </c>
       <c r="C122">
-        <v>92.005142211914062</v>
+        <v>92.005142211914063</v>
       </c>
       <c r="D122" s="4">
         <v>0</v>
@@ -4129,18 +4408,22 @@
       <c r="F122">
         <v>5.2232684075582403E-2</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122">
+        <f t="shared" si="3"/>
+        <v>0.88378284745462077</v>
+      </c>
+      <c r="H122" s="5">
         <v>0.78657201083131201</v>
       </c>
-      <c r="H122" s="6">
+      <c r="I122" s="6">
         <v>2.65956168636072E-5</v>
       </c>
-      <c r="I122" s="5">
-        <f t="shared" si="1"/>
+      <c r="J122" s="5">
+        <f t="shared" si="2"/>
         <v>0.51570938389375076</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>32964</v>
       </c>
@@ -4159,18 +4442,22 @@
       <c r="F123">
         <v>-4.2742160364423201E-2</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123">
+        <f t="shared" si="3"/>
+        <v>0.94173374104012608</v>
+      </c>
+      <c r="H123" s="5">
         <v>0.582081755938746</v>
       </c>
-      <c r="H123" s="6">
+      <c r="I123" s="6">
         <v>2.3585960316305099E-5</v>
       </c>
-      <c r="I123" s="5">
-        <f t="shared" si="1"/>
+      <c r="J123" s="5">
+        <f t="shared" si="2"/>
         <v>0.48565378940460352</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>33055</v>
       </c>
@@ -4189,18 +4476,22 @@
       <c r="F124">
         <v>-0.53516158046080498</v>
       </c>
-      <c r="G124" s="5">
+      <c r="G124">
+        <f t="shared" si="3"/>
+        <v>1.0397318783419172</v>
+      </c>
+      <c r="H124" s="5">
         <v>1.4588692164963799</v>
       </c>
-      <c r="H124" s="6">
+      <c r="I124" s="6">
         <v>5.15044119371508E-5</v>
       </c>
-      <c r="I124" s="5">
-        <f t="shared" si="1"/>
+      <c r="J124" s="5">
+        <f t="shared" si="2"/>
         <v>0.71766574348474232</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>33147</v>
       </c>
@@ -4219,18 +4510,22 @@
       <c r="F125">
         <v>-1.1751474729589799</v>
       </c>
-      <c r="G125" s="5">
+      <c r="G125">
+        <f t="shared" si="3"/>
+        <v>0.98400575753945041</v>
+      </c>
+      <c r="H125" s="5">
         <v>1.2022003168567501</v>
       </c>
-      <c r="H125" s="6">
+      <c r="I125" s="6">
         <v>8.6567857873555301E-5</v>
       </c>
-      <c r="I125" s="5">
-        <f t="shared" si="1"/>
+      <c r="J125" s="5">
+        <f t="shared" si="2"/>
         <v>0.93041849655708853</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>33239</v>
       </c>
@@ -4249,18 +4544,22 @@
       <c r="F126">
         <v>-0.44984121629962998</v>
       </c>
-      <c r="G126" s="5">
+      <c r="G126">
+        <f t="shared" si="3"/>
+        <v>0.92631091975212543</v>
+      </c>
+      <c r="H126" s="5">
         <v>1.1330094607815</v>
       </c>
-      <c r="H126" s="6">
+      <c r="I126" s="6">
         <v>6.2222862621390403E-5</v>
       </c>
-      <c r="I126" s="5">
-        <f t="shared" si="1"/>
+      <c r="J126" s="5">
+        <f t="shared" si="2"/>
         <v>0.78881469700678375</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>33329</v>
       </c>
@@ -4279,18 +4578,22 @@
       <c r="F127">
         <v>0.16974144943076599</v>
       </c>
-      <c r="G127" s="5">
+      <c r="G127">
+        <f t="shared" si="3"/>
+        <v>0.85592717630400938</v>
+      </c>
+      <c r="H127" s="5">
         <v>0.75643673709968995</v>
       </c>
-      <c r="H127" s="6">
+      <c r="I127" s="6">
         <v>2.0659478034463999E-5</v>
       </c>
-      <c r="I127" s="5">
-        <f t="shared" si="1"/>
+      <c r="J127" s="5">
+        <f t="shared" si="2"/>
         <v>0.45452698527660601</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>33420</v>
       </c>
@@ -4309,18 +4612,22 @@
       <c r="F128">
         <v>9.2446111385263194E-2</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128">
+        <f t="shared" si="3"/>
+        <v>0.82357523546234179</v>
+      </c>
+      <c r="H128" s="5">
         <v>0.56204847753520903</v>
       </c>
-      <c r="H128" s="6">
+      <c r="I128" s="6">
         <v>2.0281355916948801E-5</v>
       </c>
-      <c r="I128" s="5">
-        <f t="shared" si="1"/>
+      <c r="J128" s="5">
+        <f t="shared" si="2"/>
         <v>0.4503482643127294</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>33512</v>
       </c>
@@ -4339,18 +4646,22 @@
       <c r="F129">
         <v>5.8285597677267098E-2</v>
       </c>
-      <c r="G129" s="5">
+      <c r="G129">
+        <f t="shared" si="3"/>
+        <v>0.86211270236345139</v>
+      </c>
+      <c r="H129" s="5">
         <v>0.81833071997575002</v>
       </c>
-      <c r="H129" s="6">
+      <c r="I129" s="6">
         <v>4.1274724240573802E-5</v>
       </c>
-      <c r="I129" s="5">
-        <f t="shared" si="1"/>
+      <c r="J129" s="5">
+        <f t="shared" si="2"/>
         <v>0.64245407805207211</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>33604</v>
       </c>
@@ -4369,18 +4680,22 @@
       <c r="F130">
         <v>0.156666641201053</v>
       </c>
-      <c r="G130" s="5">
+      <c r="G130">
+        <f t="shared" si="3"/>
+        <v>0.81787741109580681</v>
+      </c>
+      <c r="H130" s="5">
         <v>0.35767792383469699</v>
       </c>
-      <c r="H130" s="6">
+      <c r="I130" s="6">
         <v>1.6771065723310501E-5</v>
       </c>
-      <c r="I130" s="5">
-        <f t="shared" si="1"/>
+      <c r="J130" s="5">
+        <f t="shared" si="2"/>
         <v>0.40952491649850198</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>33695</v>
       </c>
@@ -4399,18 +4714,22 @@
       <c r="F131">
         <v>0.24940193379629799</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131">
+        <f t="shared" si="3"/>
+        <v>0.75087269231598808</v>
+      </c>
+      <c r="H131" s="5">
         <v>0.49245714778383798</v>
       </c>
-      <c r="H131" s="6">
+      <c r="I131" s="6">
         <v>2.39954894600501E-5</v>
       </c>
-      <c r="I131" s="5">
-        <f t="shared" ref="I131:I194" si="2">+H131^0.5*100</f>
+      <c r="J131" s="5">
+        <f t="shared" ref="J131:J194" si="4">+I131^0.5*100</f>
         <v>0.48985191088787339</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>33786</v>
       </c>
@@ -4429,18 +4748,22 @@
       <c r="F132">
         <v>7.5022615041631102E-2</v>
       </c>
-      <c r="G132" s="5">
+      <c r="G132">
+        <f t="shared" si="3"/>
+        <v>0.72070570095703601</v>
+      </c>
+      <c r="H132" s="5">
         <v>0.33390069977254</v>
       </c>
-      <c r="H132" s="6">
+      <c r="I132" s="6">
         <v>2.3526743870738801E-5</v>
       </c>
-      <c r="I132" s="5">
-        <f t="shared" si="2"/>
+      <c r="J132" s="5">
+        <f t="shared" si="4"/>
         <v>0.48504374927153526</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>33878</v>
       </c>
@@ -4459,18 +4782,22 @@
       <c r="F133">
         <v>4.7131929047304497E-2</v>
       </c>
-      <c r="G133" s="5">
+      <c r="G133">
+        <f t="shared" si="3"/>
+        <v>0.70522385175171864</v>
+      </c>
+      <c r="H133" s="5">
         <v>0.30001582555566098</v>
       </c>
-      <c r="H133" s="6">
+      <c r="I133" s="6">
         <v>1.6568469788045001E-5</v>
       </c>
-      <c r="I133" s="5">
-        <f t="shared" si="2"/>
+      <c r="J133" s="5">
+        <f t="shared" si="4"/>
         <v>0.40704385252752562</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>33970</v>
       </c>
@@ -4489,18 +4816,22 @@
       <c r="F134">
         <v>0.136064927613196</v>
       </c>
-      <c r="G134" s="5">
+      <c r="G134">
+        <f t="shared" si="3"/>
+        <v>0.69225524657345638</v>
+      </c>
+      <c r="H134" s="5">
         <v>0.40346463405490002</v>
       </c>
-      <c r="H134" s="6">
+      <c r="I134" s="6">
         <v>2.34301051091406E-5</v>
       </c>
-      <c r="I134" s="5">
-        <f t="shared" si="2"/>
+      <c r="J134" s="5">
+        <f t="shared" si="4"/>
         <v>0.48404653814628817</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>34060</v>
       </c>
@@ -4519,18 +4850,22 @@
       <c r="F135">
         <v>3.10015009042659E-2</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135">
+        <f t="shared" si="3"/>
+        <v>0.67510133369303238</v>
+      </c>
+      <c r="H135" s="5">
         <v>0.38071678701138101</v>
       </c>
-      <c r="H135" s="6">
+      <c r="I135" s="6">
         <v>2.4344026722086399E-5</v>
       </c>
-      <c r="I135" s="5">
-        <f t="shared" si="2"/>
+      <c r="J135" s="5">
+        <f t="shared" si="4"/>
         <v>0.49339666316348751</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>34151</v>
       </c>
@@ -4549,18 +4884,22 @@
       <c r="F136">
         <v>-2.1338056496061301E-2</v>
       </c>
-      <c r="G136" s="5">
+      <c r="G136">
+        <f t="shared" si="3"/>
+        <v>0.65340153453167005</v>
+      </c>
+      <c r="H136" s="5">
         <v>0.212248093255199</v>
       </c>
-      <c r="H136" s="6">
+      <c r="I136" s="6">
         <v>1.52443558379445E-5</v>
       </c>
-      <c r="I136" s="5">
-        <f t="shared" si="2"/>
+      <c r="J136" s="5">
+        <f t="shared" si="4"/>
         <v>0.39044021101757054</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>34243</v>
       </c>
@@ -4579,18 +4918,22 @@
       <c r="F137">
         <v>0.34740566264401701</v>
       </c>
-      <c r="G137" s="5">
+      <c r="G137">
+        <f t="shared" si="3"/>
+        <v>0.66491582502537072</v>
+      </c>
+      <c r="H137" s="5">
         <v>0.181331799231644</v>
       </c>
-      <c r="H137" s="6">
+      <c r="I137" s="6">
         <v>1.4138858752821601E-5</v>
       </c>
-      <c r="I137" s="5">
-        <f t="shared" si="2"/>
+      <c r="J137" s="5">
+        <f t="shared" si="4"/>
         <v>0.37601673836175964</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>34335</v>
       </c>
@@ -4609,18 +4952,22 @@
       <c r="F138">
         <v>0.418597539617444</v>
       </c>
-      <c r="G138" s="5">
+      <c r="G138">
+        <f t="shared" si="3"/>
+        <v>0.67992282821988004</v>
+      </c>
+      <c r="H138" s="5">
         <v>0.375152409543832</v>
       </c>
-      <c r="H138" s="6">
+      <c r="I138" s="6">
         <v>1.2281656738906601E-5</v>
       </c>
-      <c r="I138" s="5">
-        <f t="shared" si="2"/>
+      <c r="J138" s="5">
+        <f t="shared" si="4"/>
         <v>0.35045194733239249</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>34425</v>
       </c>
@@ -4639,18 +4986,22 @@
       <c r="F139">
         <v>0.46840135222026902</v>
       </c>
-      <c r="G139" s="5">
+      <c r="G139">
+        <f t="shared" si="3"/>
+        <v>0.66639801708362012</v>
+      </c>
+      <c r="H139" s="5">
         <v>0.470353608452106</v>
       </c>
-      <c r="H139" s="6">
+      <c r="I139" s="6">
         <v>1.34563483539456E-5</v>
       </c>
-      <c r="I139" s="5">
-        <f t="shared" si="2"/>
+      <c r="J139" s="5">
+        <f t="shared" si="4"/>
         <v>0.36682895678974964</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>34516</v>
       </c>
@@ -4669,18 +5020,22 @@
       <c r="F140">
         <v>0.41279712449678002</v>
       </c>
-      <c r="G140" s="5">
+      <c r="G140">
+        <f t="shared" si="3"/>
+        <v>0.66286518534343597</v>
+      </c>
+      <c r="H140" s="5">
         <v>0.26374023860660301</v>
       </c>
-      <c r="H140" s="6">
+      <c r="I140" s="6">
         <v>1.2878754259749399E-5</v>
       </c>
-      <c r="I140" s="5">
-        <f t="shared" si="2"/>
+      <c r="J140" s="5">
+        <f t="shared" si="4"/>
         <v>0.35886981288134839</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>34608</v>
       </c>
@@ -4699,18 +5054,22 @@
       <c r="F141">
         <v>0.355005267955191</v>
       </c>
-      <c r="G141" s="5">
+      <c r="G141">
+        <f t="shared" si="3"/>
+        <v>0.66206021010515836</v>
+      </c>
+      <c r="H141" s="5">
         <v>0.42908538111112299</v>
       </c>
-      <c r="H141" s="6">
+      <c r="I141" s="6">
         <v>1.63818109929948E-5</v>
       </c>
-      <c r="I141" s="5">
-        <f t="shared" si="2"/>
+      <c r="J141" s="5">
+        <f t="shared" si="4"/>
         <v>0.40474449956725539</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>34700</v>
       </c>
@@ -4729,18 +5088,22 @@
       <c r="F142">
         <v>0.15493872400893999</v>
       </c>
-      <c r="G142" s="5">
+      <c r="G142">
+        <f t="shared" si="3"/>
+        <v>0.64098220050851074</v>
+      </c>
+      <c r="H142" s="5">
         <v>0.19564553860037001</v>
       </c>
-      <c r="H142" s="6">
+      <c r="I142" s="6">
         <v>2.3585206772355801E-5</v>
       </c>
-      <c r="I142" s="5">
-        <f t="shared" si="2"/>
+      <c r="J142" s="5">
+        <f t="shared" si="4"/>
         <v>0.48564603130629824</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>34790</v>
       </c>
@@ -4759,18 +5122,22 @@
       <c r="F143">
         <v>0.17810180822438801</v>
       </c>
-      <c r="G143" s="5">
+      <c r="G143">
+        <f t="shared" si="3"/>
+        <v>0.64068519580488204</v>
+      </c>
+      <c r="H143" s="5">
         <v>0.31034752613035999</v>
       </c>
-      <c r="H143" s="6">
+      <c r="I143" s="6">
         <v>2.4066663800038001E-5</v>
       </c>
-      <c r="I143" s="5">
-        <f t="shared" si="2"/>
+      <c r="J143" s="5">
+        <f t="shared" si="4"/>
         <v>0.49057786130274983</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>34881</v>
       </c>
@@ -4789,18 +5156,22 @@
       <c r="F144">
         <v>0.20764391075489699</v>
       </c>
-      <c r="G144" s="5">
+      <c r="G144">
+        <f t="shared" si="3"/>
+        <v>0.66484972154646593</v>
+      </c>
+      <c r="H144" s="5">
         <v>0.215470767561564</v>
       </c>
-      <c r="H144" s="6">
+      <c r="I144" s="6">
         <v>2.0955230386373399E-5</v>
       </c>
-      <c r="I144" s="5">
-        <f t="shared" si="2"/>
+      <c r="J144" s="5">
+        <f t="shared" si="4"/>
         <v>0.45776883234197363</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>34973</v>
       </c>
@@ -4819,18 +5190,22 @@
       <c r="F145">
         <v>0.18357254253812799</v>
       </c>
-      <c r="G145" s="5">
+      <c r="G145">
+        <f t="shared" si="3"/>
+        <v>0.67810607003030166</v>
+      </c>
+      <c r="H145" s="5">
         <v>0.29434986499543297</v>
       </c>
-      <c r="H145" s="6">
+      <c r="I145" s="6">
         <v>2.6222304950467399E-5</v>
       </c>
-      <c r="I145" s="5">
-        <f t="shared" si="2"/>
+      <c r="J145" s="5">
+        <f t="shared" si="4"/>
         <v>0.51207719096311444</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>35065</v>
       </c>
@@ -4849,18 +5224,22 @@
       <c r="F146">
         <v>0.194536444453524</v>
       </c>
-      <c r="G146" s="5">
+      <c r="G146">
+        <f t="shared" si="3"/>
+        <v>0.66920458904123215</v>
+      </c>
+      <c r="H146" s="5">
         <v>0.70073662438059403</v>
       </c>
-      <c r="H146" s="6">
+      <c r="I146" s="6">
         <v>2.4696400432333602E-5</v>
       </c>
-      <c r="I146" s="5">
-        <f t="shared" si="2"/>
+      <c r="J146" s="5">
+        <f t="shared" si="4"/>
         <v>0.49695473065797047</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>35156</v>
       </c>
@@ -4879,18 +5258,22 @@
       <c r="F147">
         <v>0.27008482718332699</v>
       </c>
-      <c r="G147" s="5">
+      <c r="G147">
+        <f t="shared" si="3"/>
+        <v>0.72749547519125446</v>
+      </c>
+      <c r="H147" s="5">
         <v>0.39766976817120198</v>
       </c>
-      <c r="H147" s="6">
+      <c r="I147" s="6">
         <v>1.9365836834785398E-5</v>
       </c>
-      <c r="I147" s="5">
-        <f t="shared" si="2"/>
+      <c r="J147" s="5">
+        <f t="shared" si="4"/>
         <v>0.44006632266949719</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>35247</v>
       </c>
@@ -4909,18 +5292,22 @@
       <c r="F148">
         <v>0.198883329112339</v>
       </c>
-      <c r="G148" s="5">
+      <c r="G148">
+        <f t="shared" si="3"/>
+        <v>0.7820688387693957</v>
+      </c>
+      <c r="H148" s="5">
         <v>0.65281900158675299</v>
       </c>
-      <c r="H148" s="6">
+      <c r="I148" s="6">
         <v>1.89093987288227E-5</v>
       </c>
-      <c r="I148" s="5">
-        <f t="shared" si="2"/>
+      <c r="J148" s="5">
+        <f t="shared" si="4"/>
         <v>0.43484938460141226</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>35339</v>
       </c>
@@ -4939,18 +5326,22 @@
       <c r="F149">
         <v>0.32641394822979602</v>
       </c>
-      <c r="G149" s="5">
+      <c r="G149">
+        <f t="shared" si="3"/>
+        <v>0.77389514088008804</v>
+      </c>
+      <c r="H149" s="5">
         <v>0.47038507584466399</v>
       </c>
-      <c r="H149" s="6">
+      <c r="I149" s="6">
         <v>1.6199512231211401E-5</v>
       </c>
-      <c r="I149" s="5">
-        <f t="shared" si="2"/>
+      <c r="J149" s="5">
+        <f t="shared" si="4"/>
         <v>0.40248617654785862</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>35431</v>
       </c>
@@ -4969,18 +5360,22 @@
       <c r="F150">
         <v>0.35883232093420703</v>
       </c>
-      <c r="G150" s="5">
+      <c r="G150">
+        <f t="shared" si="3"/>
+        <v>0.80474414521918103</v>
+      </c>
+      <c r="H150" s="5">
         <v>0.79433706175074903</v>
       </c>
-      <c r="H150" s="6">
+      <c r="I150" s="6">
         <v>1.7088769486633801E-5</v>
       </c>
-      <c r="I150" s="5">
-        <f t="shared" si="2"/>
+      <c r="J150" s="5">
+        <f t="shared" si="4"/>
         <v>0.41338564908126407</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>35521</v>
       </c>
@@ -4999,18 +5394,22 @@
       <c r="F151">
         <v>0.424640606041781</v>
       </c>
-      <c r="G151" s="5">
+      <c r="G151">
+        <f t="shared" si="3"/>
+        <v>0.86223200107715803</v>
+      </c>
+      <c r="H151" s="5">
         <v>1.08667031406304</v>
       </c>
-      <c r="H151" s="6">
+      <c r="I151" s="6">
         <v>1.48487876376181E-5</v>
       </c>
-      <c r="I151" s="5">
-        <f t="shared" si="2"/>
+      <c r="J151" s="5">
+        <f t="shared" si="4"/>
         <v>0.38534124665831065</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>35612</v>
       </c>
@@ -5029,18 +5428,22 @@
       <c r="F152">
         <v>0.58106439383888098</v>
       </c>
-      <c r="G152" s="5">
+      <c r="G152">
+        <f t="shared" si="3"/>
+        <v>0.88133752012630784</v>
+      </c>
+      <c r="H152" s="5">
         <v>1.10336053102259</v>
       </c>
-      <c r="H152" s="6">
+      <c r="I152" s="6">
         <v>1.40124990985315E-5</v>
       </c>
-      <c r="I152" s="5">
-        <f t="shared" si="2"/>
+      <c r="J152" s="5">
+        <f t="shared" si="4"/>
         <v>0.37433272764389036</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>35704</v>
       </c>
@@ -5059,18 +5462,22 @@
       <c r="F153">
         <v>0.25519478039326299</v>
       </c>
-      <c r="G153" s="5">
+      <c r="G153">
+        <f t="shared" si="3"/>
+        <v>0.87071513390186206</v>
+      </c>
+      <c r="H153" s="5">
         <v>2.2598800845540299</v>
       </c>
-      <c r="H153" s="6">
+      <c r="I153" s="6">
         <v>1.7571375763721999E-5</v>
       </c>
-      <c r="I153" s="5">
-        <f t="shared" si="2"/>
+      <c r="J153" s="5">
+        <f t="shared" si="4"/>
         <v>0.419182248714351</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>35796</v>
       </c>
@@ -5089,18 +5496,22 @@
       <c r="F154">
         <v>-5.8111019076626299E-3</v>
       </c>
-      <c r="G154" s="5">
+      <c r="G154">
+        <f t="shared" si="3"/>
+        <v>0.89850110228743207</v>
+      </c>
+      <c r="H154" s="5">
         <v>0.76222826190754001</v>
       </c>
-      <c r="H154" s="6">
+      <c r="I154" s="6">
         <v>2.08803674200709E-5</v>
       </c>
-      <c r="I154" s="5">
-        <f t="shared" si="2"/>
+      <c r="J154" s="5">
+        <f t="shared" si="4"/>
         <v>0.45695040671905418</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>35886</v>
       </c>
@@ -5119,18 +5530,22 @@
       <c r="F155">
         <v>0.29231620000199199</v>
       </c>
-      <c r="G155" s="5">
+      <c r="G155">
+        <f t="shared" si="3"/>
+        <v>0.98702729401959577</v>
+      </c>
+      <c r="H155" s="5">
         <v>0.74154121704273701</v>
       </c>
-      <c r="H155" s="6">
+      <c r="I155" s="6">
         <v>4.26318597846688E-5</v>
       </c>
-      <c r="I155" s="5">
-        <f t="shared" si="2"/>
+      <c r="J155" s="5">
+        <f t="shared" si="4"/>
         <v>0.65293077569271307</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>35977</v>
       </c>
@@ -5149,18 +5564,22 @@
       <c r="F156">
         <v>-0.100987756009741</v>
       </c>
-      <c r="G156" s="5">
+      <c r="G156">
+        <f t="shared" si="3"/>
+        <v>1.182886091397144</v>
+      </c>
+      <c r="H156" s="5">
         <v>3.4073850485134298</v>
       </c>
-      <c r="H156" s="6">
+      <c r="I156" s="6">
         <v>3.71613754764863E-5</v>
       </c>
-      <c r="I156" s="5">
-        <f t="shared" si="2"/>
+      <c r="J156" s="5">
+        <f t="shared" si="4"/>
         <v>0.60960130804064305</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>36069</v>
       </c>
@@ -5179,18 +5598,22 @@
       <c r="F157">
         <v>3.5878436265753398E-2</v>
       </c>
-      <c r="G157" s="5">
+      <c r="G157">
+        <f t="shared" si="3"/>
+        <v>1.0422389614493139</v>
+      </c>
+      <c r="H157" s="5">
         <v>1.61120779025856</v>
       </c>
-      <c r="H157" s="6">
+      <c r="I157" s="6">
         <v>2.7056468039657801E-5</v>
       </c>
-      <c r="I157" s="5">
-        <f t="shared" si="2"/>
+      <c r="J157" s="5">
+        <f t="shared" si="4"/>
         <v>0.52015832243325488</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>36161</v>
       </c>
@@ -5209,18 +5632,22 @@
       <c r="F158">
         <v>0.165921409759821</v>
       </c>
-      <c r="G158" s="5">
+      <c r="G158">
+        <f t="shared" si="3"/>
+        <v>0.99525942873547069</v>
+      </c>
+      <c r="H158" s="5">
         <v>1.6387873900664101</v>
       </c>
-      <c r="H158" s="6">
+      <c r="I158" s="6">
         <v>2.1563016877707999E-5</v>
       </c>
-      <c r="I158" s="5">
-        <f t="shared" si="2"/>
+      <c r="J158" s="5">
+        <f t="shared" si="4"/>
         <v>0.4643599560438863</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>36251</v>
       </c>
@@ -5239,18 +5666,22 @@
       <c r="F159">
         <v>0.17110421404582399</v>
       </c>
-      <c r="G159" s="5">
+      <c r="G159">
+        <f t="shared" si="3"/>
+        <v>0.97737440003767717</v>
+      </c>
+      <c r="H159" s="5">
         <v>1.3018622476811299</v>
       </c>
-      <c r="H159" s="6">
+      <c r="I159" s="6">
         <v>2.2275179624081E-5</v>
       </c>
-      <c r="I159" s="5">
-        <f t="shared" si="2"/>
+      <c r="J159" s="5">
+        <f t="shared" si="4"/>
         <v>0.47196588461541372</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>36342</v>
       </c>
@@ -5269,18 +5700,22 @@
       <c r="F160">
         <v>0.50499129455437797</v>
       </c>
-      <c r="G160" s="5">
+      <c r="G160">
+        <f t="shared" si="3"/>
+        <v>0.97243904693858108</v>
+      </c>
+      <c r="H160" s="5">
         <v>1.1019957305152599</v>
       </c>
-      <c r="H160" s="6">
+      <c r="I160" s="6">
         <v>2.7536529927537001E-5</v>
       </c>
-      <c r="I160" s="5">
-        <f t="shared" si="2"/>
+      <c r="J160" s="5">
+        <f t="shared" si="4"/>
         <v>0.52475260768801335</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>36434</v>
       </c>
@@ -5299,18 +5734,22 @@
       <c r="F161">
         <v>0.46147940556269701</v>
       </c>
-      <c r="G161" s="5">
+      <c r="G161">
+        <f t="shared" si="3"/>
+        <v>1.0598513532079972</v>
+      </c>
+      <c r="H161" s="5">
         <v>1.1449742017106499</v>
       </c>
-      <c r="H161" s="6">
+      <c r="I161" s="6">
         <v>2.2350028142033501E-5</v>
       </c>
-      <c r="I161" s="5">
-        <f t="shared" si="2"/>
+      <c r="J161" s="5">
+        <f t="shared" si="4"/>
         <v>0.47275816377968027</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>36526</v>
       </c>
@@ -5329,18 +5768,22 @@
       <c r="F162">
         <v>0.36051301533855701</v>
       </c>
-      <c r="G162" s="5">
+      <c r="G162">
+        <f t="shared" si="3"/>
+        <v>1.1933236981177506</v>
+      </c>
+      <c r="H162" s="5">
         <v>2.35834289427445</v>
       </c>
-      <c r="H162" s="6">
+      <c r="I162" s="6">
         <v>1.93170465561915E-5</v>
       </c>
-      <c r="I162" s="5">
-        <f t="shared" si="2"/>
+      <c r="J162" s="5">
+        <f t="shared" si="4"/>
         <v>0.43951162164602087</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>36617</v>
       </c>
@@ -5359,18 +5802,22 @@
       <c r="F163">
         <v>6.5664850613295703E-2</v>
       </c>
-      <c r="G163" s="5">
+      <c r="G163">
+        <f t="shared" si="3"/>
+        <v>1.1593733104400508</v>
+      </c>
+      <c r="H163" s="5">
         <v>2.47441503204527</v>
       </c>
-      <c r="H163" s="6">
+      <c r="I163" s="6">
         <v>3.1973976199209603E-5</v>
       </c>
-      <c r="I163" s="5">
-        <f t="shared" si="2"/>
+      <c r="J163" s="5">
+        <f t="shared" si="4"/>
         <v>0.56545535808947467</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>36708</v>
       </c>
@@ -5389,18 +5836,22 @@
       <c r="F164">
         <v>3.8377052455377599E-2</v>
       </c>
-      <c r="G164" s="5">
+      <c r="G164">
+        <f t="shared" si="3"/>
+        <v>1.1013125718486605</v>
+      </c>
+      <c r="H164" s="5">
         <v>0.74736815496494902</v>
       </c>
-      <c r="H164" s="6">
+      <c r="I164" s="6">
         <v>4.0947278847290798E-5</v>
       </c>
-      <c r="I164" s="5">
-        <f t="shared" si="2"/>
+      <c r="J164" s="5">
+        <f t="shared" si="4"/>
         <v>0.63990060827671358</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>36800</v>
       </c>
@@ -5419,18 +5870,22 @@
       <c r="F165">
         <v>-0.46435781136092902</v>
       </c>
-      <c r="G165" s="5">
+      <c r="G165">
+        <f t="shared" si="3"/>
+        <v>1.1166479805445038</v>
+      </c>
+      <c r="H165" s="5">
         <v>2.23791316568586</v>
       </c>
-      <c r="H165" s="6">
+      <c r="I165" s="6">
         <v>6.7292154228722206E-5</v>
       </c>
-      <c r="I165" s="5">
-        <f t="shared" si="2"/>
+      <c r="J165" s="5">
+        <f t="shared" si="4"/>
         <v>0.82031795194742763</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>36892</v>
       </c>
@@ -5449,18 +5904,22 @@
       <c r="F166">
         <v>-0.649833597610875</v>
       </c>
-      <c r="G166" s="5">
+      <c r="G166">
+        <f t="shared" si="3"/>
+        <v>1.0957396147070204</v>
+      </c>
+      <c r="H166" s="5">
         <v>2.3655851888780202</v>
       </c>
-      <c r="H166" s="6">
+      <c r="I166" s="6">
         <v>7.8041947441992896E-5</v>
       </c>
-      <c r="I166" s="5">
-        <f t="shared" si="2"/>
+      <c r="J166" s="5">
+        <f t="shared" si="4"/>
         <v>0.88341353533887457</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>36982</v>
       </c>
@@ -5479,18 +5938,22 @@
       <c r="F167">
         <v>-0.467287009907361</v>
       </c>
-      <c r="G167" s="5">
+      <c r="G167">
+        <f t="shared" si="3"/>
+        <v>1.0430286523529706</v>
+      </c>
+      <c r="H167" s="5">
         <v>1.80057515903564</v>
       </c>
-      <c r="H167" s="6">
+      <c r="I167" s="6">
         <v>8.5420627338208594E-5</v>
       </c>
-      <c r="I167" s="5">
-        <f t="shared" si="2"/>
+      <c r="J167" s="5">
+        <f t="shared" si="4"/>
         <v>0.92423280258930751</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>37073</v>
       </c>
@@ -5509,18 +5972,22 @@
       <c r="F168">
         <v>-0.64738053226394698</v>
       </c>
-      <c r="G168" s="5">
+      <c r="G168">
+        <f t="shared" si="3"/>
+        <v>1.1077434393179939</v>
+      </c>
+      <c r="H168" s="5">
         <v>2.10626583895746</v>
       </c>
-      <c r="H168" s="6">
+      <c r="I168" s="6">
         <v>8.3298482711323198E-5</v>
       </c>
-      <c r="I168" s="5">
-        <f t="shared" si="2"/>
+      <c r="J168" s="5">
+        <f t="shared" si="4"/>
         <v>0.91268002449556873</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>37165</v>
       </c>
@@ -5539,18 +6006,22 @@
       <c r="F169">
         <v>-0.681944756810131</v>
       </c>
-      <c r="G169" s="5">
+      <c r="G169">
+        <f t="shared" si="3"/>
+        <v>1.0668639357922873</v>
+      </c>
+      <c r="H169" s="5">
         <v>1.12609480918896</v>
       </c>
-      <c r="H169" s="6">
+      <c r="I169" s="6">
         <v>5.2438454826040601E-5</v>
       </c>
-      <c r="I169" s="5">
-        <f t="shared" si="2"/>
+      <c r="J169" s="5">
+        <f t="shared" si="4"/>
         <v>0.72414401071914281</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>37257</v>
       </c>
@@ -5569,18 +6040,22 @@
       <c r="F170">
         <v>-2.9590227789933001E-2</v>
       </c>
-      <c r="G170" s="5">
+      <c r="G170">
+        <f t="shared" si="3"/>
+        <v>1.0126752030611841</v>
+      </c>
+      <c r="H170" s="5">
         <v>1.13119298133732</v>
       </c>
-      <c r="H170" s="6">
+      <c r="I170" s="6">
         <v>2.0975917914867002E-5</v>
       </c>
-      <c r="I170" s="5">
-        <f t="shared" si="2"/>
+      <c r="J170" s="5">
+        <f t="shared" si="4"/>
         <v>0.45799473703162796</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>37347</v>
       </c>
@@ -5599,18 +6074,22 @@
       <c r="F171">
         <v>8.0688069411284993E-2</v>
       </c>
-      <c r="G171" s="5">
+      <c r="G171">
+        <f t="shared" si="3"/>
+        <v>1.0704053143412571</v>
+      </c>
+      <c r="H171" s="5">
         <v>1.5794374808526499</v>
       </c>
-      <c r="H171" s="6">
+      <c r="I171" s="6">
         <v>1.98123205627008E-5</v>
       </c>
-      <c r="I171" s="5">
-        <f t="shared" si="2"/>
+      <c r="J171" s="5">
+        <f t="shared" si="4"/>
         <v>0.44511032972399994</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>37438</v>
       </c>
@@ -5629,18 +6108,22 @@
       <c r="F172">
         <v>-0.29123475760793199</v>
       </c>
-      <c r="G172" s="5">
+      <c r="G172">
+        <f t="shared" si="3"/>
+        <v>1.1490263685242839</v>
+      </c>
+      <c r="H172" s="5">
         <v>5.0108290137389604</v>
       </c>
-      <c r="H172" s="6">
+      <c r="I172" s="6">
         <v>2.69017174664474E-5</v>
       </c>
-      <c r="I172" s="5">
-        <f t="shared" si="2"/>
+      <c r="J172" s="5">
+        <f t="shared" si="4"/>
         <v>0.51866865594951272</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>37530</v>
       </c>
@@ -5659,18 +6142,22 @@
       <c r="F173">
         <v>-0.37072740676846799</v>
       </c>
-      <c r="G173" s="5">
+      <c r="G173">
+        <f t="shared" si="3"/>
+        <v>1.046815709861614</v>
+      </c>
+      <c r="H173" s="5">
         <v>2.8819602613024502</v>
       </c>
-      <c r="H173" s="6">
+      <c r="I173" s="6">
         <v>3.35673427673596E-5</v>
       </c>
-      <c r="I173" s="5">
-        <f t="shared" si="2"/>
+      <c r="J173" s="5">
+        <f t="shared" si="4"/>
         <v>0.5793733059725793</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>37622</v>
       </c>
@@ -5689,18 +6176,22 @@
       <c r="F174">
         <v>-0.4260286532791</v>
       </c>
-      <c r="G174" s="5">
+      <c r="G174">
+        <f t="shared" si="3"/>
+        <v>0.94137077981806605</v>
+      </c>
+      <c r="H174" s="5">
         <v>2.2679407395522002</v>
       </c>
-      <c r="H174" s="6">
+      <c r="I174" s="6">
         <v>4.7825084887962901E-5</v>
       </c>
-      <c r="I174" s="5">
-        <f t="shared" si="2"/>
+      <c r="J174" s="5">
+        <f t="shared" si="4"/>
         <v>0.69155682982646405</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>37712</v>
       </c>
@@ -5719,18 +6210,22 @@
       <c r="F175">
         <v>-4.0302808585083998E-2</v>
       </c>
-      <c r="G175" s="5">
+      <c r="G175">
+        <f t="shared" si="3"/>
+        <v>0.91474781529634019</v>
+      </c>
+      <c r="H175" s="5">
         <v>1.1492709253154201</v>
       </c>
-      <c r="H175" s="6">
+      <c r="I175" s="6">
         <v>3.5097418846298898E-5</v>
       </c>
-      <c r="I175" s="5">
-        <f t="shared" si="2"/>
+      <c r="J175" s="5">
+        <f t="shared" si="4"/>
         <v>0.59243074571040699</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>37803</v>
       </c>
@@ -5749,18 +6244,22 @@
       <c r="F176">
         <v>0.37389637242458001</v>
       </c>
-      <c r="G176" s="5">
+      <c r="G176">
+        <f t="shared" si="3"/>
+        <v>0.83908142859684831</v>
+      </c>
+      <c r="H176" s="5">
         <v>0.76283369492028297</v>
       </c>
-      <c r="H176" s="6">
+      <c r="I176" s="6">
         <v>2.0413083105105401E-5</v>
       </c>
-      <c r="I176" s="5">
-        <f t="shared" si="2"/>
+      <c r="J176" s="5">
+        <f t="shared" si="4"/>
         <v>0.45180840081947793</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>37895</v>
       </c>
@@ -5779,18 +6278,22 @@
       <c r="F177">
         <v>0.59874443945587696</v>
       </c>
-      <c r="G177" s="5">
+      <c r="G177">
+        <f t="shared" si="3"/>
+        <v>0.79155237051929439</v>
+      </c>
+      <c r="H177" s="5">
         <v>0.499764255595461</v>
       </c>
-      <c r="H177" s="6">
+      <c r="I177" s="6">
         <v>1.6878669619723301E-5</v>
       </c>
-      <c r="I177" s="5">
-        <f t="shared" si="2"/>
+      <c r="J177" s="5">
+        <f t="shared" si="4"/>
         <v>0.4108365808898144</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>37987</v>
       </c>
@@ -5809,18 +6312,22 @@
       <c r="F178">
         <v>0.81905019104847399</v>
       </c>
-      <c r="G178" s="5">
+      <c r="G178">
+        <f t="shared" si="3"/>
+        <v>0.73213517150742202</v>
+      </c>
+      <c r="H178" s="5">
         <v>0.57580095989785496</v>
       </c>
-      <c r="H178" s="6">
+      <c r="I178" s="6">
         <v>2.4213895442853601E-5</v>
       </c>
-      <c r="I178" s="5">
-        <f t="shared" si="2"/>
+      <c r="J178" s="5">
+        <f t="shared" si="4"/>
         <v>0.49207616730394088</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>38078</v>
       </c>
@@ -5839,18 +6346,22 @@
       <c r="F179">
         <v>0.18911142941492101</v>
       </c>
-      <c r="G179" s="5">
+      <c r="G179">
+        <f t="shared" si="3"/>
+        <v>0.73685787255000512</v>
+      </c>
+      <c r="H179" s="5">
         <v>0.48092230816424197</v>
       </c>
-      <c r="H179" s="6">
+      <c r="I179" s="6">
         <v>3.7613327348868702E-5</v>
       </c>
-      <c r="I179" s="5">
-        <f t="shared" si="2"/>
+      <c r="J179" s="5">
+        <f t="shared" si="4"/>
         <v>0.61329705158975534</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>38169</v>
       </c>
@@ -5869,18 +6380,22 @@
       <c r="F180">
         <v>0.215580457146125</v>
       </c>
-      <c r="G180" s="5">
+      <c r="G180">
+        <f t="shared" si="3"/>
+        <v>0.74816671120397404</v>
+      </c>
+      <c r="H180" s="5">
         <v>0.45844245601466899</v>
       </c>
-      <c r="H180" s="6">
+      <c r="I180" s="6">
         <v>2.0735208786582899E-5</v>
       </c>
-      <c r="I180" s="5">
-        <f t="shared" si="2"/>
+      <c r="J180" s="5">
+        <f t="shared" si="4"/>
         <v>0.4553592953545903</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>38261</v>
       </c>
@@ -5899,18 +6414,22 @@
       <c r="F181">
         <v>0.226030332263986</v>
       </c>
-      <c r="G181" s="5">
+      <c r="G181">
+        <f t="shared" si="3"/>
+        <v>0.7596964787265218</v>
+      </c>
+      <c r="H181" s="5">
         <v>0.43776616944204599</v>
       </c>
-      <c r="H181" s="6">
+      <c r="I181" s="6">
         <v>1.3950316061804301E-5</v>
       </c>
-      <c r="I181" s="5">
-        <f t="shared" si="2"/>
+      <c r="J181" s="5">
+        <f t="shared" si="4"/>
         <v>0.37350121903153544</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>38353</v>
       </c>
@@ -5929,18 +6448,22 @@
       <c r="F182">
         <v>0.14657184281364599</v>
       </c>
-      <c r="G182" s="5">
+      <c r="G182">
+        <f t="shared" si="3"/>
+        <v>0.74491860894066941</v>
+      </c>
+      <c r="H182" s="5">
         <v>0.41306876416479299</v>
       </c>
-      <c r="H182" s="6">
+      <c r="I182" s="6">
         <v>2.1304787149011599E-5</v>
       </c>
-      <c r="I182" s="5">
-        <f t="shared" si="2"/>
+      <c r="J182" s="5">
+        <f t="shared" si="4"/>
         <v>0.46157109039682714</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>38443</v>
       </c>
@@ -5959,18 +6482,22 @@
       <c r="F183">
         <v>-6.0858587922729898E-2</v>
       </c>
-      <c r="G183" s="5">
+      <c r="G183">
+        <f t="shared" ref="G183:G241" si="5">+SQRT((E183-AVERAGE($F$54:$F$241))^2)</f>
+        <v>0.73822917803225541</v>
+      </c>
+      <c r="H183" s="5">
         <v>0.50396932548031703</v>
       </c>
-      <c r="H183" s="6">
+      <c r="I183" s="6">
         <v>2.48313394987017E-5</v>
       </c>
-      <c r="I183" s="5">
-        <f t="shared" si="2"/>
+      <c r="J183" s="5">
+        <f t="shared" si="4"/>
         <v>0.49831054071433911</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>38534</v>
       </c>
@@ -5989,18 +6516,22 @@
       <c r="F184">
         <v>-1.44734018153665E-2</v>
       </c>
-      <c r="G184" s="5">
+      <c r="G184">
+        <f t="shared" si="5"/>
+        <v>0.70632437409641446</v>
+      </c>
+      <c r="H184" s="5">
         <v>0.31309033692025001</v>
       </c>
-      <c r="H184" s="6">
+      <c r="I184" s="6">
         <v>5.9754905573544297E-5</v>
       </c>
-      <c r="I184" s="5">
-        <f t="shared" si="2"/>
+      <c r="J184" s="5">
+        <f t="shared" si="4"/>
         <v>0.77301297255314094</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>38626</v>
       </c>
@@ -6019,18 +6550,22 @@
       <c r="F185">
         <v>5.4220799013309201E-2</v>
       </c>
-      <c r="G185" s="5">
+      <c r="G185">
+        <f t="shared" si="5"/>
+        <v>0.70155905598124435</v>
+      </c>
+      <c r="H185" s="5">
         <v>0.44214630740710198</v>
       </c>
-      <c r="H185" s="6">
+      <c r="I185" s="6">
         <v>2.2918418925001601E-5</v>
       </c>
-      <c r="I185" s="5">
-        <f t="shared" si="2"/>
+      <c r="J185" s="5">
+        <f t="shared" si="4"/>
         <v>0.47873185526974915</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>38718</v>
       </c>
@@ -6049,18 +6584,22 @@
       <c r="F186">
         <v>0.43221121101286702</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186">
+        <f t="shared" si="5"/>
+        <v>0.69000641537596008</v>
+      </c>
+      <c r="H186" s="5">
         <v>0.34940044783443602</v>
       </c>
-      <c r="H186" s="6">
+      <c r="I186" s="6">
         <v>1.89336499410889E-5</v>
       </c>
-      <c r="I186" s="5">
-        <f t="shared" si="2"/>
+      <c r="J186" s="5">
+        <f t="shared" si="4"/>
         <v>0.43512814136859618</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>38808</v>
       </c>
@@ -6079,18 +6618,22 @@
       <c r="F187">
         <v>5.8242483365488602E-2</v>
       </c>
-      <c r="G187" s="5">
+      <c r="G187">
+        <f t="shared" si="5"/>
+        <v>0.66919440025610466</v>
+      </c>
+      <c r="H187" s="5">
         <v>0.64076240981872701</v>
       </c>
-      <c r="H187" s="6">
+      <c r="I187" s="6">
         <v>1.7397022911582001E-5</v>
       </c>
-      <c r="I187" s="5">
-        <f t="shared" si="2"/>
+      <c r="J187" s="5">
+        <f t="shared" si="4"/>
         <v>0.4170973856497065</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>38899</v>
       </c>
@@ -6109,18 +6652,22 @@
       <c r="F188">
         <v>-1.5777568811501198E-2</v>
       </c>
-      <c r="G188" s="5">
+      <c r="G188">
+        <f t="shared" si="5"/>
+        <v>0.63985589990213176</v>
+      </c>
+      <c r="H188" s="5">
         <v>0.38412270611440302</v>
       </c>
-      <c r="H188" s="6">
+      <c r="I188" s="6">
         <v>2.5426742873423099E-5</v>
       </c>
-      <c r="I188" s="5">
-        <f t="shared" si="2"/>
+      <c r="J188" s="5">
+        <f t="shared" si="4"/>
         <v>0.5042493715754448</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>38991</v>
       </c>
@@ -6139,18 +6686,22 @@
       <c r="F189">
         <v>0.21983656426669601</v>
       </c>
-      <c r="G189" s="5">
+      <c r="G189">
+        <f t="shared" si="5"/>
+        <v>0.61878604078422206</v>
+      </c>
+      <c r="H189" s="5">
         <v>0.22146512360878701</v>
       </c>
-      <c r="H189" s="6">
+      <c r="I189" s="6">
         <v>2.2937924816833998E-5</v>
       </c>
-      <c r="I189" s="5">
-        <f t="shared" si="2"/>
+      <c r="J189" s="5">
+        <f t="shared" si="4"/>
         <v>0.4789355365478114</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>39083</v>
       </c>
@@ -6169,18 +6720,22 @@
       <c r="F190">
         <v>-9.7191460244791195E-2</v>
       </c>
-      <c r="G190" s="5">
+      <c r="G190">
+        <f t="shared" si="5"/>
+        <v>0.62136053007712044</v>
+      </c>
+      <c r="H190" s="5">
         <v>0.58337215737373405</v>
       </c>
-      <c r="H190" s="6">
+      <c r="I190" s="6">
         <v>1.8000664438850701E-5</v>
       </c>
-      <c r="I190" s="5">
-        <f t="shared" si="2"/>
+      <c r="J190" s="5">
+        <f t="shared" si="4"/>
         <v>0.42427189912661789</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>39173</v>
       </c>
@@ -6199,18 +6754,22 @@
       <c r="F191">
         <v>0.26748196708986</v>
       </c>
-      <c r="G191" s="5">
+      <c r="G191">
+        <f t="shared" si="5"/>
+        <v>0.68318263094179921</v>
+      </c>
+      <c r="H191" s="5">
         <v>0.43697682688774803</v>
       </c>
-      <c r="H191" s="6">
+      <c r="I191" s="6">
         <v>2.2871277521805099E-5</v>
       </c>
-      <c r="I191" s="5">
-        <f t="shared" si="2"/>
+      <c r="J191" s="5">
+        <f t="shared" si="4"/>
         <v>0.47823924474895513</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>39264</v>
       </c>
@@ -6229,18 +6788,22 @@
       <c r="F192">
         <v>0.11831046379452299</v>
       </c>
-      <c r="G192" s="5">
+      <c r="G192">
+        <f t="shared" si="5"/>
+        <v>0.76135934536515504</v>
+      </c>
+      <c r="H192" s="5">
         <v>1.5001585954689001</v>
       </c>
-      <c r="H192" s="6">
+      <c r="I192" s="6">
         <v>2.29023784418125E-5</v>
       </c>
-      <c r="I192" s="5">
-        <f t="shared" si="2"/>
+      <c r="J192" s="5">
+        <f t="shared" si="4"/>
         <v>0.47856429496790193</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>39356</v>
       </c>
@@ -6259,18 +6822,22 @@
       <c r="F193">
         <v>-0.20238013264112401</v>
       </c>
-      <c r="G193" s="5">
+      <c r="G193">
+        <f t="shared" si="5"/>
+        <v>0.85724614451426606</v>
+      </c>
+      <c r="H193" s="5">
         <v>1.51675550762738</v>
       </c>
-      <c r="H193" s="6">
+      <c r="I193" s="6">
         <v>2.70219517736294E-5</v>
       </c>
-      <c r="I193" s="5">
-        <f t="shared" si="2"/>
+      <c r="J193" s="5">
+        <f t="shared" si="4"/>
         <v>0.51982643039412113</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>39448</v>
       </c>
@@ -6289,18 +6856,22 @@
       <c r="F194">
         <v>-0.60554289576037701</v>
       </c>
-      <c r="G194" s="5">
+      <c r="G194">
+        <f t="shared" si="5"/>
+        <v>0.93921607792131812</v>
+      </c>
+      <c r="H194" s="5">
         <v>2.3604092774345</v>
       </c>
-      <c r="H194" s="6">
+      <c r="I194" s="6">
         <v>5.7780034620367397E-5</v>
       </c>
-      <c r="I194" s="5">
-        <f t="shared" si="2"/>
+      <c r="J194" s="5">
+        <f t="shared" si="4"/>
         <v>0.76013179528531361</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>39539</v>
       </c>
@@ -6319,18 +6890,22 @@
       <c r="F195">
         <v>-0.75171483073186995</v>
       </c>
-      <c r="G195" s="5">
+      <c r="G195">
+        <f t="shared" si="5"/>
+        <v>1.0733567360590939</v>
+      </c>
+      <c r="H195" s="5">
         <v>1.24712296949516</v>
       </c>
-      <c r="H195" s="6">
+      <c r="I195" s="6">
         <v>8.06186376374425E-5</v>
       </c>
-      <c r="I195" s="5">
-        <f t="shared" ref="I195:I245" si="3">+H195^0.5*100</f>
+      <c r="J195" s="5">
+        <f t="shared" ref="J195:J241" si="6">+I195^0.5*100</f>
         <v>0.89787882054006873</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>39630</v>
       </c>
@@ -6349,18 +6924,22 @@
       <c r="F196">
         <v>-1.1112024173331201</v>
       </c>
-      <c r="G196" s="5">
+      <c r="G196">
+        <f t="shared" si="5"/>
+        <v>1.2908404344986939</v>
+      </c>
+      <c r="H196" s="5">
         <v>5.0743207469238198</v>
       </c>
-      <c r="H196">
+      <c r="I196">
         <v>1.7085751152197401E-4</v>
       </c>
-      <c r="I196" s="5">
-        <f t="shared" si="3"/>
+      <c r="J196" s="5">
+        <f t="shared" si="6"/>
         <v>1.3071247512076802</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>39722</v>
       </c>
@@ -6379,18 +6958,22 @@
       <c r="F197">
         <v>-2.5188226267261098</v>
       </c>
-      <c r="G197" s="5">
+      <c r="G197">
+        <f t="shared" si="5"/>
+        <v>1.4822215438120474</v>
+      </c>
+      <c r="H197" s="5">
         <v>17.865680263636101</v>
       </c>
-      <c r="H197">
+      <c r="I197">
         <v>2.0412799061721501E-4</v>
       </c>
-      <c r="I197" s="5">
-        <f t="shared" si="3"/>
+      <c r="J197" s="5">
+        <f t="shared" si="6"/>
         <v>1.4287336722329149</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>39814</v>
       </c>
@@ -6409,18 +6992,22 @@
       <c r="F198">
         <v>-1.7626932736752501</v>
       </c>
-      <c r="G198" s="5">
+      <c r="G198">
+        <f t="shared" si="5"/>
+        <v>1.4125067828699041</v>
+      </c>
+      <c r="H198" s="5">
         <v>6.9162691200050199</v>
       </c>
-      <c r="H198">
+      <c r="I198">
         <v>1.6176279030554101E-4</v>
       </c>
-      <c r="I198" s="5">
-        <f t="shared" si="3"/>
+      <c r="J198" s="5">
+        <f t="shared" si="6"/>
         <v>1.2718600170834091</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>39904</v>
       </c>
@@ -6439,18 +7026,22 @@
       <c r="F199">
         <v>-5.6149843823811801E-2</v>
       </c>
-      <c r="G199" s="5">
+      <c r="G199">
+        <f t="shared" si="5"/>
+        <v>1.2390979350243239</v>
+      </c>
+      <c r="H199" s="5">
         <v>2.7542855536457198</v>
       </c>
-      <c r="H199" s="6">
+      <c r="I199" s="6">
         <v>6.7112191916936597E-5</v>
       </c>
-      <c r="I199" s="5">
-        <f t="shared" si="3"/>
+      <c r="J199" s="5">
+        <f t="shared" si="6"/>
         <v>0.81922031174121046</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>39995</v>
       </c>
@@ -6469,18 +7060,22 @@
       <c r="F200">
         <v>0.37424362995232202</v>
       </c>
-      <c r="G200" s="5">
+      <c r="G200">
+        <f t="shared" si="5"/>
+        <v>1.091319009400064</v>
+      </c>
+      <c r="H200" s="5">
         <v>1.2246062949502701</v>
       </c>
-      <c r="H200" s="6">
+      <c r="I200" s="6">
         <v>1.7164715229503299E-5</v>
       </c>
-      <c r="I200" s="5">
-        <f t="shared" si="3"/>
+      <c r="J200" s="5">
+        <f t="shared" si="6"/>
         <v>0.41430321299144302</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>40087</v>
       </c>
@@ -6499,18 +7094,22 @@
       <c r="F201">
         <v>0.49950230072430801</v>
       </c>
-      <c r="G201" s="5">
+      <c r="G201">
+        <f t="shared" si="5"/>
+        <v>1.0198388962768572</v>
+      </c>
+      <c r="H201" s="5">
         <v>1.06964953084443</v>
       </c>
-      <c r="H201" s="6">
+      <c r="I201" s="6">
         <v>1.2272317134684299E-5</v>
       </c>
-      <c r="I201" s="5">
-        <f t="shared" si="3"/>
+      <c r="J201" s="5">
+        <f t="shared" si="6"/>
         <v>0.35031867113649967</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>40179</v>
       </c>
@@ -6529,18 +7128,22 @@
       <c r="F202">
         <v>0.61878398192957496</v>
       </c>
-      <c r="G202" s="5">
+      <c r="G202">
+        <f t="shared" si="5"/>
+        <v>1.0098180471971672</v>
+      </c>
+      <c r="H202" s="5">
         <v>0.824440553821292</v>
       </c>
-      <c r="H202" s="6">
+      <c r="I202" s="6">
         <v>1.1440033622506299E-5</v>
       </c>
-      <c r="I202" s="5">
-        <f t="shared" si="3"/>
+      <c r="J202" s="5">
+        <f t="shared" si="6"/>
         <v>0.33823118754050902</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>40269</v>
       </c>
@@ -6548,7 +7151,7 @@
         <v>-0.2258676923076923</v>
       </c>
       <c r="C203">
-        <v>142.91665649414062</v>
+        <v>142.91665649414063</v>
       </c>
       <c r="D203" s="4">
         <v>0</v>
@@ -6559,18 +7162,22 @@
       <c r="F203">
         <v>0.193965601697136</v>
       </c>
-      <c r="G203" s="5">
+      <c r="G203">
+        <f t="shared" si="5"/>
+        <v>1.0714353335354072</v>
+      </c>
+      <c r="H203" s="5">
         <v>2.4680708766573298</v>
       </c>
-      <c r="H203" s="6">
+      <c r="I203" s="6">
         <v>1.37930113846681E-5</v>
       </c>
-      <c r="I203" s="5">
-        <f t="shared" si="3"/>
+      <c r="J203" s="5">
+        <f t="shared" si="6"/>
         <v>0.3713894369077842</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>40360</v>
       </c>
@@ -6589,18 +7196,22 @@
       <c r="F204">
         <v>-7.0059827633705302E-2</v>
       </c>
-      <c r="G204" s="5">
+      <c r="G204">
+        <f t="shared" si="5"/>
+        <v>1.0804192122445975</v>
+      </c>
+      <c r="H204" s="5">
         <v>1.30406743212288</v>
       </c>
-      <c r="H204" s="6">
+      <c r="I204" s="6">
         <v>2.2286045491065399E-5</v>
       </c>
-      <c r="I204" s="5">
-        <f t="shared" si="3"/>
+      <c r="J204" s="5">
+        <f t="shared" si="6"/>
         <v>0.472080983424088</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>40452</v>
       </c>
@@ -6619,18 +7230,22 @@
       <c r="F205">
         <v>0.31668277206621498</v>
       </c>
-      <c r="G205" s="5">
+      <c r="G205">
+        <f t="shared" si="5"/>
+        <v>0.95253860300207238</v>
+      </c>
+      <c r="H205" s="5">
         <v>0.56664735645187503</v>
       </c>
-      <c r="H205" s="6">
+      <c r="I205" s="6">
         <v>2.9639408902819399E-5</v>
       </c>
-      <c r="I205" s="5">
-        <f t="shared" si="3"/>
+      <c r="J205" s="5">
+        <f t="shared" si="6"/>
         <v>0.5444208749012055</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>40544</v>
       </c>
@@ -6649,18 +7264,22 @@
       <c r="F206">
         <v>0.26549985232467699</v>
       </c>
-      <c r="G206" s="5">
+      <c r="G206">
+        <f t="shared" si="5"/>
+        <v>0.86159743550068635</v>
+      </c>
+      <c r="H206" s="5">
         <v>0.69182305597350702</v>
       </c>
-      <c r="H206" s="6">
+      <c r="I206" s="6">
         <v>3.5608460239178997E-5</v>
       </c>
-      <c r="I206" s="5">
-        <f t="shared" si="3"/>
+      <c r="J206" s="5">
+        <f t="shared" si="6"/>
         <v>0.59672824836083471</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>40634</v>
       </c>
@@ -6679,18 +7298,22 @@
       <c r="F207">
         <v>-0.24088131889848199</v>
       </c>
-      <c r="G207" s="5">
+      <c r="G207">
+        <f t="shared" si="5"/>
+        <v>0.86974458274488708</v>
+      </c>
+      <c r="H207" s="5">
         <v>0.61603341052024096</v>
       </c>
-      <c r="H207" s="6">
+      <c r="I207" s="6">
         <v>2.3934413353803702E-5</v>
       </c>
-      <c r="I207" s="5">
-        <f t="shared" si="3"/>
+      <c r="J207" s="5">
+        <f t="shared" si="6"/>
         <v>0.48922809970200715</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>40725</v>
       </c>
@@ -6709,18 +7332,22 @@
       <c r="F208">
         <v>-0.31398729597316799</v>
       </c>
-      <c r="G208" s="5">
+      <c r="G208">
+        <f t="shared" si="5"/>
+        <v>1.0331358260393504</v>
+      </c>
+      <c r="H208" s="5">
         <v>4.4399045216350697</v>
       </c>
-      <c r="H208" s="6">
+      <c r="I208" s="6">
         <v>2.1975732895204298E-5</v>
       </c>
-      <c r="I208" s="5">
-        <f t="shared" si="3"/>
+      <c r="J208" s="5">
+        <f t="shared" si="6"/>
         <v>0.4687828164001353</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>40817</v>
       </c>
@@ -6739,18 +7366,22 @@
       <c r="F209">
         <v>-0.32171200388598697</v>
       </c>
-      <c r="G209" s="5">
+      <c r="G209">
+        <f t="shared" si="5"/>
+        <v>1.0049945588559881</v>
+      </c>
+      <c r="H209" s="5">
         <v>2.8159310777371802</v>
       </c>
-      <c r="H209" s="6">
+      <c r="I209" s="6">
         <v>1.6370049389088899E-5</v>
       </c>
-      <c r="I209" s="5">
-        <f t="shared" si="3"/>
+      <c r="J209" s="5">
+        <f t="shared" si="6"/>
         <v>0.40459917682922808</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>40909</v>
       </c>
@@ -6769,18 +7400,22 @@
       <c r="F210">
         <v>0.38879086666232199</v>
       </c>
-      <c r="G210" s="5">
+      <c r="G210">
+        <f t="shared" si="5"/>
+        <v>0.85751547051473098</v>
+      </c>
+      <c r="H210" s="5">
         <v>0.38872414009570599</v>
       </c>
-      <c r="H210" s="6">
+      <c r="I210" s="6">
         <v>2.9221027256174399E-5</v>
       </c>
-      <c r="I210" s="5">
-        <f t="shared" si="3"/>
+      <c r="J210" s="5">
+        <f t="shared" si="6"/>
         <v>0.54056477184676399</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>41000</v>
       </c>
@@ -6799,18 +7434,22 @@
       <c r="F211">
         <v>-0.23132643078242501</v>
       </c>
-      <c r="G211" s="5">
+      <c r="G211">
+        <f t="shared" si="5"/>
+        <v>0.81615665454771102</v>
+      </c>
+      <c r="H211" s="5">
         <v>1.04266416879145</v>
       </c>
-      <c r="H211" s="6">
+      <c r="I211" s="6">
         <v>2.98768729544501E-5</v>
       </c>
-      <c r="I211" s="5">
-        <f t="shared" si="3"/>
+      <c r="J211" s="5">
+        <f t="shared" si="6"/>
         <v>0.54659741084686908</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>41091</v>
       </c>
@@ -6829,18 +7468,22 @@
       <c r="F212">
         <v>-0.199053889053697</v>
       </c>
-      <c r="G212" s="5">
+      <c r="G212">
+        <f t="shared" si="5"/>
+        <v>0.74592523017651069</v>
+      </c>
+      <c r="H212" s="5">
         <v>0.52303147477939704</v>
       </c>
-      <c r="H212" s="6">
+      <c r="I212" s="6">
         <v>3.0768155949097902E-5</v>
       </c>
-      <c r="I212" s="5">
-        <f t="shared" si="3"/>
+      <c r="J212" s="5">
+        <f t="shared" si="6"/>
         <v>0.55469050784286811</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>41183</v>
       </c>
@@ -6859,18 +7502,22 @@
       <c r="F213">
         <v>7.1939451163734597E-2</v>
       </c>
-      <c r="G213" s="5">
+      <c r="G213">
+        <f t="shared" si="5"/>
+        <v>0.71912922298147341</v>
+      </c>
+      <c r="H213" s="5">
         <v>0.62457367944637798</v>
       </c>
-      <c r="H213" s="6">
+      <c r="I213" s="6">
         <v>1.9451676796794999E-5</v>
       </c>
-      <c r="I213" s="5">
-        <f t="shared" si="3"/>
+      <c r="J213" s="5">
+        <f t="shared" si="6"/>
         <v>0.44104055138722792</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>41275</v>
       </c>
@@ -6889,18 +7536,22 @@
       <c r="F214">
         <v>0.15422548088070201</v>
       </c>
-      <c r="G214" s="5">
+      <c r="G214">
+        <f t="shared" si="5"/>
+        <v>0.73057226164650668</v>
+      </c>
+      <c r="H214" s="5">
         <v>0.43661762961165301</v>
       </c>
-      <c r="H214" s="6">
+      <c r="I214" s="6">
         <v>1.8647205165544001E-5</v>
       </c>
-      <c r="I214" s="5">
-        <f t="shared" si="3"/>
+      <c r="J214" s="5">
+        <f t="shared" si="6"/>
         <v>0.43182409804854566</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>41365</v>
       </c>
@@ -6919,18 +7570,22 @@
       <c r="F215">
         <v>0.15862237298050699</v>
       </c>
-      <c r="G215" s="5">
+      <c r="G215">
+        <f t="shared" si="5"/>
+        <v>0.74027928833157075</v>
+      </c>
+      <c r="H215" s="5">
         <v>0.77684377822001804</v>
       </c>
-      <c r="H215" s="6">
+      <c r="I215" s="6">
         <v>2.23068176830348E-5</v>
       </c>
-      <c r="I215" s="5">
-        <f t="shared" si="3"/>
+      <c r="J215" s="5">
+        <f t="shared" si="6"/>
         <v>0.47230093884127311</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>41456</v>
       </c>
@@ -6949,18 +7604,22 @@
       <c r="F216">
         <v>0.21723213156417501</v>
       </c>
-      <c r="G216" s="5">
+      <c r="G216">
+        <f t="shared" si="5"/>
+        <v>0.7694670989757747</v>
+      </c>
+      <c r="H216" s="5">
         <v>0.32380882650824799</v>
       </c>
-      <c r="H216" s="6">
+      <c r="I216" s="6">
         <v>1.7852005671002101E-5</v>
       </c>
-      <c r="I216" s="5">
-        <f t="shared" si="3"/>
+      <c r="J216" s="5">
+        <f t="shared" si="6"/>
         <v>0.42251633898586816</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>41548</v>
       </c>
@@ -6979,18 +7638,22 @@
       <c r="F217">
         <v>0.28126069086585198</v>
       </c>
-      <c r="G217" s="5">
+      <c r="G217">
+        <f t="shared" si="5"/>
+        <v>0.74079270178149614</v>
+      </c>
+      <c r="H217" s="5">
         <v>0.43917451157098197</v>
       </c>
-      <c r="H217" s="6">
+      <c r="I217" s="6">
         <v>2.1451152555446101E-5</v>
       </c>
-      <c r="I217" s="5">
-        <f t="shared" si="3"/>
+      <c r="J217" s="5">
+        <f t="shared" si="6"/>
         <v>0.46315388971103438</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>41640</v>
       </c>
@@ -7009,18 +7672,22 @@
       <c r="F218">
         <v>0.206660863376841</v>
       </c>
-      <c r="G218" s="5">
+      <c r="G218">
+        <f t="shared" si="5"/>
+        <v>0.74302027808476079</v>
+      </c>
+      <c r="H218" s="5">
         <v>0.56391767133713699</v>
       </c>
-      <c r="H218" s="6">
+      <c r="I218" s="6">
         <v>1.47594677519437E-5</v>
       </c>
-      <c r="I218" s="5">
-        <f t="shared" si="3"/>
+      <c r="J218" s="5">
+        <f t="shared" si="6"/>
         <v>0.38418052725175567</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>41730</v>
       </c>
@@ -7039,18 +7706,22 @@
       <c r="F219">
         <v>0.33132163239351098</v>
       </c>
-      <c r="G219" s="5">
+      <c r="G219">
+        <f t="shared" si="5"/>
+        <v>0.73819099129484944</v>
+      </c>
+      <c r="H219" s="5">
         <v>0.35067600337233101</v>
       </c>
-      <c r="H219" s="6">
+      <c r="I219" s="6">
         <v>1.6732035567344299E-5</v>
       </c>
-      <c r="I219" s="5">
-        <f t="shared" si="3"/>
+      <c r="J219" s="5">
+        <f t="shared" si="6"/>
         <v>0.40904810924076274</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>41821</v>
       </c>
@@ -7069,18 +7740,22 @@
       <c r="F220">
         <v>0.16024045025741901</v>
       </c>
-      <c r="G220" s="5">
+      <c r="G220">
+        <f t="shared" si="5"/>
+        <v>0.78741875339641143</v>
+      </c>
+      <c r="H220" s="5">
         <v>0.34790549823806599</v>
       </c>
-      <c r="H220" s="6">
+      <c r="I220" s="6">
         <v>1.6375084433844598E-5</v>
       </c>
-      <c r="I220" s="5">
-        <f t="shared" si="3"/>
+      <c r="J220" s="5">
+        <f t="shared" si="6"/>
         <v>0.40466139467268925</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>41913</v>
       </c>
@@ -7099,18 +7774,22 @@
       <c r="F221">
         <v>-4.3035969881957299E-2</v>
       </c>
-      <c r="G221" s="5">
+      <c r="G221">
+        <f t="shared" si="5"/>
+        <v>0.76836829252120675</v>
+      </c>
+      <c r="H221" s="5">
         <v>0.79296117773752905</v>
       </c>
-      <c r="H221" s="6">
+      <c r="I221" s="6">
         <v>4.1890119450717303E-5</v>
       </c>
-      <c r="I221" s="5">
-        <f t="shared" si="3"/>
+      <c r="J221" s="5">
+        <f t="shared" si="6"/>
         <v>0.64722576780221985</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>42005</v>
       </c>
@@ -7129,18 +7808,22 @@
       <c r="F222">
         <v>-5.5223182553621998E-2</v>
       </c>
-      <c r="G222" s="5">
+      <c r="G222">
+        <f t="shared" si="5"/>
+        <v>0.770906747541376</v>
+      </c>
+      <c r="H222" s="5">
         <v>0.77997671195037499</v>
       </c>
-      <c r="H222" s="6">
+      <c r="I222" s="6">
         <v>6.6247453795188294E-5</v>
       </c>
-      <c r="I222" s="5">
-        <f t="shared" si="3"/>
+      <c r="J222" s="5">
+        <f t="shared" si="6"/>
         <v>0.81392538844287377</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>42095</v>
       </c>
@@ -7159,18 +7842,22 @@
       <c r="F223">
         <v>-2.2571753330519501E-2</v>
       </c>
-      <c r="G223" s="5">
+      <c r="G223">
+        <f t="shared" si="5"/>
+        <v>0.76214881657323597</v>
+      </c>
+      <c r="H223" s="5">
         <v>0.400025872169882</v>
       </c>
-      <c r="H223" s="6">
+      <c r="I223" s="6">
         <v>4.7838501288424499E-5</v>
       </c>
-      <c r="I223" s="5">
-        <f t="shared" si="3"/>
+      <c r="J223" s="5">
+        <f t="shared" si="6"/>
         <v>0.6916538244557352</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>42186</v>
       </c>
@@ -7189,18 +7876,22 @@
       <c r="F224">
         <v>-0.39496568601291798</v>
       </c>
-      <c r="G224" s="5">
+      <c r="G224">
+        <f t="shared" si="5"/>
+        <v>0.83558300980347278</v>
+      </c>
+      <c r="H224" s="5">
         <v>1.7379717597368201</v>
       </c>
-      <c r="H224" s="6">
+      <c r="I224" s="6">
         <v>5.6558277283138802E-5</v>
       </c>
-      <c r="I224" s="5">
-        <f t="shared" si="3"/>
+      <c r="J224" s="5">
+        <f t="shared" si="6"/>
         <v>0.75205237372897638</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>42278</v>
       </c>
@@ -7219,18 +7910,22 @@
       <c r="F225">
         <v>-0.25351638592494102</v>
       </c>
-      <c r="G225" s="5">
+      <c r="G225">
+        <f t="shared" si="5"/>
+        <v>0.85888617950591462</v>
+      </c>
+      <c r="H225" s="5">
         <v>0.86832111472098605</v>
       </c>
-      <c r="H225" s="6">
+      <c r="I225" s="6">
         <v>5.6716844679724403E-5</v>
       </c>
-      <c r="I225" s="5">
-        <f t="shared" si="3"/>
+      <c r="J225" s="5">
+        <f t="shared" si="6"/>
         <v>0.75310586692525772</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>42370</v>
       </c>
@@ -7249,18 +7944,22 @@
       <c r="F226">
         <v>-0.428713718513899</v>
       </c>
-      <c r="G226" s="5">
+      <c r="G226">
+        <f t="shared" si="5"/>
+        <v>0.84699281607848009</v>
+      </c>
+      <c r="H226" s="5">
         <v>1.3412767139019399</v>
       </c>
-      <c r="H226" s="6">
+      <c r="I226" s="6">
         <v>5.5621445583254703E-5</v>
       </c>
-      <c r="I226" s="5">
-        <f t="shared" si="3"/>
+      <c r="J226" s="5">
+        <f t="shared" si="6"/>
         <v>0.74579786526413916</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>42461</v>
       </c>
@@ -7279,18 +7978,22 @@
       <c r="F227">
         <v>-0.126791867239959</v>
       </c>
-      <c r="G227" s="5">
+      <c r="G227">
+        <f t="shared" si="5"/>
+        <v>0.76514129647983242</v>
+      </c>
+      <c r="H227" s="5">
         <v>0.73663895371328802</v>
       </c>
-      <c r="H227" s="6">
+      <c r="I227" s="6">
         <v>2.6018949224872699E-5</v>
       </c>
-      <c r="I227" s="5">
-        <f t="shared" si="3"/>
+      <c r="J227" s="5">
+        <f t="shared" si="6"/>
         <v>0.51008772995311991</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>42552</v>
       </c>
@@ -7309,18 +8012,22 @@
       <c r="F228">
         <v>-0.19716515602671</v>
       </c>
-      <c r="G228" s="5">
+      <c r="G228">
+        <f t="shared" si="5"/>
+        <v>0.75444379857236155</v>
+      </c>
+      <c r="H228" s="5">
         <v>0.381096007121283</v>
       </c>
-      <c r="H228" s="6">
+      <c r="I228" s="6">
         <v>2.6267455522416599E-5</v>
       </c>
-      <c r="I228" s="5">
-        <f t="shared" si="3"/>
+      <c r="J228" s="5">
+        <f t="shared" si="6"/>
         <v>0.51251785844413855</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>42644</v>
       </c>
@@ -7339,18 +8046,22 @@
       <c r="F229">
         <v>2.8101219269591499E-2</v>
       </c>
-      <c r="G229" s="5">
+      <c r="G229">
+        <f t="shared" si="5"/>
+        <v>0.77730547905780867</v>
+      </c>
+      <c r="H229" s="5">
         <v>0.28922728009669801</v>
       </c>
-      <c r="H229" s="6">
+      <c r="I229" s="6">
         <v>2.5811790480498401E-5</v>
       </c>
-      <c r="I229" s="5">
-        <f t="shared" si="3"/>
+      <c r="J229" s="5">
+        <f t="shared" si="6"/>
         <v>0.50805305314010663</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>42736</v>
       </c>
@@ -7369,18 +8080,22 @@
       <c r="F230">
         <v>0.206541119356625</v>
       </c>
-      <c r="G230" s="5">
+      <c r="G230">
+        <f t="shared" si="5"/>
+        <v>0.68164395114351128</v>
+      </c>
+      <c r="H230" s="5">
         <v>0.182423566904341</v>
       </c>
-      <c r="H230" s="6">
+      <c r="I230" s="6">
         <v>1.5343053527300101E-5</v>
       </c>
-      <c r="I230" s="5">
-        <f t="shared" si="3"/>
+      <c r="J230" s="5">
+        <f t="shared" si="6"/>
         <v>0.39170210016414386</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>42826</v>
       </c>
@@ -7399,18 +8114,22 @@
       <c r="F231">
         <v>0.121723332211136</v>
       </c>
-      <c r="G231" s="5">
+      <c r="G231">
+        <f t="shared" si="5"/>
+        <v>0.65482267670939476</v>
+      </c>
+      <c r="H231" s="5">
         <v>0.21335502949340299</v>
       </c>
-      <c r="H231" s="6">
+      <c r="I231" s="6">
         <v>2.3303866360299199E-5</v>
       </c>
-      <c r="I231" s="5">
-        <f t="shared" si="3"/>
+      <c r="J231" s="5">
+        <f t="shared" si="6"/>
         <v>0.48274078303266649</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>42917</v>
       </c>
@@ -7429,18 +8148,22 @@
       <c r="F232">
         <v>0.162973215419527</v>
       </c>
-      <c r="G232" s="5">
+      <c r="G232">
+        <f t="shared" si="5"/>
+        <v>0.67589082811883994</v>
+      </c>
+      <c r="H232" s="5">
         <v>0.20205486855427701</v>
       </c>
-      <c r="H232" s="6">
+      <c r="I232" s="6">
         <v>1.6880338633750301E-5</v>
       </c>
-      <c r="I232" s="5">
-        <f t="shared" si="3"/>
+      <c r="J232" s="5">
+        <f t="shared" si="6"/>
         <v>0.41085689277107545</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>43009</v>
       </c>
@@ -7459,18 +8182,22 @@
       <c r="F233">
         <v>0.327914810740563</v>
       </c>
-      <c r="G233" s="5">
+      <c r="G233">
+        <f t="shared" si="5"/>
+        <v>0.69135259320766518</v>
+      </c>
+      <c r="H233" s="5">
         <v>0.129199144441529</v>
       </c>
-      <c r="H233" s="6">
+      <c r="I233" s="6">
         <v>1.39316229938857E-5</v>
       </c>
-      <c r="I233" s="5">
-        <f t="shared" si="3"/>
+      <c r="J233" s="5">
+        <f t="shared" si="6"/>
         <v>0.37325089408982937</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>43101</v>
       </c>
@@ -7489,18 +8216,22 @@
       <c r="F234">
         <v>0.239557265595427</v>
       </c>
-      <c r="G234" s="5">
+      <c r="G234">
+        <f t="shared" si="5"/>
+        <v>0.730654663449815</v>
+      </c>
+      <c r="H234" s="5">
         <v>1.55839274867665</v>
       </c>
-      <c r="H234" s="6">
+      <c r="I234" s="6">
         <v>2.4180676860503802E-5</v>
       </c>
-      <c r="I234" s="5">
-        <f t="shared" si="3"/>
+      <c r="J234" s="5">
+        <f t="shared" si="6"/>
         <v>0.49173851649534023</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>43191</v>
       </c>
@@ -7519,18 +8250,22 @@
       <c r="F235">
         <v>-0.100604154915356</v>
       </c>
-      <c r="G235" s="5">
+      <c r="G235">
+        <f t="shared" si="5"/>
+        <v>0.76360372582288594</v>
+      </c>
+      <c r="H235" s="5">
         <v>0.612520277723823</v>
       </c>
-      <c r="H235" s="6">
+      <c r="I235" s="6">
         <v>2.3355708235059499E-5</v>
       </c>
-      <c r="I235" s="5">
-        <f t="shared" si="3"/>
+      <c r="J235" s="5">
+        <f t="shared" si="6"/>
         <v>0.48327743828011976</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>43282</v>
       </c>
@@ -7549,18 +8284,22 @@
       <c r="F236">
         <v>-1.59086449253882E-2</v>
       </c>
-      <c r="G236" s="5">
+      <c r="G236">
+        <f t="shared" si="5"/>
+        <v>0.8668627376064193</v>
+      </c>
+      <c r="H236" s="5">
         <v>0.21453880845745901</v>
       </c>
-      <c r="H236" s="6">
+      <c r="I236" s="6">
         <v>2.2911478227466201E-5</v>
       </c>
-      <c r="I236" s="5">
-        <f t="shared" si="3"/>
+      <c r="J236" s="5">
+        <f t="shared" si="6"/>
         <v>0.47865935933047626</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>43374</v>
       </c>
@@ -7579,18 +8318,22 @@
       <c r="F237">
         <v>-0.37505581930436499</v>
       </c>
-      <c r="G237" s="5">
+      <c r="G237">
+        <f t="shared" si="5"/>
+        <v>1.0685001785708472</v>
+      </c>
+      <c r="H237" s="5">
         <v>2.26084141563121</v>
       </c>
-      <c r="H237" s="6">
+      <c r="I237" s="6">
         <v>4.1828046103995797E-5</v>
       </c>
-      <c r="I237" s="5">
-        <f t="shared" si="3"/>
+      <c r="J237" s="5">
+        <f t="shared" si="6"/>
         <v>0.64674605606834423</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>43466</v>
       </c>
@@ -7609,18 +8352,22 @@
       <c r="F238">
         <v>-0.15027743845430799</v>
       </c>
-      <c r="G238" s="5">
+      <c r="G238">
+        <f t="shared" si="5"/>
+        <v>1.0591432059947006</v>
+      </c>
+      <c r="H238" s="5">
         <v>0.75724471236010005</v>
       </c>
-      <c r="H238" s="6">
+      <c r="I238" s="6">
         <v>5.0122939929836199E-5</v>
       </c>
-      <c r="I238" s="5">
-        <f t="shared" si="3"/>
+      <c r="J238" s="5">
+        <f t="shared" si="6"/>
         <v>0.70797556405455264</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>43556</v>
       </c>
@@ -7639,18 +8386,22 @@
       <c r="F239">
         <v>-0.122246377427496</v>
       </c>
-      <c r="G239" s="5">
+      <c r="G239">
+        <f t="shared" si="5"/>
+        <v>1.0369376885089239</v>
+      </c>
+      <c r="H239" s="5">
         <v>0.52024148354826005</v>
       </c>
-      <c r="H239" s="6">
+      <c r="I239" s="6">
         <v>3.7389082093848E-5</v>
       </c>
-      <c r="I239" s="5">
-        <f t="shared" si="3"/>
+      <c r="J239" s="5">
+        <f t="shared" si="6"/>
         <v>0.6114661241135767</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>43647</v>
       </c>
@@ -7669,18 +8420,22 @@
       <c r="F240">
         <v>-0.42756056589925201</v>
       </c>
-      <c r="G240" s="5">
+      <c r="G240">
+        <f t="shared" si="5"/>
+        <v>1.0038922159310339</v>
+      </c>
+      <c r="H240" s="5">
         <v>0.86796968749999526</v>
       </c>
-      <c r="H240" s="6">
+      <c r="I240" s="6">
         <v>4.5851948392684798E-5</v>
       </c>
-      <c r="I240" s="5">
-        <f t="shared" si="3"/>
+      <c r="J240" s="5">
+        <f t="shared" si="6"/>
         <v>0.6771406677543802</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>43739</v>
       </c>
@@ -7699,18 +8454,22 @@
       <c r="F241">
         <v>4.4448131626078601E-2</v>
       </c>
-      <c r="G241" s="5">
+      <c r="G241">
+        <f t="shared" si="5"/>
+        <v>1.0420592035200307</v>
+      </c>
+      <c r="H241" s="5">
         <v>0.36264106249999267</v>
       </c>
-      <c r="H241" s="6">
+      <c r="I241" s="6">
         <v>4.4524353085925497E-5</v>
       </c>
-      <c r="I241" s="5">
-        <f t="shared" si="3"/>
+      <c r="J241" s="5">
+        <f t="shared" si="6"/>
         <v>0.66726571233598908</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>43831</v>
       </c>
@@ -7730,7 +8489,7 @@
         <v>-1.2036027121458399</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>43922</v>
       </c>
@@ -7750,7 +8509,7 @@
         <v>-3.0881972742501298</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>44013</v>
       </c>
@@ -7767,7 +8526,7 @@
         <v>1.4009308040482</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>44105</v>
       </c>
